--- a/tools_llm/transport4/4-Transport (AI chat uchun1).xlsx
+++ b/tools_llm/transport4/4-Transport (AI chat uchun1).xlsx
@@ -1226,6 +1226,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color rgb="FF000000"/>
@@ -1234,18 +1240,12 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -1316,6 +1316,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1506,13 +1513,6 @@
     </border>
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -2243,10 +2243,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="291">
+  <cellXfs count="265">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="general" wrapText="1"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -2257,165 +2257,774 @@
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="43" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="44" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="43" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="50" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="51" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="50" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="52" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="53" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="54" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="55" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="56" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="54" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="55" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="52" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="53" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="57" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="58" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="54" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="55" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="56" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="58" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="59" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="61" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="62" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="63" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="64" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="63" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="64" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="65" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="67" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="68" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="69" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="69" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="69" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="70" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="71" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="72" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="72" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="72" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="73" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="74" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="75" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="76" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="77" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="78" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="79" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="77" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="78" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="79" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="77" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="78" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general" wrapText="1"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="23" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="28" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="2" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="31" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="35" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2425,695 +3034,8 @@
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="38" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="39" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="40" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="29" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="30" applyBorder="1" fontId="3" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="43" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="44" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="43" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="5" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="50" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="51" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="50" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="22" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="52" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="53" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="54" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="55" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="56" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="54" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="55" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="52" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="53" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="57" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="58" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="54" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="55" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="56" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="52" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="58" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="59" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="61" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="62" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="63" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="64" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="63" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="64" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="13" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="65" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="66" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="67" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="68" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="69" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="69" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="69" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="70" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="71" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="72" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="72" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="72" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="73" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="42" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="49" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="48" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="59" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="60" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="41" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="74" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="47" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="45" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="46" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="75" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="76" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="77" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="78" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="79" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="77" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="78" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="79" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="77" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="78" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="10" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="11" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="25" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="26" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="24" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="27" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="34" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="32" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="33" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="16" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="37" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="36" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="21" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3423,41 +3345,41 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="287" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="288" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="288" width="1.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="288" width="2.1478571428571427" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="288" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="288" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="288" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="288" width="19.719285714285714" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="16" max="16" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="17" max="17" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="18" max="18" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="19" max="19" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="20" max="20" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="21" max="21" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="22" max="22" style="289" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="23" max="23" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="24" max="24" style="290" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="25" max="25" style="290" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="26" max="26" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="27" max="27" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="28" max="28" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="29" max="29" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="30" max="30" style="290" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="31" max="31" style="290" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="32" max="32" style="290" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="33" max="33" style="290" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="34" max="34" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="35" max="35" style="286" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="261" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="262" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="262" width="1.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="262" width="2.1478571428571427" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="262" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="262" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="262" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="262" width="19.719285714285714" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="20" max="20" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="21" max="21" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="22" max="22" style="263" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="23" max="23" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="24" max="24" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="25" max="25" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="26" max="26" style="264" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="27" max="27" style="264" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="28" max="28" style="264" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="29" max="29" style="264" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="30" max="30" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="31" max="31" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="32" max="32" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="33" max="33" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="34" max="34" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="35" max="35" style="260" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -3486,10 +3408,10 @@
       <c r="W1" s="1"/>
       <c r="X1" s="5"/>
       <c r="Y1" s="5"/>
-      <c r="Z1" s="1"/>
-      <c r="AA1" s="1"/>
-      <c r="AB1" s="1"/>
-      <c r="AC1" s="1"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6"/>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
       <c r="AD1" s="5"/>
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
@@ -3500,35 +3422,35 @@
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="7"/>
-      <c r="Q2" s="7"/>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="T2" s="7"/>
-      <c r="U2" s="7"/>
-      <c r="V2" s="8"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="8"/>
+      <c r="V2" s="9"/>
       <c r="W2" s="1"/>
-      <c r="X2" s="9" t="s">
+      <c r="X2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="1"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
+      <c r="AA2" s="11"/>
+      <c r="AB2" s="12"/>
+      <c r="AC2" s="6"/>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
@@ -3536,29 +3458,29 @@
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="12">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75" customFormat="1" s="13">
       <c r="A3" s="5"/>
       <c r="B3" s="5"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
-      <c r="M3" s="15"/>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-      <c r="T3" s="15"/>
-      <c r="U3" s="15"/>
-      <c r="V3" s="15"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
       <c r="W3" s="5"/>
       <c r="X3" s="16"/>
       <c r="Y3" s="17"/>
@@ -3573,29 +3495,29 @@
       <c r="AH3" s="5"/>
       <c r="AI3" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="12">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75" customFormat="1" s="13">
       <c r="A4" s="5"/>
       <c r="B4" s="5"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="15"/>
-      <c r="M4" s="15"/>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="15"/>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="5"/>
+      <c r="U4" s="5"/>
+      <c r="V4" s="5"/>
       <c r="W4" s="5"/>
       <c r="X4" s="16"/>
       <c r="Y4" s="17"/>
@@ -3643,7 +3565,7 @@
       <c r="Z5" s="17"/>
       <c r="AA5" s="17"/>
       <c r="AB5" s="18"/>
-      <c r="AC5" s="1"/>
+      <c r="AC5" s="6"/>
       <c r="AD5" s="5"/>
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
@@ -3684,7 +3606,7 @@
       <c r="Z6" s="17"/>
       <c r="AA6" s="17"/>
       <c r="AB6" s="18"/>
-      <c r="AC6" s="1"/>
+      <c r="AC6" s="6"/>
       <c r="AD6" s="5"/>
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
@@ -3721,7 +3643,7 @@
       <c r="Z7" s="17"/>
       <c r="AA7" s="17"/>
       <c r="AB7" s="18"/>
-      <c r="AC7" s="1"/>
+      <c r="AC7" s="6"/>
       <c r="AD7" s="5"/>
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
@@ -3758,7 +3680,7 @@
       <c r="Z8" s="17"/>
       <c r="AA8" s="17"/>
       <c r="AB8" s="18"/>
-      <c r="AC8" s="1"/>
+      <c r="AC8" s="6"/>
       <c r="AD8" s="5"/>
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
@@ -3795,7 +3717,7 @@
       <c r="Z9" s="17"/>
       <c r="AA9" s="17"/>
       <c r="AB9" s="18"/>
-      <c r="AC9" s="1"/>
+      <c r="AC9" s="6"/>
       <c r="AD9" s="5"/>
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
@@ -3832,7 +3754,7 @@
       <c r="Z10" s="17"/>
       <c r="AA10" s="17"/>
       <c r="AB10" s="18"/>
-      <c r="AC10" s="1"/>
+      <c r="AC10" s="6"/>
       <c r="AD10" s="5"/>
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
@@ -3869,7 +3791,7 @@
       <c r="Z11" s="17"/>
       <c r="AA11" s="17"/>
       <c r="AB11" s="18"/>
-      <c r="AC11" s="1"/>
+      <c r="AC11" s="6"/>
       <c r="AD11" s="5"/>
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
@@ -3906,7 +3828,7 @@
       <c r="Z12" s="17"/>
       <c r="AA12" s="17"/>
       <c r="AB12" s="18"/>
-      <c r="AC12" s="1"/>
+      <c r="AC12" s="6"/>
       <c r="AD12" s="5"/>
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
@@ -3943,7 +3865,7 @@
       <c r="Z13" s="17"/>
       <c r="AA13" s="17"/>
       <c r="AB13" s="18"/>
-      <c r="AC13" s="1"/>
+      <c r="AC13" s="6"/>
       <c r="AD13" s="5"/>
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
@@ -3980,7 +3902,7 @@
       <c r="Z14" s="44"/>
       <c r="AA14" s="44"/>
       <c r="AB14" s="45"/>
-      <c r="AC14" s="1"/>
+      <c r="AC14" s="6"/>
       <c r="AD14" s="5"/>
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
@@ -4018,10 +3940,10 @@
       <c r="W15" s="1"/>
       <c r="X15" s="5"/>
       <c r="Y15" s="5"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
+      <c r="Z15" s="6"/>
+      <c r="AA15" s="6"/>
+      <c r="AB15" s="6"/>
+      <c r="AC15" s="6"/>
       <c r="AD15" s="5"/>
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
@@ -4055,10 +3977,10 @@
       <c r="W16" s="1"/>
       <c r="X16" s="5"/>
       <c r="Y16" s="5"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
       <c r="AD16" s="5"/>
       <c r="AE16" s="5"/>
       <c r="AF16" s="5"/>
@@ -4092,10 +4014,10 @@
       <c r="W17" s="1"/>
       <c r="X17" s="5"/>
       <c r="Y17" s="5"/>
-      <c r="Z17" s="1"/>
-      <c r="AA17" s="1"/>
-      <c r="AB17" s="1"/>
-      <c r="AC17" s="1"/>
+      <c r="Z17" s="6"/>
+      <c r="AA17" s="6"/>
+      <c r="AB17" s="6"/>
+      <c r="AC17" s="6"/>
       <c r="AD17" s="5"/>
       <c r="AE17" s="5"/>
       <c r="AF17" s="5"/>
@@ -4129,10 +4051,10 @@
       <c r="W18" s="1"/>
       <c r="X18" s="5"/>
       <c r="Y18" s="5"/>
-      <c r="Z18" s="1"/>
-      <c r="AA18" s="1"/>
-      <c r="AB18" s="1"/>
-      <c r="AC18" s="1"/>
+      <c r="Z18" s="6"/>
+      <c r="AA18" s="6"/>
+      <c r="AB18" s="6"/>
+      <c r="AC18" s="6"/>
       <c r="AD18" s="5"/>
       <c r="AE18" s="5"/>
       <c r="AF18" s="5"/>
@@ -4170,10 +4092,10 @@
       <c r="W19" s="1"/>
       <c r="X19" s="5"/>
       <c r="Y19" s="5"/>
-      <c r="Z19" s="1"/>
-      <c r="AA19" s="1"/>
-      <c r="AB19" s="1"/>
-      <c r="AC19" s="1"/>
+      <c r="Z19" s="6"/>
+      <c r="AA19" s="6"/>
+      <c r="AB19" s="6"/>
+      <c r="AC19" s="6"/>
       <c r="AD19" s="5"/>
       <c r="AE19" s="5"/>
       <c r="AF19" s="5"/>
@@ -4207,10 +4129,10 @@
       <c r="W20" s="1"/>
       <c r="X20" s="5"/>
       <c r="Y20" s="5"/>
-      <c r="Z20" s="1"/>
-      <c r="AA20" s="1"/>
-      <c r="AB20" s="1"/>
-      <c r="AC20" s="1"/>
+      <c r="Z20" s="6"/>
+      <c r="AA20" s="6"/>
+      <c r="AB20" s="6"/>
+      <c r="AC20" s="6"/>
       <c r="AD20" s="5"/>
       <c r="AE20" s="5"/>
       <c r="AF20" s="5"/>
@@ -4244,10 +4166,10 @@
       <c r="W21" s="1"/>
       <c r="X21" s="5"/>
       <c r="Y21" s="5"/>
-      <c r="Z21" s="1"/>
-      <c r="AA21" s="1"/>
-      <c r="AB21" s="1"/>
-      <c r="AC21" s="1"/>
+      <c r="Z21" s="6"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="6"/>
+      <c r="AC21" s="6"/>
       <c r="AD21" s="5"/>
       <c r="AE21" s="5"/>
       <c r="AF21" s="5"/>
@@ -4281,10 +4203,10 @@
       <c r="W22" s="1"/>
       <c r="X22" s="5"/>
       <c r="Y22" s="5"/>
-      <c r="Z22" s="1"/>
-      <c r="AA22" s="1"/>
-      <c r="AB22" s="1"/>
-      <c r="AC22" s="1"/>
+      <c r="Z22" s="6"/>
+      <c r="AA22" s="6"/>
+      <c r="AB22" s="6"/>
+      <c r="AC22" s="6"/>
       <c r="AD22" s="5"/>
       <c r="AE22" s="5"/>
       <c r="AF22" s="5"/>
@@ -4318,10 +4240,10 @@
       <c r="W23" s="1"/>
       <c r="X23" s="5"/>
       <c r="Y23" s="5"/>
-      <c r="Z23" s="1"/>
-      <c r="AA23" s="1"/>
-      <c r="AB23" s="1"/>
-      <c r="AC23" s="1"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AB23" s="6"/>
+      <c r="AC23" s="6"/>
       <c r="AD23" s="5"/>
       <c r="AE23" s="5"/>
       <c r="AF23" s="5"/>
@@ -4355,10 +4277,10 @@
       <c r="W24" s="1"/>
       <c r="X24" s="5"/>
       <c r="Y24" s="5"/>
-      <c r="Z24" s="1"/>
-      <c r="AA24" s="1"/>
-      <c r="AB24" s="1"/>
-      <c r="AC24" s="1"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AB24" s="6"/>
+      <c r="AC24" s="6"/>
       <c r="AD24" s="5"/>
       <c r="AE24" s="5"/>
       <c r="AF24" s="5"/>
@@ -4392,10 +4314,10 @@
       <c r="W25" s="1"/>
       <c r="X25" s="5"/>
       <c r="Y25" s="5"/>
-      <c r="Z25" s="1"/>
-      <c r="AA25" s="1"/>
-      <c r="AB25" s="1"/>
-      <c r="AC25" s="1"/>
+      <c r="Z25" s="6"/>
+      <c r="AA25" s="6"/>
+      <c r="AB25" s="6"/>
+      <c r="AC25" s="6"/>
       <c r="AD25" s="5"/>
       <c r="AE25" s="5"/>
       <c r="AF25" s="5"/>
@@ -4429,10 +4351,10 @@
       <c r="W26" s="1"/>
       <c r="X26" s="5"/>
       <c r="Y26" s="5"/>
-      <c r="Z26" s="1"/>
-      <c r="AA26" s="1"/>
-      <c r="AB26" s="1"/>
-      <c r="AC26" s="1"/>
+      <c r="Z26" s="6"/>
+      <c r="AA26" s="6"/>
+      <c r="AB26" s="6"/>
+      <c r="AC26" s="6"/>
       <c r="AD26" s="5"/>
       <c r="AE26" s="5"/>
       <c r="AF26" s="5"/>
@@ -4466,10 +4388,10 @@
       <c r="W27" s="1"/>
       <c r="X27" s="5"/>
       <c r="Y27" s="5"/>
-      <c r="Z27" s="1"/>
-      <c r="AA27" s="1"/>
-      <c r="AB27" s="1"/>
-      <c r="AC27" s="1"/>
+      <c r="Z27" s="6"/>
+      <c r="AA27" s="6"/>
+      <c r="AB27" s="6"/>
+      <c r="AC27" s="6"/>
       <c r="AD27" s="5"/>
       <c r="AE27" s="5"/>
       <c r="AF27" s="5"/>
@@ -4503,10 +4425,10 @@
       <c r="W28" s="1"/>
       <c r="X28" s="5"/>
       <c r="Y28" s="5"/>
-      <c r="Z28" s="1"/>
-      <c r="AA28" s="1"/>
-      <c r="AB28" s="1"/>
-      <c r="AC28" s="1"/>
+      <c r="Z28" s="6"/>
+      <c r="AA28" s="6"/>
+      <c r="AB28" s="6"/>
+      <c r="AC28" s="6"/>
       <c r="AD28" s="5"/>
       <c r="AE28" s="5"/>
       <c r="AF28" s="5"/>
@@ -4540,10 +4462,10 @@
       <c r="W29" s="1"/>
       <c r="X29" s="5"/>
       <c r="Y29" s="5"/>
-      <c r="Z29" s="1"/>
-      <c r="AA29" s="1"/>
-      <c r="AB29" s="1"/>
-      <c r="AC29" s="1"/>
+      <c r="Z29" s="6"/>
+      <c r="AA29" s="6"/>
+      <c r="AB29" s="6"/>
+      <c r="AC29" s="6"/>
       <c r="AD29" s="5"/>
       <c r="AE29" s="5"/>
       <c r="AF29" s="5"/>
@@ -4579,10 +4501,10 @@
       <c r="W30" s="1"/>
       <c r="X30" s="5"/>
       <c r="Y30" s="5"/>
-      <c r="Z30" s="1"/>
-      <c r="AA30" s="1"/>
-      <c r="AB30" s="1"/>
-      <c r="AC30" s="1"/>
+      <c r="Z30" s="6"/>
+      <c r="AA30" s="6"/>
+      <c r="AB30" s="6"/>
+      <c r="AC30" s="6"/>
       <c r="AD30" s="5"/>
       <c r="AE30" s="5"/>
       <c r="AF30" s="5"/>
@@ -4622,10 +4544,10 @@
       <c r="W31" s="1"/>
       <c r="X31" s="5"/>
       <c r="Y31" s="5"/>
-      <c r="Z31" s="1"/>
-      <c r="AA31" s="1"/>
-      <c r="AB31" s="1"/>
-      <c r="AC31" s="1"/>
+      <c r="Z31" s="6"/>
+      <c r="AA31" s="6"/>
+      <c r="AB31" s="6"/>
+      <c r="AC31" s="6"/>
       <c r="AD31" s="5"/>
       <c r="AE31" s="5"/>
       <c r="AF31" s="5"/>
@@ -4659,10 +4581,10 @@
       <c r="W32" s="1"/>
       <c r="X32" s="5"/>
       <c r="Y32" s="5"/>
-      <c r="Z32" s="1"/>
-      <c r="AA32" s="1"/>
-      <c r="AB32" s="1"/>
-      <c r="AC32" s="1"/>
+      <c r="Z32" s="6"/>
+      <c r="AA32" s="6"/>
+      <c r="AB32" s="6"/>
+      <c r="AC32" s="6"/>
       <c r="AD32" s="5"/>
       <c r="AE32" s="5"/>
       <c r="AF32" s="5"/>
@@ -4702,10 +4624,10 @@
       <c r="W33" s="1"/>
       <c r="X33" s="5"/>
       <c r="Y33" s="5"/>
-      <c r="Z33" s="1"/>
-      <c r="AA33" s="1"/>
-      <c r="AB33" s="1"/>
-      <c r="AC33" s="1"/>
+      <c r="Z33" s="6"/>
+      <c r="AA33" s="6"/>
+      <c r="AB33" s="6"/>
+      <c r="AC33" s="6"/>
       <c r="AD33" s="5"/>
       <c r="AE33" s="5"/>
       <c r="AF33" s="5"/>
@@ -4739,10 +4661,10 @@
       <c r="W34" s="1"/>
       <c r="X34" s="5"/>
       <c r="Y34" s="5"/>
-      <c r="Z34" s="1"/>
-      <c r="AA34" s="1"/>
-      <c r="AB34" s="1"/>
-      <c r="AC34" s="1"/>
+      <c r="Z34" s="6"/>
+      <c r="AA34" s="6"/>
+      <c r="AB34" s="6"/>
+      <c r="AC34" s="6"/>
       <c r="AD34" s="5"/>
       <c r="AE34" s="5"/>
       <c r="AF34" s="5"/>
@@ -4750,7 +4672,7 @@
       <c r="AH34" s="1"/>
       <c r="AI34" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15" customFormat="1" s="12">
+    <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="15" customFormat="1" s="13">
       <c r="A35" s="5"/>
       <c r="B35" s="5"/>
       <c r="C35" s="85" t="s">
@@ -4793,7 +4715,7 @@
       <c r="AH35" s="5"/>
       <c r="AI35" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="12">
+    <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75" customFormat="1" s="13">
       <c r="A36" s="5"/>
       <c r="B36" s="5"/>
       <c r="C36" s="87"/>
@@ -4856,10 +4778,10 @@
       <c r="W37" s="1"/>
       <c r="X37" s="5"/>
       <c r="Y37" s="5"/>
-      <c r="Z37" s="1"/>
-      <c r="AA37" s="1"/>
-      <c r="AB37" s="1"/>
-      <c r="AC37" s="1"/>
+      <c r="Z37" s="6"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="6"/>
+      <c r="AC37" s="6"/>
       <c r="AD37" s="5"/>
       <c r="AE37" s="5"/>
       <c r="AF37" s="5"/>
@@ -4893,10 +4815,10 @@
       <c r="W38" s="1"/>
       <c r="X38" s="5"/>
       <c r="Y38" s="5"/>
-      <c r="Z38" s="1"/>
-      <c r="AA38" s="1"/>
-      <c r="AB38" s="1"/>
-      <c r="AC38" s="1"/>
+      <c r="Z38" s="6"/>
+      <c r="AA38" s="6"/>
+      <c r="AB38" s="6"/>
+      <c r="AC38" s="6"/>
       <c r="AD38" s="5"/>
       <c r="AE38" s="5"/>
       <c r="AF38" s="5"/>
@@ -4930,10 +4852,10 @@
       <c r="W39" s="1"/>
       <c r="X39" s="5"/>
       <c r="Y39" s="5"/>
-      <c r="Z39" s="1"/>
-      <c r="AA39" s="1"/>
-      <c r="AB39" s="1"/>
-      <c r="AC39" s="1"/>
+      <c r="Z39" s="6"/>
+      <c r="AA39" s="6"/>
+      <c r="AB39" s="6"/>
+      <c r="AC39" s="6"/>
       <c r="AD39" s="5"/>
       <c r="AE39" s="5"/>
       <c r="AF39" s="5"/>
@@ -4967,10 +4889,10 @@
       <c r="W40" s="1"/>
       <c r="X40" s="5"/>
       <c r="Y40" s="5"/>
-      <c r="Z40" s="1"/>
-      <c r="AA40" s="1"/>
-      <c r="AB40" s="1"/>
-      <c r="AC40" s="1"/>
+      <c r="Z40" s="6"/>
+      <c r="AA40" s="6"/>
+      <c r="AB40" s="6"/>
+      <c r="AC40" s="6"/>
       <c r="AD40" s="5"/>
       <c r="AE40" s="5"/>
       <c r="AF40" s="5"/>
@@ -5004,10 +4926,10 @@
       <c r="W41" s="1"/>
       <c r="X41" s="5"/>
       <c r="Y41" s="5"/>
-      <c r="Z41" s="1"/>
-      <c r="AA41" s="1"/>
-      <c r="AB41" s="1"/>
-      <c r="AC41" s="1"/>
+      <c r="Z41" s="6"/>
+      <c r="AA41" s="6"/>
+      <c r="AB41" s="6"/>
+      <c r="AC41" s="6"/>
       <c r="AD41" s="5"/>
       <c r="AE41" s="5"/>
       <c r="AF41" s="5"/>
@@ -5041,10 +4963,10 @@
       <c r="W42" s="1"/>
       <c r="X42" s="5"/>
       <c r="Y42" s="5"/>
-      <c r="Z42" s="1"/>
-      <c r="AA42" s="1"/>
-      <c r="AB42" s="1"/>
-      <c r="AC42" s="1"/>
+      <c r="Z42" s="6"/>
+      <c r="AA42" s="6"/>
+      <c r="AB42" s="6"/>
+      <c r="AC42" s="6"/>
       <c r="AD42" s="5"/>
       <c r="AE42" s="5"/>
       <c r="AF42" s="5"/>
@@ -5078,10 +5000,10 @@
       <c r="W43" s="1"/>
       <c r="X43" s="5"/>
       <c r="Y43" s="5"/>
-      <c r="Z43" s="1"/>
-      <c r="AA43" s="1"/>
-      <c r="AB43" s="1"/>
-      <c r="AC43" s="1"/>
+      <c r="Z43" s="6"/>
+      <c r="AA43" s="6"/>
+      <c r="AB43" s="6"/>
+      <c r="AC43" s="6"/>
       <c r="AD43" s="5"/>
       <c r="AE43" s="5"/>
       <c r="AF43" s="5"/>
@@ -5115,10 +5037,10 @@
       <c r="W44" s="1"/>
       <c r="X44" s="5"/>
       <c r="Y44" s="5"/>
-      <c r="Z44" s="1"/>
-      <c r="AA44" s="1"/>
-      <c r="AB44" s="1"/>
-      <c r="AC44" s="1"/>
+      <c r="Z44" s="6"/>
+      <c r="AA44" s="6"/>
+      <c r="AB44" s="6"/>
+      <c r="AC44" s="6"/>
       <c r="AD44" s="5"/>
       <c r="AE44" s="5"/>
       <c r="AF44" s="5"/>
@@ -5152,10 +5074,10 @@
       <c r="W45" s="1"/>
       <c r="X45" s="5"/>
       <c r="Y45" s="5"/>
-      <c r="Z45" s="1"/>
-      <c r="AA45" s="1"/>
-      <c r="AB45" s="1"/>
-      <c r="AC45" s="1"/>
+      <c r="Z45" s="6"/>
+      <c r="AA45" s="6"/>
+      <c r="AB45" s="6"/>
+      <c r="AC45" s="6"/>
       <c r="AD45" s="5"/>
       <c r="AE45" s="5"/>
       <c r="AF45" s="5"/>
@@ -5189,10 +5111,10 @@
       <c r="W46" s="1"/>
       <c r="X46" s="5"/>
       <c r="Y46" s="5"/>
-      <c r="Z46" s="1"/>
-      <c r="AA46" s="1"/>
-      <c r="AB46" s="1"/>
-      <c r="AC46" s="1"/>
+      <c r="Z46" s="6"/>
+      <c r="AA46" s="6"/>
+      <c r="AB46" s="6"/>
+      <c r="AC46" s="6"/>
       <c r="AD46" s="5"/>
       <c r="AE46" s="5"/>
       <c r="AF46" s="5"/>
@@ -5226,10 +5148,10 @@
       <c r="W47" s="1"/>
       <c r="X47" s="5"/>
       <c r="Y47" s="5"/>
-      <c r="Z47" s="1"/>
-      <c r="AA47" s="1"/>
-      <c r="AB47" s="1"/>
-      <c r="AC47" s="1"/>
+      <c r="Z47" s="6"/>
+      <c r="AA47" s="6"/>
+      <c r="AB47" s="6"/>
+      <c r="AC47" s="6"/>
       <c r="AD47" s="5"/>
       <c r="AE47" s="5"/>
       <c r="AF47" s="5"/>
@@ -5263,10 +5185,10 @@
       <c r="W48" s="1"/>
       <c r="X48" s="5"/>
       <c r="Y48" s="5"/>
-      <c r="Z48" s="1"/>
-      <c r="AA48" s="1"/>
-      <c r="AB48" s="1"/>
-      <c r="AC48" s="1"/>
+      <c r="Z48" s="6"/>
+      <c r="AA48" s="6"/>
+      <c r="AB48" s="6"/>
+      <c r="AC48" s="6"/>
       <c r="AD48" s="5"/>
       <c r="AE48" s="5"/>
       <c r="AF48" s="5"/>
@@ -5300,10 +5222,10 @@
       <c r="W49" s="1"/>
       <c r="X49" s="5"/>
       <c r="Y49" s="5"/>
-      <c r="Z49" s="1"/>
-      <c r="AA49" s="1"/>
-      <c r="AB49" s="1"/>
-      <c r="AC49" s="1"/>
+      <c r="Z49" s="6"/>
+      <c r="AA49" s="6"/>
+      <c r="AB49" s="6"/>
+      <c r="AC49" s="6"/>
       <c r="AD49" s="5"/>
       <c r="AE49" s="5"/>
       <c r="AF49" s="5"/>
@@ -5337,10 +5259,10 @@
       <c r="W50" s="1"/>
       <c r="X50" s="5"/>
       <c r="Y50" s="5"/>
-      <c r="Z50" s="1"/>
-      <c r="AA50" s="1"/>
-      <c r="AB50" s="1"/>
-      <c r="AC50" s="1"/>
+      <c r="Z50" s="6"/>
+      <c r="AA50" s="6"/>
+      <c r="AB50" s="6"/>
+      <c r="AC50" s="6"/>
       <c r="AD50" s="5"/>
       <c r="AE50" s="5"/>
       <c r="AF50" s="5"/>
@@ -5374,10 +5296,10 @@
       <c r="W51" s="1"/>
       <c r="X51" s="5"/>
       <c r="Y51" s="5"/>
-      <c r="Z51" s="1"/>
-      <c r="AA51" s="1"/>
-      <c r="AB51" s="1"/>
-      <c r="AC51" s="1"/>
+      <c r="Z51" s="6"/>
+      <c r="AA51" s="6"/>
+      <c r="AB51" s="6"/>
+      <c r="AC51" s="6"/>
       <c r="AD51" s="5"/>
       <c r="AE51" s="5"/>
       <c r="AF51" s="5"/>
@@ -5411,10 +5333,10 @@
       <c r="W52" s="1"/>
       <c r="X52" s="5"/>
       <c r="Y52" s="5"/>
-      <c r="Z52" s="1"/>
-      <c r="AA52" s="1"/>
-      <c r="AB52" s="1"/>
-      <c r="AC52" s="1"/>
+      <c r="Z52" s="6"/>
+      <c r="AA52" s="6"/>
+      <c r="AB52" s="6"/>
+      <c r="AC52" s="6"/>
       <c r="AD52" s="5"/>
       <c r="AE52" s="5"/>
       <c r="AF52" s="5"/>
@@ -5448,10 +5370,10 @@
       <c r="W53" s="1"/>
       <c r="X53" s="5"/>
       <c r="Y53" s="5"/>
-      <c r="Z53" s="1"/>
-      <c r="AA53" s="1"/>
-      <c r="AB53" s="1"/>
-      <c r="AC53" s="1"/>
+      <c r="Z53" s="6"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="6"/>
+      <c r="AC53" s="6"/>
       <c r="AD53" s="5"/>
       <c r="AE53" s="5"/>
       <c r="AF53" s="5"/>
@@ -5487,10 +5409,10 @@
       <c r="W54" s="1"/>
       <c r="X54" s="5"/>
       <c r="Y54" s="5"/>
-      <c r="Z54" s="1"/>
-      <c r="AA54" s="1"/>
-      <c r="AB54" s="1"/>
-      <c r="AC54" s="1"/>
+      <c r="Z54" s="6"/>
+      <c r="AA54" s="6"/>
+      <c r="AB54" s="6"/>
+      <c r="AC54" s="6"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
       <c r="AF54" s="5"/>
@@ -5524,10 +5446,10 @@
       <c r="W55" s="1"/>
       <c r="X55" s="5"/>
       <c r="Y55" s="5"/>
-      <c r="Z55" s="1"/>
-      <c r="AA55" s="1"/>
-      <c r="AB55" s="1"/>
-      <c r="AC55" s="1"/>
+      <c r="Z55" s="6"/>
+      <c r="AA55" s="6"/>
+      <c r="AB55" s="6"/>
+      <c r="AC55" s="6"/>
       <c r="AD55" s="5"/>
       <c r="AE55" s="5"/>
       <c r="AF55" s="5"/>
@@ -5565,10 +5487,10 @@
       <c r="W56" s="1"/>
       <c r="X56" s="5"/>
       <c r="Y56" s="5"/>
-      <c r="Z56" s="1"/>
-      <c r="AA56" s="1"/>
-      <c r="AB56" s="1"/>
-      <c r="AC56" s="1"/>
+      <c r="Z56" s="6"/>
+      <c r="AA56" s="6"/>
+      <c r="AB56" s="6"/>
+      <c r="AC56" s="6"/>
       <c r="AD56" s="5"/>
       <c r="AE56" s="5"/>
       <c r="AF56" s="5"/>
@@ -5602,10 +5524,10 @@
       <c r="W57" s="1"/>
       <c r="X57" s="5"/>
       <c r="Y57" s="5"/>
-      <c r="Z57" s="1"/>
-      <c r="AA57" s="1"/>
-      <c r="AB57" s="1"/>
-      <c r="AC57" s="1"/>
+      <c r="Z57" s="6"/>
+      <c r="AA57" s="6"/>
+      <c r="AB57" s="6"/>
+      <c r="AC57" s="6"/>
       <c r="AD57" s="5"/>
       <c r="AE57" s="5"/>
       <c r="AF57" s="5"/>
@@ -5620,35 +5542,35 @@
       <c r="D58" s="99"/>
       <c r="E58" s="99"/>
       <c r="F58" s="100"/>
-      <c r="G58" s="104" t="s">
+      <c r="G58" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="H58" s="105"/>
-      <c r="I58" s="105"/>
-      <c r="J58" s="106"/>
-      <c r="K58" s="107" t="s">
+      <c r="H58" s="29"/>
+      <c r="I58" s="29"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="L58" s="108"/>
-      <c r="M58" s="108"/>
-      <c r="N58" s="108"/>
-      <c r="O58" s="108"/>
-      <c r="P58" s="109"/>
-      <c r="Q58" s="107" t="s">
+      <c r="L58" s="105"/>
+      <c r="M58" s="105"/>
+      <c r="N58" s="105"/>
+      <c r="O58" s="105"/>
+      <c r="P58" s="106"/>
+      <c r="Q58" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="R58" s="108"/>
-      <c r="S58" s="108"/>
-      <c r="T58" s="108"/>
-      <c r="U58" s="108"/>
-      <c r="V58" s="109"/>
+      <c r="R58" s="105"/>
+      <c r="S58" s="105"/>
+      <c r="T58" s="105"/>
+      <c r="U58" s="105"/>
+      <c r="V58" s="106"/>
       <c r="W58" s="1"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
-      <c r="Z58" s="1"/>
-      <c r="AA58" s="1"/>
-      <c r="AB58" s="1"/>
-      <c r="AC58" s="1"/>
+      <c r="Z58" s="6"/>
+      <c r="AA58" s="6"/>
+      <c r="AB58" s="6"/>
+      <c r="AC58" s="6"/>
       <c r="AD58" s="5"/>
       <c r="AE58" s="5"/>
       <c r="AF58" s="5"/>
@@ -5659,33 +5581,33 @@
     <row x14ac:dyDescent="0.25" r="59" customHeight="1" ht="79.5">
       <c r="A59" s="1"/>
       <c r="B59" s="1"/>
-      <c r="C59" s="110"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="112"/>
-      <c r="G59" s="113"/>
-      <c r="H59" s="114"/>
-      <c r="I59" s="114"/>
-      <c r="J59" s="115"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="117"/>
-      <c r="M59" s="117"/>
-      <c r="N59" s="117"/>
-      <c r="O59" s="117"/>
-      <c r="P59" s="118"/>
-      <c r="Q59" s="116"/>
-      <c r="R59" s="117"/>
-      <c r="S59" s="117"/>
-      <c r="T59" s="117"/>
-      <c r="U59" s="117"/>
-      <c r="V59" s="118"/>
+      <c r="C59" s="107"/>
+      <c r="D59" s="108"/>
+      <c r="E59" s="108"/>
+      <c r="F59" s="109"/>
+      <c r="G59" s="110"/>
+      <c r="H59" s="35"/>
+      <c r="I59" s="35"/>
+      <c r="J59" s="36"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="112"/>
+      <c r="M59" s="112"/>
+      <c r="N59" s="112"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="113"/>
+      <c r="Q59" s="111"/>
+      <c r="R59" s="112"/>
+      <c r="S59" s="112"/>
+      <c r="T59" s="112"/>
+      <c r="U59" s="112"/>
+      <c r="V59" s="113"/>
       <c r="W59" s="1"/>
       <c r="X59" s="5"/>
       <c r="Y59" s="5"/>
-      <c r="Z59" s="1"/>
-      <c r="AA59" s="1"/>
-      <c r="AB59" s="1"/>
-      <c r="AC59" s="1"/>
+      <c r="Z59" s="6"/>
+      <c r="AA59" s="6"/>
+      <c r="AB59" s="6"/>
+      <c r="AC59" s="6"/>
       <c r="AD59" s="5"/>
       <c r="AE59" s="5"/>
       <c r="AF59" s="5"/>
@@ -5696,27 +5618,27 @@
     <row x14ac:dyDescent="0.25" r="60" customHeight="1" ht="48">
       <c r="A60" s="1"/>
       <c r="B60" s="1"/>
-      <c r="C60" s="119" t="s">
+      <c r="C60" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="D60" s="120"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="121" t="s">
+      <c r="D60" s="115"/>
+      <c r="E60" s="115"/>
+      <c r="F60" s="115"/>
+      <c r="G60" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="H60" s="122"/>
-      <c r="I60" s="122"/>
-      <c r="J60" s="123"/>
-      <c r="K60" s="124" t="s">
+      <c r="H60" s="117"/>
+      <c r="I60" s="117"/>
+      <c r="J60" s="118"/>
+      <c r="K60" s="119" t="s">
         <v>27</v>
       </c>
-      <c r="L60" s="125"/>
-      <c r="M60" s="125"/>
-      <c r="N60" s="125"/>
-      <c r="O60" s="125"/>
-      <c r="P60" s="126"/>
-      <c r="Q60" s="127" t="s">
+      <c r="L60" s="120"/>
+      <c r="M60" s="120"/>
+      <c r="N60" s="120"/>
+      <c r="O60" s="120"/>
+      <c r="P60" s="121"/>
+      <c r="Q60" s="122" t="s">
         <v>28</v>
       </c>
       <c r="R60" s="80"/>
@@ -5727,10 +5649,10 @@
       <c r="W60" s="1"/>
       <c r="X60" s="5"/>
       <c r="Y60" s="5"/>
-      <c r="Z60" s="128"/>
-      <c r="AA60" s="128"/>
-      <c r="AB60" s="128"/>
-      <c r="AC60" s="128"/>
+      <c r="Z60" s="123"/>
+      <c r="AA60" s="123"/>
+      <c r="AB60" s="123"/>
+      <c r="AC60" s="123"/>
       <c r="AD60" s="35"/>
       <c r="AE60" s="35"/>
       <c r="AF60" s="35"/>
@@ -5741,35 +5663,35 @@
     <row x14ac:dyDescent="0.25" r="61" customHeight="1" ht="60.75">
       <c r="A61" s="1"/>
       <c r="B61" s="1"/>
-      <c r="C61" s="129"/>
-      <c r="D61" s="130"/>
-      <c r="E61" s="130"/>
-      <c r="F61" s="130"/>
-      <c r="G61" s="131"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="133"/>
-      <c r="K61" s="134" t="s">
+      <c r="C61" s="124"/>
+      <c r="D61" s="125"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="127"/>
+      <c r="I61" s="127"/>
+      <c r="J61" s="128"/>
+      <c r="K61" s="129" t="s">
         <v>29</v>
       </c>
-      <c r="L61" s="134"/>
-      <c r="M61" s="134"/>
-      <c r="N61" s="134"/>
-      <c r="O61" s="134"/>
-      <c r="P61" s="134"/>
-      <c r="Q61" s="135"/>
+      <c r="L61" s="129"/>
+      <c r="M61" s="129"/>
+      <c r="N61" s="129"/>
+      <c r="O61" s="129"/>
+      <c r="P61" s="129"/>
+      <c r="Q61" s="130"/>
       <c r="R61" s="60"/>
       <c r="S61" s="60"/>
       <c r="T61" s="60"/>
       <c r="U61" s="60"/>
-      <c r="V61" s="136"/>
+      <c r="V61" s="131"/>
       <c r="W61" s="1"/>
       <c r="X61" s="5"/>
       <c r="Y61" s="5"/>
-      <c r="Z61" s="128"/>
-      <c r="AA61" s="128"/>
-      <c r="AB61" s="128"/>
-      <c r="AC61" s="128"/>
+      <c r="Z61" s="123"/>
+      <c r="AA61" s="123"/>
+      <c r="AB61" s="123"/>
+      <c r="AC61" s="123"/>
       <c r="AD61" s="35"/>
       <c r="AE61" s="35"/>
       <c r="AF61" s="35"/>
@@ -5780,37 +5702,37 @@
     <row x14ac:dyDescent="0.25" r="62" customHeight="1" ht="15">
       <c r="A62" s="1"/>
       <c r="B62" s="1"/>
-      <c r="C62" s="129"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="131"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="133"/>
-      <c r="K62" s="137" t="s">
+      <c r="C62" s="124"/>
+      <c r="D62" s="125"/>
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="126"/>
+      <c r="H62" s="127"/>
+      <c r="I62" s="127"/>
+      <c r="J62" s="128"/>
+      <c r="K62" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="L62" s="134"/>
-      <c r="M62" s="134"/>
-      <c r="N62" s="134"/>
-      <c r="O62" s="134"/>
-      <c r="P62" s="134"/>
-      <c r="Q62" s="138" t="s">
+      <c r="L62" s="129"/>
+      <c r="M62" s="129"/>
+      <c r="N62" s="129"/>
+      <c r="O62" s="129"/>
+      <c r="P62" s="129"/>
+      <c r="Q62" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="R62" s="139"/>
-      <c r="S62" s="139"/>
-      <c r="T62" s="139"/>
-      <c r="U62" s="139"/>
-      <c r="V62" s="139"/>
+      <c r="R62" s="134"/>
+      <c r="S62" s="134"/>
+      <c r="T62" s="134"/>
+      <c r="U62" s="134"/>
+      <c r="V62" s="134"/>
       <c r="W62" s="1"/>
       <c r="X62" s="5"/>
       <c r="Y62" s="5"/>
-      <c r="Z62" s="128"/>
-      <c r="AA62" s="128"/>
-      <c r="AB62" s="128"/>
-      <c r="AC62" s="128"/>
+      <c r="Z62" s="123"/>
+      <c r="AA62" s="123"/>
+      <c r="AB62" s="123"/>
+      <c r="AC62" s="123"/>
       <c r="AD62" s="35"/>
       <c r="AE62" s="35"/>
       <c r="AF62" s="35"/>
@@ -5821,33 +5743,33 @@
     <row x14ac:dyDescent="0.25" r="63" customHeight="1" ht="15">
       <c r="A63" s="1"/>
       <c r="B63" s="1"/>
-      <c r="C63" s="129"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="130"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="141"/>
-      <c r="I63" s="141"/>
-      <c r="J63" s="142"/>
-      <c r="K63" s="134"/>
-      <c r="L63" s="134"/>
-      <c r="M63" s="134"/>
-      <c r="N63" s="134"/>
-      <c r="O63" s="134"/>
-      <c r="P63" s="134"/>
-      <c r="Q63" s="143"/>
-      <c r="R63" s="144"/>
-      <c r="S63" s="144"/>
-      <c r="T63" s="144"/>
-      <c r="U63" s="144"/>
-      <c r="V63" s="144"/>
+      <c r="C63" s="124"/>
+      <c r="D63" s="125"/>
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="135"/>
+      <c r="H63" s="136"/>
+      <c r="I63" s="136"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="129"/>
+      <c r="L63" s="129"/>
+      <c r="M63" s="129"/>
+      <c r="N63" s="129"/>
+      <c r="O63" s="129"/>
+      <c r="P63" s="129"/>
+      <c r="Q63" s="138"/>
+      <c r="R63" s="139"/>
+      <c r="S63" s="139"/>
+      <c r="T63" s="139"/>
+      <c r="U63" s="139"/>
+      <c r="V63" s="139"/>
       <c r="W63" s="1"/>
       <c r="X63" s="5"/>
       <c r="Y63" s="5"/>
-      <c r="Z63" s="128"/>
-      <c r="AA63" s="128"/>
-      <c r="AB63" s="128"/>
-      <c r="AC63" s="128"/>
+      <c r="Z63" s="123"/>
+      <c r="AA63" s="123"/>
+      <c r="AB63" s="123"/>
+      <c r="AC63" s="123"/>
       <c r="AD63" s="35"/>
       <c r="AE63" s="35"/>
       <c r="AF63" s="35"/>
@@ -5858,41 +5780,41 @@
     <row x14ac:dyDescent="0.25" r="64" customHeight="1" ht="23.25">
       <c r="A64" s="1"/>
       <c r="B64" s="1"/>
-      <c r="C64" s="145" t="s">
+      <c r="C64" s="140" t="s">
         <v>32</v>
       </c>
-      <c r="D64" s="146"/>
-      <c r="E64" s="146"/>
-      <c r="F64" s="146"/>
-      <c r="G64" s="147" t="s">
+      <c r="D64" s="141"/>
+      <c r="E64" s="141"/>
+      <c r="F64" s="141"/>
+      <c r="G64" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="H64" s="148"/>
-      <c r="I64" s="148"/>
-      <c r="J64" s="149"/>
-      <c r="K64" s="137" t="s">
+      <c r="H64" s="143"/>
+      <c r="I64" s="143"/>
+      <c r="J64" s="144"/>
+      <c r="K64" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="L64" s="134"/>
-      <c r="M64" s="134"/>
-      <c r="N64" s="134"/>
-      <c r="O64" s="134"/>
-      <c r="P64" s="134"/>
-      <c r="Q64" s="150" t="s">
+      <c r="L64" s="129"/>
+      <c r="M64" s="129"/>
+      <c r="N64" s="129"/>
+      <c r="O64" s="129"/>
+      <c r="P64" s="129"/>
+      <c r="Q64" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="R64" s="151"/>
-      <c r="S64" s="151"/>
-      <c r="T64" s="151"/>
-      <c r="U64" s="151"/>
-      <c r="V64" s="152"/>
+      <c r="R64" s="146"/>
+      <c r="S64" s="146"/>
+      <c r="T64" s="146"/>
+      <c r="U64" s="146"/>
+      <c r="V64" s="147"/>
       <c r="W64" s="1"/>
       <c r="X64" s="5"/>
       <c r="Y64" s="5"/>
-      <c r="Z64" s="1"/>
-      <c r="AA64" s="1"/>
-      <c r="AB64" s="1"/>
-      <c r="AC64" s="1"/>
+      <c r="Z64" s="6"/>
+      <c r="AA64" s="6"/>
+      <c r="AB64" s="6"/>
+      <c r="AC64" s="6"/>
       <c r="AD64" s="5"/>
       <c r="AE64" s="5"/>
       <c r="AF64" s="5"/>
@@ -5903,33 +5825,33 @@
     <row x14ac:dyDescent="0.25" r="65" customHeight="1" ht="23.25">
       <c r="A65" s="1"/>
       <c r="B65" s="1"/>
-      <c r="C65" s="153"/>
-      <c r="D65" s="146"/>
-      <c r="E65" s="146"/>
-      <c r="F65" s="146"/>
-      <c r="G65" s="154"/>
-      <c r="H65" s="155"/>
-      <c r="I65" s="155"/>
-      <c r="J65" s="156"/>
-      <c r="K65" s="134"/>
-      <c r="L65" s="134"/>
-      <c r="M65" s="134"/>
-      <c r="N65" s="134"/>
-      <c r="O65" s="134"/>
-      <c r="P65" s="134"/>
-      <c r="Q65" s="151"/>
-      <c r="R65" s="151"/>
-      <c r="S65" s="151"/>
-      <c r="T65" s="151"/>
-      <c r="U65" s="151"/>
-      <c r="V65" s="152"/>
+      <c r="C65" s="148"/>
+      <c r="D65" s="141"/>
+      <c r="E65" s="141"/>
+      <c r="F65" s="141"/>
+      <c r="G65" s="149"/>
+      <c r="H65" s="150"/>
+      <c r="I65" s="150"/>
+      <c r="J65" s="151"/>
+      <c r="K65" s="129"/>
+      <c r="L65" s="129"/>
+      <c r="M65" s="129"/>
+      <c r="N65" s="129"/>
+      <c r="O65" s="129"/>
+      <c r="P65" s="129"/>
+      <c r="Q65" s="146"/>
+      <c r="R65" s="146"/>
+      <c r="S65" s="146"/>
+      <c r="T65" s="146"/>
+      <c r="U65" s="146"/>
+      <c r="V65" s="147"/>
       <c r="W65" s="1"/>
       <c r="X65" s="5"/>
       <c r="Y65" s="5"/>
-      <c r="Z65" s="1"/>
-      <c r="AA65" s="1"/>
-      <c r="AB65" s="1"/>
-      <c r="AC65" s="1"/>
+      <c r="Z65" s="6"/>
+      <c r="AA65" s="6"/>
+      <c r="AB65" s="6"/>
+      <c r="AC65" s="6"/>
       <c r="AD65" s="5"/>
       <c r="AE65" s="5"/>
       <c r="AF65" s="5"/>
@@ -5940,39 +5862,39 @@
     <row x14ac:dyDescent="0.25" r="66" customHeight="1" ht="28.5">
       <c r="A66" s="1"/>
       <c r="B66" s="1"/>
-      <c r="C66" s="145" t="s">
+      <c r="C66" s="140" t="s">
         <v>35</v>
       </c>
-      <c r="D66" s="146"/>
-      <c r="E66" s="146"/>
-      <c r="F66" s="146"/>
-      <c r="G66" s="157" t="s">
+      <c r="D66" s="141"/>
+      <c r="E66" s="141"/>
+      <c r="F66" s="141"/>
+      <c r="G66" s="142" t="s">
         <v>36</v>
       </c>
-      <c r="H66" s="148"/>
-      <c r="I66" s="148"/>
-      <c r="J66" s="149"/>
-      <c r="K66" s="151" t="s">
+      <c r="H66" s="143"/>
+      <c r="I66" s="143"/>
+      <c r="J66" s="144"/>
+      <c r="K66" s="146" t="s">
         <v>37</v>
       </c>
-      <c r="L66" s="151"/>
-      <c r="M66" s="151"/>
-      <c r="N66" s="151"/>
-      <c r="O66" s="151"/>
-      <c r="P66" s="151"/>
-      <c r="Q66" s="146"/>
-      <c r="R66" s="146"/>
-      <c r="S66" s="146"/>
-      <c r="T66" s="146"/>
-      <c r="U66" s="146"/>
-      <c r="V66" s="158"/>
+      <c r="L66" s="146"/>
+      <c r="M66" s="146"/>
+      <c r="N66" s="146"/>
+      <c r="O66" s="146"/>
+      <c r="P66" s="146"/>
+      <c r="Q66" s="141"/>
+      <c r="R66" s="141"/>
+      <c r="S66" s="141"/>
+      <c r="T66" s="141"/>
+      <c r="U66" s="141"/>
+      <c r="V66" s="152"/>
       <c r="W66" s="1"/>
       <c r="X66" s="5"/>
       <c r="Y66" s="5"/>
-      <c r="Z66" s="1"/>
-      <c r="AA66" s="1"/>
-      <c r="AB66" s="1"/>
-      <c r="AC66" s="1"/>
+      <c r="Z66" s="6"/>
+      <c r="AA66" s="6"/>
+      <c r="AB66" s="6"/>
+      <c r="AC66" s="6"/>
       <c r="AD66" s="5"/>
       <c r="AE66" s="5"/>
       <c r="AF66" s="5"/>
@@ -5983,33 +5905,33 @@
     <row x14ac:dyDescent="0.25" r="67" customHeight="1" ht="28.5">
       <c r="A67" s="1"/>
       <c r="B67" s="1"/>
-      <c r="C67" s="159"/>
-      <c r="D67" s="160"/>
-      <c r="E67" s="160"/>
-      <c r="F67" s="160"/>
-      <c r="G67" s="161"/>
+      <c r="C67" s="153"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="155"/>
       <c r="H67" s="78"/>
       <c r="I67" s="78"/>
-      <c r="J67" s="162"/>
-      <c r="K67" s="160"/>
-      <c r="L67" s="160"/>
-      <c r="M67" s="160"/>
-      <c r="N67" s="160"/>
-      <c r="O67" s="160"/>
-      <c r="P67" s="160"/>
-      <c r="Q67" s="160"/>
-      <c r="R67" s="160"/>
-      <c r="S67" s="160"/>
-      <c r="T67" s="160"/>
-      <c r="U67" s="160"/>
-      <c r="V67" s="163"/>
+      <c r="J67" s="156"/>
+      <c r="K67" s="154"/>
+      <c r="L67" s="154"/>
+      <c r="M67" s="154"/>
+      <c r="N67" s="154"/>
+      <c r="O67" s="154"/>
+      <c r="P67" s="154"/>
+      <c r="Q67" s="154"/>
+      <c r="R67" s="154"/>
+      <c r="S67" s="154"/>
+      <c r="T67" s="154"/>
+      <c r="U67" s="154"/>
+      <c r="V67" s="157"/>
       <c r="W67" s="1"/>
       <c r="X67" s="5"/>
       <c r="Y67" s="5"/>
-      <c r="Z67" s="1"/>
-      <c r="AA67" s="1"/>
-      <c r="AB67" s="1"/>
-      <c r="AC67" s="1"/>
+      <c r="Z67" s="6"/>
+      <c r="AA67" s="6"/>
+      <c r="AB67" s="6"/>
+      <c r="AC67" s="6"/>
       <c r="AD67" s="5"/>
       <c r="AE67" s="5"/>
       <c r="AF67" s="5"/>
@@ -6020,41 +5942,41 @@
     <row x14ac:dyDescent="0.25" r="68" customHeight="1" ht="255">
       <c r="A68" s="1"/>
       <c r="B68" s="1"/>
-      <c r="C68" s="164" t="s">
+      <c r="C68" s="158" t="s">
         <v>38</v>
       </c>
-      <c r="D68" s="165"/>
-      <c r="E68" s="165"/>
-      <c r="F68" s="165"/>
-      <c r="G68" s="166" t="s">
+      <c r="D68" s="159"/>
+      <c r="E68" s="159"/>
+      <c r="F68" s="159"/>
+      <c r="G68" s="160" t="s">
         <v>39</v>
       </c>
-      <c r="H68" s="167"/>
-      <c r="I68" s="167"/>
-      <c r="J68" s="167"/>
-      <c r="K68" s="168" t="s">
+      <c r="H68" s="160"/>
+      <c r="I68" s="160"/>
+      <c r="J68" s="160"/>
+      <c r="K68" s="161" t="s">
         <v>40</v>
       </c>
-      <c r="L68" s="168"/>
-      <c r="M68" s="168"/>
-      <c r="N68" s="168"/>
-      <c r="O68" s="168"/>
-      <c r="P68" s="168"/>
-      <c r="Q68" s="169" t="s">
+      <c r="L68" s="161"/>
+      <c r="M68" s="161"/>
+      <c r="N68" s="161"/>
+      <c r="O68" s="161"/>
+      <c r="P68" s="161"/>
+      <c r="Q68" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="R68" s="169"/>
-      <c r="S68" s="169"/>
-      <c r="T68" s="169"/>
-      <c r="U68" s="169"/>
-      <c r="V68" s="170"/>
+      <c r="R68" s="162"/>
+      <c r="S68" s="162"/>
+      <c r="T68" s="162"/>
+      <c r="U68" s="162"/>
+      <c r="V68" s="163"/>
       <c r="W68" s="1"/>
       <c r="X68" s="5"/>
       <c r="Y68" s="5"/>
-      <c r="Z68" s="1"/>
-      <c r="AA68" s="1"/>
-      <c r="AB68" s="1"/>
-      <c r="AC68" s="1"/>
+      <c r="Z68" s="6"/>
+      <c r="AA68" s="6"/>
+      <c r="AB68" s="6"/>
+      <c r="AC68" s="6"/>
       <c r="AD68" s="5"/>
       <c r="AE68" s="5"/>
       <c r="AF68" s="5"/>
@@ -6065,41 +5987,41 @@
     <row x14ac:dyDescent="0.25" r="69" customHeight="1" ht="45">
       <c r="A69" s="1"/>
       <c r="B69" s="1"/>
-      <c r="C69" s="153" t="s">
+      <c r="C69" s="148" t="s">
         <v>41</v>
       </c>
-      <c r="D69" s="146"/>
-      <c r="E69" s="146"/>
-      <c r="F69" s="146"/>
-      <c r="G69" s="171" t="s">
+      <c r="D69" s="141"/>
+      <c r="E69" s="141"/>
+      <c r="F69" s="141"/>
+      <c r="G69" s="164" t="s">
         <v>42</v>
       </c>
-      <c r="H69" s="172"/>
-      <c r="I69" s="172"/>
-      <c r="J69" s="172"/>
-      <c r="K69" s="134" t="s">
+      <c r="H69" s="164"/>
+      <c r="I69" s="164"/>
+      <c r="J69" s="164"/>
+      <c r="K69" s="129" t="s">
         <v>40</v>
       </c>
-      <c r="L69" s="134"/>
-      <c r="M69" s="134"/>
-      <c r="N69" s="134"/>
-      <c r="O69" s="134"/>
-      <c r="P69" s="134"/>
-      <c r="Q69" s="151" t="s">
+      <c r="L69" s="129"/>
+      <c r="M69" s="129"/>
+      <c r="N69" s="129"/>
+      <c r="O69" s="129"/>
+      <c r="P69" s="129"/>
+      <c r="Q69" s="146" t="s">
         <v>28</v>
       </c>
-      <c r="R69" s="151"/>
-      <c r="S69" s="151"/>
-      <c r="T69" s="151"/>
-      <c r="U69" s="151"/>
-      <c r="V69" s="152"/>
+      <c r="R69" s="146"/>
+      <c r="S69" s="146"/>
+      <c r="T69" s="146"/>
+      <c r="U69" s="146"/>
+      <c r="V69" s="147"/>
       <c r="W69" s="1"/>
       <c r="X69" s="5"/>
       <c r="Y69" s="5"/>
-      <c r="Z69" s="1"/>
-      <c r="AA69" s="1"/>
-      <c r="AB69" s="1"/>
-      <c r="AC69" s="1"/>
+      <c r="Z69" s="6"/>
+      <c r="AA69" s="6"/>
+      <c r="AB69" s="6"/>
+      <c r="AC69" s="6"/>
       <c r="AD69" s="5"/>
       <c r="AE69" s="5"/>
       <c r="AF69" s="5"/>
@@ -6110,39 +6032,39 @@
     <row x14ac:dyDescent="0.25" r="70" customHeight="1" ht="45">
       <c r="A70" s="1"/>
       <c r="B70" s="1"/>
-      <c r="C70" s="159" t="s">
+      <c r="C70" s="153" t="s">
         <v>43</v>
       </c>
-      <c r="D70" s="160"/>
-      <c r="E70" s="160"/>
-      <c r="F70" s="160"/>
-      <c r="G70" s="173" t="s">
+      <c r="D70" s="154"/>
+      <c r="E70" s="154"/>
+      <c r="F70" s="154"/>
+      <c r="G70" s="165" t="s">
         <v>44</v>
       </c>
-      <c r="H70" s="174"/>
-      <c r="I70" s="174"/>
-      <c r="J70" s="174"/>
-      <c r="K70" s="175"/>
-      <c r="L70" s="175"/>
-      <c r="M70" s="175"/>
-      <c r="N70" s="175"/>
-      <c r="O70" s="175"/>
-      <c r="P70" s="175"/>
-      <c r="Q70" s="176" t="s">
+      <c r="H70" s="165"/>
+      <c r="I70" s="165"/>
+      <c r="J70" s="165"/>
+      <c r="K70" s="166"/>
+      <c r="L70" s="166"/>
+      <c r="M70" s="166"/>
+      <c r="N70" s="166"/>
+      <c r="O70" s="166"/>
+      <c r="P70" s="166"/>
+      <c r="Q70" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="R70" s="176"/>
-      <c r="S70" s="176"/>
-      <c r="T70" s="176"/>
-      <c r="U70" s="176"/>
-      <c r="V70" s="177"/>
+      <c r="R70" s="167"/>
+      <c r="S70" s="167"/>
+      <c r="T70" s="167"/>
+      <c r="U70" s="167"/>
+      <c r="V70" s="168"/>
       <c r="W70" s="1"/>
       <c r="X70" s="5"/>
       <c r="Y70" s="5"/>
-      <c r="Z70" s="1"/>
-      <c r="AA70" s="1"/>
-      <c r="AB70" s="1"/>
-      <c r="AC70" s="1"/>
+      <c r="Z70" s="6"/>
+      <c r="AA70" s="6"/>
+      <c r="AB70" s="6"/>
+      <c r="AC70" s="6"/>
       <c r="AD70" s="5"/>
       <c r="AE70" s="5"/>
       <c r="AF70" s="5"/>
@@ -6153,41 +6075,41 @@
     <row x14ac:dyDescent="0.25" r="71" customHeight="1" ht="30">
       <c r="A71" s="1"/>
       <c r="B71" s="1"/>
-      <c r="C71" s="178" t="s">
+      <c r="C71" s="169" t="s">
         <v>45</v>
       </c>
-      <c r="D71" s="165"/>
-      <c r="E71" s="165"/>
-      <c r="F71" s="165"/>
-      <c r="G71" s="179" t="s">
+      <c r="D71" s="159"/>
+      <c r="E71" s="159"/>
+      <c r="F71" s="159"/>
+      <c r="G71" s="170" t="s">
         <v>46</v>
       </c>
-      <c r="H71" s="167"/>
-      <c r="I71" s="167"/>
-      <c r="J71" s="167"/>
-      <c r="K71" s="180" t="s">
+      <c r="H71" s="160"/>
+      <c r="I71" s="160"/>
+      <c r="J71" s="160"/>
+      <c r="K71" s="171" t="s">
         <v>47</v>
       </c>
-      <c r="L71" s="168"/>
-      <c r="M71" s="168"/>
-      <c r="N71" s="168"/>
-      <c r="O71" s="168"/>
-      <c r="P71" s="168"/>
-      <c r="Q71" s="181" t="s">
+      <c r="L71" s="161"/>
+      <c r="M71" s="161"/>
+      <c r="N71" s="161"/>
+      <c r="O71" s="161"/>
+      <c r="P71" s="161"/>
+      <c r="Q71" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="R71" s="169"/>
-      <c r="S71" s="169"/>
-      <c r="T71" s="169"/>
-      <c r="U71" s="169"/>
-      <c r="V71" s="170"/>
+      <c r="R71" s="162"/>
+      <c r="S71" s="162"/>
+      <c r="T71" s="162"/>
+      <c r="U71" s="162"/>
+      <c r="V71" s="163"/>
       <c r="W71" s="1"/>
       <c r="X71" s="5"/>
       <c r="Y71" s="5"/>
-      <c r="Z71" s="1"/>
-      <c r="AA71" s="1"/>
-      <c r="AB71" s="1"/>
-      <c r="AC71" s="1"/>
+      <c r="Z71" s="6"/>
+      <c r="AA71" s="6"/>
+      <c r="AB71" s="6"/>
+      <c r="AC71" s="6"/>
       <c r="AD71" s="5"/>
       <c r="AE71" s="5"/>
       <c r="AF71" s="5"/>
@@ -6198,33 +6120,33 @@
     <row x14ac:dyDescent="0.25" r="72" customHeight="1" ht="30">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
-      <c r="C72" s="153"/>
-      <c r="D72" s="146"/>
-      <c r="E72" s="146"/>
-      <c r="F72" s="146"/>
-      <c r="G72" s="172"/>
-      <c r="H72" s="172"/>
-      <c r="I72" s="172"/>
-      <c r="J72" s="172"/>
-      <c r="K72" s="134"/>
-      <c r="L72" s="134"/>
-      <c r="M72" s="134"/>
-      <c r="N72" s="134"/>
-      <c r="O72" s="134"/>
-      <c r="P72" s="134"/>
-      <c r="Q72" s="151"/>
-      <c r="R72" s="151"/>
-      <c r="S72" s="151"/>
-      <c r="T72" s="151"/>
-      <c r="U72" s="151"/>
-      <c r="V72" s="152"/>
+      <c r="C72" s="148"/>
+      <c r="D72" s="141"/>
+      <c r="E72" s="141"/>
+      <c r="F72" s="141"/>
+      <c r="G72" s="164"/>
+      <c r="H72" s="164"/>
+      <c r="I72" s="164"/>
+      <c r="J72" s="164"/>
+      <c r="K72" s="129"/>
+      <c r="L72" s="129"/>
+      <c r="M72" s="129"/>
+      <c r="N72" s="129"/>
+      <c r="O72" s="129"/>
+      <c r="P72" s="129"/>
+      <c r="Q72" s="146"/>
+      <c r="R72" s="146"/>
+      <c r="S72" s="146"/>
+      <c r="T72" s="146"/>
+      <c r="U72" s="146"/>
+      <c r="V72" s="147"/>
       <c r="W72" s="1"/>
       <c r="X72" s="5"/>
       <c r="Y72" s="5"/>
-      <c r="Z72" s="1"/>
-      <c r="AA72" s="1"/>
-      <c r="AB72" s="1"/>
-      <c r="AC72" s="1"/>
+      <c r="Z72" s="6"/>
+      <c r="AA72" s="6"/>
+      <c r="AB72" s="6"/>
+      <c r="AC72" s="6"/>
       <c r="AD72" s="5"/>
       <c r="AE72" s="5"/>
       <c r="AF72" s="5"/>
@@ -6235,33 +6157,33 @@
     <row x14ac:dyDescent="0.25" r="73" customHeight="1" ht="30">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
-      <c r="C73" s="153"/>
-      <c r="D73" s="146"/>
-      <c r="E73" s="146"/>
-      <c r="F73" s="146"/>
-      <c r="G73" s="172"/>
-      <c r="H73" s="172"/>
-      <c r="I73" s="172"/>
-      <c r="J73" s="172"/>
-      <c r="K73" s="134"/>
-      <c r="L73" s="134"/>
-      <c r="M73" s="134"/>
-      <c r="N73" s="134"/>
-      <c r="O73" s="134"/>
-      <c r="P73" s="134"/>
-      <c r="Q73" s="151"/>
-      <c r="R73" s="151"/>
-      <c r="S73" s="151"/>
-      <c r="T73" s="151"/>
-      <c r="U73" s="151"/>
-      <c r="V73" s="152"/>
+      <c r="C73" s="148"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="141"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="164"/>
+      <c r="H73" s="164"/>
+      <c r="I73" s="164"/>
+      <c r="J73" s="164"/>
+      <c r="K73" s="129"/>
+      <c r="L73" s="129"/>
+      <c r="M73" s="129"/>
+      <c r="N73" s="129"/>
+      <c r="O73" s="129"/>
+      <c r="P73" s="129"/>
+      <c r="Q73" s="146"/>
+      <c r="R73" s="146"/>
+      <c r="S73" s="146"/>
+      <c r="T73" s="146"/>
+      <c r="U73" s="146"/>
+      <c r="V73" s="147"/>
       <c r="W73" s="1"/>
       <c r="X73" s="5"/>
       <c r="Y73" s="5"/>
-      <c r="Z73" s="1"/>
-      <c r="AA73" s="1"/>
-      <c r="AB73" s="1"/>
-      <c r="AC73" s="1"/>
+      <c r="Z73" s="6"/>
+      <c r="AA73" s="6"/>
+      <c r="AB73" s="6"/>
+      <c r="AC73" s="6"/>
       <c r="AD73" s="5"/>
       <c r="AE73" s="5"/>
       <c r="AF73" s="5"/>
@@ -6272,33 +6194,33 @@
     <row x14ac:dyDescent="0.25" r="74" customHeight="1" ht="30">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
-      <c r="C74" s="153"/>
-      <c r="D74" s="146"/>
-      <c r="E74" s="146"/>
-      <c r="F74" s="146"/>
-      <c r="G74" s="172"/>
-      <c r="H74" s="172"/>
-      <c r="I74" s="172"/>
-      <c r="J74" s="172"/>
-      <c r="K74" s="134"/>
-      <c r="L74" s="134"/>
-      <c r="M74" s="134"/>
-      <c r="N74" s="134"/>
-      <c r="O74" s="134"/>
-      <c r="P74" s="134"/>
-      <c r="Q74" s="151"/>
-      <c r="R74" s="151"/>
-      <c r="S74" s="151"/>
-      <c r="T74" s="151"/>
-      <c r="U74" s="151"/>
-      <c r="V74" s="152"/>
+      <c r="C74" s="148"/>
+      <c r="D74" s="141"/>
+      <c r="E74" s="141"/>
+      <c r="F74" s="141"/>
+      <c r="G74" s="164"/>
+      <c r="H74" s="164"/>
+      <c r="I74" s="164"/>
+      <c r="J74" s="164"/>
+      <c r="K74" s="129"/>
+      <c r="L74" s="129"/>
+      <c r="M74" s="129"/>
+      <c r="N74" s="129"/>
+      <c r="O74" s="129"/>
+      <c r="P74" s="129"/>
+      <c r="Q74" s="146"/>
+      <c r="R74" s="146"/>
+      <c r="S74" s="146"/>
+      <c r="T74" s="146"/>
+      <c r="U74" s="146"/>
+      <c r="V74" s="147"/>
       <c r="W74" s="1"/>
       <c r="X74" s="5"/>
       <c r="Y74" s="5"/>
-      <c r="Z74" s="1"/>
-      <c r="AA74" s="1"/>
-      <c r="AB74" s="1"/>
-      <c r="AC74" s="1"/>
+      <c r="Z74" s="6"/>
+      <c r="AA74" s="6"/>
+      <c r="AB74" s="6"/>
+      <c r="AC74" s="6"/>
       <c r="AD74" s="5"/>
       <c r="AE74" s="5"/>
       <c r="AF74" s="5"/>
@@ -6309,39 +6231,39 @@
     <row x14ac:dyDescent="0.25" r="75" customHeight="1" ht="30">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
-      <c r="C75" s="153" t="s">
+      <c r="C75" s="148" t="s">
         <v>48</v>
       </c>
-      <c r="D75" s="146"/>
-      <c r="E75" s="146"/>
-      <c r="F75" s="146"/>
-      <c r="G75" s="172" t="s">
+      <c r="D75" s="141"/>
+      <c r="E75" s="141"/>
+      <c r="F75" s="141"/>
+      <c r="G75" s="164" t="s">
         <v>49</v>
       </c>
-      <c r="H75" s="172"/>
-      <c r="I75" s="172"/>
-      <c r="J75" s="172"/>
-      <c r="K75" s="134" t="s">
+      <c r="H75" s="164"/>
+      <c r="I75" s="164"/>
+      <c r="J75" s="164"/>
+      <c r="K75" s="129" t="s">
         <v>50</v>
       </c>
-      <c r="L75" s="134"/>
-      <c r="M75" s="134"/>
-      <c r="N75" s="134"/>
-      <c r="O75" s="134"/>
-      <c r="P75" s="134"/>
-      <c r="Q75" s="146"/>
-      <c r="R75" s="146"/>
-      <c r="S75" s="146"/>
-      <c r="T75" s="146"/>
-      <c r="U75" s="146"/>
-      <c r="V75" s="158"/>
+      <c r="L75" s="129"/>
+      <c r="M75" s="129"/>
+      <c r="N75" s="129"/>
+      <c r="O75" s="129"/>
+      <c r="P75" s="129"/>
+      <c r="Q75" s="141"/>
+      <c r="R75" s="141"/>
+      <c r="S75" s="141"/>
+      <c r="T75" s="141"/>
+      <c r="U75" s="141"/>
+      <c r="V75" s="152"/>
       <c r="W75" s="1"/>
       <c r="X75" s="5"/>
       <c r="Y75" s="5"/>
-      <c r="Z75" s="1"/>
-      <c r="AA75" s="1"/>
-      <c r="AB75" s="1"/>
-      <c r="AC75" s="1"/>
+      <c r="Z75" s="6"/>
+      <c r="AA75" s="6"/>
+      <c r="AB75" s="6"/>
+      <c r="AC75" s="6"/>
       <c r="AD75" s="5"/>
       <c r="AE75" s="5"/>
       <c r="AF75" s="5"/>
@@ -6352,37 +6274,37 @@
     <row x14ac:dyDescent="0.25" r="76" customHeight="1" ht="30">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
-      <c r="C76" s="159" t="s">
+      <c r="C76" s="153" t="s">
         <v>51</v>
       </c>
-      <c r="D76" s="160"/>
-      <c r="E76" s="160"/>
-      <c r="F76" s="160"/>
-      <c r="G76" s="174" t="s">
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="165" t="s">
         <v>52</v>
       </c>
-      <c r="H76" s="174"/>
-      <c r="I76" s="174"/>
-      <c r="J76" s="174"/>
-      <c r="K76" s="175"/>
-      <c r="L76" s="175"/>
-      <c r="M76" s="175"/>
-      <c r="N76" s="175"/>
-      <c r="O76" s="175"/>
-      <c r="P76" s="175"/>
-      <c r="Q76" s="160"/>
-      <c r="R76" s="160"/>
-      <c r="S76" s="160"/>
-      <c r="T76" s="160"/>
-      <c r="U76" s="160"/>
-      <c r="V76" s="163"/>
+      <c r="H76" s="165"/>
+      <c r="I76" s="165"/>
+      <c r="J76" s="165"/>
+      <c r="K76" s="166"/>
+      <c r="L76" s="166"/>
+      <c r="M76" s="166"/>
+      <c r="N76" s="166"/>
+      <c r="O76" s="166"/>
+      <c r="P76" s="166"/>
+      <c r="Q76" s="154"/>
+      <c r="R76" s="154"/>
+      <c r="S76" s="154"/>
+      <c r="T76" s="154"/>
+      <c r="U76" s="154"/>
+      <c r="V76" s="157"/>
       <c r="W76" s="1"/>
       <c r="X76" s="5"/>
       <c r="Y76" s="5"/>
-      <c r="Z76" s="1"/>
-      <c r="AA76" s="1"/>
-      <c r="AB76" s="1"/>
-      <c r="AC76" s="1"/>
+      <c r="Z76" s="6"/>
+      <c r="AA76" s="6"/>
+      <c r="AB76" s="6"/>
+      <c r="AC76" s="6"/>
       <c r="AD76" s="5"/>
       <c r="AE76" s="5"/>
       <c r="AF76" s="5"/>
@@ -6393,41 +6315,41 @@
     <row x14ac:dyDescent="0.25" r="77" customHeight="1" ht="102.75">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
-      <c r="C77" s="178" t="s">
+      <c r="C77" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="D77" s="165"/>
-      <c r="E77" s="165"/>
-      <c r="F77" s="165"/>
-      <c r="G77" s="179" t="s">
+      <c r="D77" s="159"/>
+      <c r="E77" s="159"/>
+      <c r="F77" s="159"/>
+      <c r="G77" s="170" t="s">
         <v>54</v>
       </c>
-      <c r="H77" s="167"/>
-      <c r="I77" s="167"/>
-      <c r="J77" s="167"/>
-      <c r="K77" s="168" t="s">
+      <c r="H77" s="160"/>
+      <c r="I77" s="160"/>
+      <c r="J77" s="160"/>
+      <c r="K77" s="161" t="s">
         <v>55</v>
       </c>
-      <c r="L77" s="168"/>
-      <c r="M77" s="168"/>
-      <c r="N77" s="168"/>
-      <c r="O77" s="168"/>
-      <c r="P77" s="168"/>
-      <c r="Q77" s="169" t="s">
+      <c r="L77" s="161"/>
+      <c r="M77" s="161"/>
+      <c r="N77" s="161"/>
+      <c r="O77" s="161"/>
+      <c r="P77" s="161"/>
+      <c r="Q77" s="162" t="s">
         <v>28</v>
       </c>
-      <c r="R77" s="169"/>
-      <c r="S77" s="169"/>
-      <c r="T77" s="169"/>
-      <c r="U77" s="169"/>
-      <c r="V77" s="170"/>
+      <c r="R77" s="162"/>
+      <c r="S77" s="162"/>
+      <c r="T77" s="162"/>
+      <c r="U77" s="162"/>
+      <c r="V77" s="163"/>
       <c r="W77" s="1"/>
       <c r="X77" s="5"/>
       <c r="Y77" s="5"/>
-      <c r="Z77" s="1"/>
-      <c r="AA77" s="1"/>
-      <c r="AB77" s="1"/>
-      <c r="AC77" s="1"/>
+      <c r="Z77" s="6"/>
+      <c r="AA77" s="6"/>
+      <c r="AB77" s="6"/>
+      <c r="AC77" s="6"/>
       <c r="AD77" s="5"/>
       <c r="AE77" s="5"/>
       <c r="AF77" s="5"/>
@@ -6438,35 +6360,35 @@
     <row x14ac:dyDescent="0.25" r="78" customHeight="1" ht="77.25">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
-      <c r="C78" s="153"/>
-      <c r="D78" s="146"/>
-      <c r="E78" s="146"/>
-      <c r="F78" s="146"/>
-      <c r="G78" s="172"/>
-      <c r="H78" s="172"/>
-      <c r="I78" s="172"/>
-      <c r="J78" s="172"/>
-      <c r="K78" s="134" t="s">
+      <c r="C78" s="148"/>
+      <c r="D78" s="141"/>
+      <c r="E78" s="141"/>
+      <c r="F78" s="141"/>
+      <c r="G78" s="164"/>
+      <c r="H78" s="164"/>
+      <c r="I78" s="164"/>
+      <c r="J78" s="164"/>
+      <c r="K78" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="L78" s="134"/>
-      <c r="M78" s="134"/>
-      <c r="N78" s="134"/>
-      <c r="O78" s="134"/>
-      <c r="P78" s="134"/>
-      <c r="Q78" s="151"/>
-      <c r="R78" s="151"/>
-      <c r="S78" s="151"/>
-      <c r="T78" s="151"/>
-      <c r="U78" s="151"/>
-      <c r="V78" s="152"/>
+      <c r="L78" s="129"/>
+      <c r="M78" s="129"/>
+      <c r="N78" s="129"/>
+      <c r="O78" s="129"/>
+      <c r="P78" s="129"/>
+      <c r="Q78" s="146"/>
+      <c r="R78" s="146"/>
+      <c r="S78" s="146"/>
+      <c r="T78" s="146"/>
+      <c r="U78" s="146"/>
+      <c r="V78" s="147"/>
       <c r="W78" s="1"/>
       <c r="X78" s="5"/>
       <c r="Y78" s="5"/>
-      <c r="Z78" s="1"/>
-      <c r="AA78" s="1"/>
-      <c r="AB78" s="1"/>
-      <c r="AC78" s="1"/>
+      <c r="Z78" s="6"/>
+      <c r="AA78" s="6"/>
+      <c r="AB78" s="6"/>
+      <c r="AC78" s="6"/>
       <c r="AD78" s="5"/>
       <c r="AE78" s="5"/>
       <c r="AF78" s="5"/>
@@ -6477,39 +6399,39 @@
     <row x14ac:dyDescent="0.25" r="79" customHeight="1" ht="31.5">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
-      <c r="C79" s="153" t="s">
+      <c r="C79" s="148" t="s">
         <v>57</v>
       </c>
-      <c r="D79" s="146"/>
-      <c r="E79" s="146"/>
-      <c r="F79" s="146"/>
-      <c r="G79" s="172" t="s">
+      <c r="D79" s="141"/>
+      <c r="E79" s="141"/>
+      <c r="F79" s="141"/>
+      <c r="G79" s="164" t="s">
         <v>58</v>
       </c>
-      <c r="H79" s="172"/>
-      <c r="I79" s="172"/>
-      <c r="J79" s="172"/>
-      <c r="K79" s="134" t="s">
+      <c r="H79" s="164"/>
+      <c r="I79" s="164"/>
+      <c r="J79" s="164"/>
+      <c r="K79" s="129" t="s">
         <v>59</v>
       </c>
-      <c r="L79" s="134"/>
-      <c r="M79" s="134"/>
-      <c r="N79" s="134"/>
-      <c r="O79" s="134"/>
-      <c r="P79" s="134"/>
-      <c r="Q79" s="146"/>
-      <c r="R79" s="146"/>
-      <c r="S79" s="146"/>
-      <c r="T79" s="146"/>
-      <c r="U79" s="146"/>
-      <c r="V79" s="158"/>
+      <c r="L79" s="129"/>
+      <c r="M79" s="129"/>
+      <c r="N79" s="129"/>
+      <c r="O79" s="129"/>
+      <c r="P79" s="129"/>
+      <c r="Q79" s="141"/>
+      <c r="R79" s="141"/>
+      <c r="S79" s="141"/>
+      <c r="T79" s="141"/>
+      <c r="U79" s="141"/>
+      <c r="V79" s="152"/>
       <c r="W79" s="1"/>
       <c r="X79" s="5"/>
       <c r="Y79" s="5"/>
-      <c r="Z79" s="1"/>
-      <c r="AA79" s="1"/>
-      <c r="AB79" s="1"/>
-      <c r="AC79" s="1"/>
+      <c r="Z79" s="6"/>
+      <c r="AA79" s="6"/>
+      <c r="AB79" s="6"/>
+      <c r="AC79" s="6"/>
       <c r="AD79" s="5"/>
       <c r="AE79" s="5"/>
       <c r="AF79" s="5"/>
@@ -6520,39 +6442,39 @@
     <row x14ac:dyDescent="0.25" r="80" customHeight="1" ht="32.25">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
-      <c r="C80" s="159" t="s">
+      <c r="C80" s="153" t="s">
         <v>60</v>
       </c>
-      <c r="D80" s="160"/>
-      <c r="E80" s="160"/>
-      <c r="F80" s="160"/>
-      <c r="G80" s="174" t="s">
+      <c r="D80" s="154"/>
+      <c r="E80" s="154"/>
+      <c r="F80" s="154"/>
+      <c r="G80" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="H80" s="174"/>
-      <c r="I80" s="174"/>
-      <c r="J80" s="174"/>
-      <c r="K80" s="175" t="s">
+      <c r="H80" s="165"/>
+      <c r="I80" s="165"/>
+      <c r="J80" s="165"/>
+      <c r="K80" s="166" t="s">
         <v>62</v>
       </c>
-      <c r="L80" s="175"/>
-      <c r="M80" s="175"/>
-      <c r="N80" s="175"/>
-      <c r="O80" s="175"/>
-      <c r="P80" s="175"/>
-      <c r="Q80" s="160"/>
-      <c r="R80" s="160"/>
-      <c r="S80" s="160"/>
-      <c r="T80" s="160"/>
-      <c r="U80" s="160"/>
-      <c r="V80" s="163"/>
+      <c r="L80" s="166"/>
+      <c r="M80" s="166"/>
+      <c r="N80" s="166"/>
+      <c r="O80" s="166"/>
+      <c r="P80" s="166"/>
+      <c r="Q80" s="154"/>
+      <c r="R80" s="154"/>
+      <c r="S80" s="154"/>
+      <c r="T80" s="154"/>
+      <c r="U80" s="154"/>
+      <c r="V80" s="157"/>
       <c r="W80" s="1"/>
       <c r="X80" s="5"/>
       <c r="Y80" s="5"/>
-      <c r="Z80" s="1"/>
-      <c r="AA80" s="1"/>
-      <c r="AB80" s="1"/>
-      <c r="AC80" s="1"/>
+      <c r="Z80" s="6"/>
+      <c r="AA80" s="6"/>
+      <c r="AB80" s="6"/>
+      <c r="AC80" s="6"/>
       <c r="AD80" s="5"/>
       <c r="AE80" s="5"/>
       <c r="AF80" s="5"/>
@@ -6563,41 +6485,41 @@
     <row x14ac:dyDescent="0.25" r="81" customHeight="1" ht="18.75">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
-      <c r="C81" s="178" t="s">
+      <c r="C81" s="169" t="s">
         <v>63</v>
       </c>
-      <c r="D81" s="165"/>
-      <c r="E81" s="165"/>
-      <c r="F81" s="165"/>
-      <c r="G81" s="179" t="s">
+      <c r="D81" s="159"/>
+      <c r="E81" s="159"/>
+      <c r="F81" s="159"/>
+      <c r="G81" s="170" t="s">
         <v>64</v>
       </c>
-      <c r="H81" s="166"/>
-      <c r="I81" s="166"/>
-      <c r="J81" s="166"/>
-      <c r="K81" s="180" t="s">
+      <c r="H81" s="160"/>
+      <c r="I81" s="160"/>
+      <c r="J81" s="160"/>
+      <c r="K81" s="171" t="s">
         <v>65</v>
       </c>
-      <c r="L81" s="168"/>
-      <c r="M81" s="168"/>
-      <c r="N81" s="168"/>
-      <c r="O81" s="168"/>
-      <c r="P81" s="168"/>
-      <c r="Q81" s="181" t="s">
+      <c r="L81" s="161"/>
+      <c r="M81" s="161"/>
+      <c r="N81" s="161"/>
+      <c r="O81" s="161"/>
+      <c r="P81" s="161"/>
+      <c r="Q81" s="172" t="s">
         <v>28</v>
       </c>
-      <c r="R81" s="169"/>
-      <c r="S81" s="169"/>
-      <c r="T81" s="169"/>
-      <c r="U81" s="169"/>
-      <c r="V81" s="170"/>
+      <c r="R81" s="162"/>
+      <c r="S81" s="162"/>
+      <c r="T81" s="162"/>
+      <c r="U81" s="162"/>
+      <c r="V81" s="163"/>
       <c r="W81" s="1"/>
       <c r="X81" s="5"/>
       <c r="Y81" s="5"/>
-      <c r="Z81" s="1"/>
-      <c r="AA81" s="1"/>
-      <c r="AB81" s="1"/>
-      <c r="AC81" s="1"/>
+      <c r="Z81" s="6"/>
+      <c r="AA81" s="6"/>
+      <c r="AB81" s="6"/>
+      <c r="AC81" s="6"/>
       <c r="AD81" s="5"/>
       <c r="AE81" s="5"/>
       <c r="AF81" s="5"/>
@@ -6608,33 +6530,33 @@
     <row x14ac:dyDescent="0.25" r="82" customHeight="1" ht="18.75">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
-      <c r="C82" s="153"/>
-      <c r="D82" s="146"/>
-      <c r="E82" s="146"/>
-      <c r="F82" s="146"/>
-      <c r="G82" s="171"/>
-      <c r="H82" s="171"/>
-      <c r="I82" s="171"/>
-      <c r="J82" s="171"/>
-      <c r="K82" s="134"/>
-      <c r="L82" s="134"/>
-      <c r="M82" s="134"/>
-      <c r="N82" s="134"/>
-      <c r="O82" s="134"/>
-      <c r="P82" s="134"/>
-      <c r="Q82" s="151"/>
-      <c r="R82" s="151"/>
-      <c r="S82" s="151"/>
-      <c r="T82" s="151"/>
-      <c r="U82" s="151"/>
-      <c r="V82" s="152"/>
+      <c r="C82" s="148"/>
+      <c r="D82" s="141"/>
+      <c r="E82" s="141"/>
+      <c r="F82" s="141"/>
+      <c r="G82" s="164"/>
+      <c r="H82" s="164"/>
+      <c r="I82" s="164"/>
+      <c r="J82" s="164"/>
+      <c r="K82" s="129"/>
+      <c r="L82" s="129"/>
+      <c r="M82" s="129"/>
+      <c r="N82" s="129"/>
+      <c r="O82" s="129"/>
+      <c r="P82" s="129"/>
+      <c r="Q82" s="146"/>
+      <c r="R82" s="146"/>
+      <c r="S82" s="146"/>
+      <c r="T82" s="146"/>
+      <c r="U82" s="146"/>
+      <c r="V82" s="147"/>
       <c r="W82" s="1"/>
       <c r="X82" s="5"/>
       <c r="Y82" s="5"/>
-      <c r="Z82" s="1"/>
-      <c r="AA82" s="1"/>
-      <c r="AB82" s="1"/>
-      <c r="AC82" s="1"/>
+      <c r="Z82" s="6"/>
+      <c r="AA82" s="6"/>
+      <c r="AB82" s="6"/>
+      <c r="AC82" s="6"/>
       <c r="AD82" s="5"/>
       <c r="AE82" s="5"/>
       <c r="AF82" s="5"/>
@@ -6645,41 +6567,41 @@
     <row x14ac:dyDescent="0.25" r="83" customHeight="1" ht="18.75">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
-      <c r="C83" s="145" t="s">
+      <c r="C83" s="140" t="s">
         <v>66</v>
       </c>
-      <c r="D83" s="146"/>
-      <c r="E83" s="146"/>
-      <c r="F83" s="146"/>
-      <c r="G83" s="182" t="s">
+      <c r="D83" s="141"/>
+      <c r="E83" s="141"/>
+      <c r="F83" s="141"/>
+      <c r="G83" s="173" t="s">
         <v>67</v>
       </c>
-      <c r="H83" s="171"/>
-      <c r="I83" s="171"/>
-      <c r="J83" s="171"/>
-      <c r="K83" s="137" t="s">
+      <c r="H83" s="164"/>
+      <c r="I83" s="164"/>
+      <c r="J83" s="164"/>
+      <c r="K83" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="L83" s="134"/>
-      <c r="M83" s="134"/>
-      <c r="N83" s="134"/>
-      <c r="O83" s="134"/>
-      <c r="P83" s="134"/>
-      <c r="Q83" s="150" t="s">
+      <c r="L83" s="129"/>
+      <c r="M83" s="129"/>
+      <c r="N83" s="129"/>
+      <c r="O83" s="129"/>
+      <c r="P83" s="129"/>
+      <c r="Q83" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="R83" s="151"/>
-      <c r="S83" s="151"/>
-      <c r="T83" s="151"/>
-      <c r="U83" s="151"/>
-      <c r="V83" s="152"/>
+      <c r="R83" s="146"/>
+      <c r="S83" s="146"/>
+      <c r="T83" s="146"/>
+      <c r="U83" s="146"/>
+      <c r="V83" s="147"/>
       <c r="W83" s="1"/>
       <c r="X83" s="5"/>
       <c r="Y83" s="5"/>
-      <c r="Z83" s="1"/>
-      <c r="AA83" s="1"/>
-      <c r="AB83" s="1"/>
-      <c r="AC83" s="1"/>
+      <c r="Z83" s="6"/>
+      <c r="AA83" s="6"/>
+      <c r="AB83" s="6"/>
+      <c r="AC83" s="6"/>
       <c r="AD83" s="5"/>
       <c r="AE83" s="5"/>
       <c r="AF83" s="5"/>
@@ -6690,33 +6612,33 @@
     <row x14ac:dyDescent="0.25" r="84" customHeight="1" ht="18.75">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
-      <c r="C84" s="153"/>
-      <c r="D84" s="146"/>
-      <c r="E84" s="146"/>
-      <c r="F84" s="146"/>
-      <c r="G84" s="171"/>
-      <c r="H84" s="171"/>
-      <c r="I84" s="171"/>
-      <c r="J84" s="171"/>
-      <c r="K84" s="134"/>
-      <c r="L84" s="134"/>
-      <c r="M84" s="134"/>
-      <c r="N84" s="134"/>
-      <c r="O84" s="134"/>
-      <c r="P84" s="134"/>
-      <c r="Q84" s="151"/>
-      <c r="R84" s="151"/>
-      <c r="S84" s="151"/>
-      <c r="T84" s="151"/>
-      <c r="U84" s="151"/>
-      <c r="V84" s="152"/>
+      <c r="C84" s="148"/>
+      <c r="D84" s="141"/>
+      <c r="E84" s="141"/>
+      <c r="F84" s="141"/>
+      <c r="G84" s="164"/>
+      <c r="H84" s="164"/>
+      <c r="I84" s="164"/>
+      <c r="J84" s="164"/>
+      <c r="K84" s="129"/>
+      <c r="L84" s="129"/>
+      <c r="M84" s="129"/>
+      <c r="N84" s="129"/>
+      <c r="O84" s="129"/>
+      <c r="P84" s="129"/>
+      <c r="Q84" s="146"/>
+      <c r="R84" s="146"/>
+      <c r="S84" s="146"/>
+      <c r="T84" s="146"/>
+      <c r="U84" s="146"/>
+      <c r="V84" s="147"/>
       <c r="W84" s="1"/>
       <c r="X84" s="5"/>
       <c r="Y84" s="5"/>
-      <c r="Z84" s="1"/>
-      <c r="AA84" s="1"/>
-      <c r="AB84" s="1"/>
-      <c r="AC84" s="1"/>
+      <c r="Z84" s="6"/>
+      <c r="AA84" s="6"/>
+      <c r="AB84" s="6"/>
+      <c r="AC84" s="6"/>
       <c r="AD84" s="5"/>
       <c r="AE84" s="5"/>
       <c r="AF84" s="5"/>
@@ -6727,41 +6649,41 @@
     <row x14ac:dyDescent="0.25" r="85" customHeight="1" ht="18.75">
       <c r="A85" s="1"/>
       <c r="B85" s="1"/>
-      <c r="C85" s="145" t="s">
+      <c r="C85" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="D85" s="146"/>
-      <c r="E85" s="146"/>
-      <c r="F85" s="146"/>
-      <c r="G85" s="182" t="s">
+      <c r="D85" s="141"/>
+      <c r="E85" s="141"/>
+      <c r="F85" s="141"/>
+      <c r="G85" s="173" t="s">
         <v>70</v>
       </c>
-      <c r="H85" s="171"/>
-      <c r="I85" s="171"/>
-      <c r="J85" s="171"/>
-      <c r="K85" s="137" t="s">
+      <c r="H85" s="164"/>
+      <c r="I85" s="164"/>
+      <c r="J85" s="164"/>
+      <c r="K85" s="132" t="s">
         <v>65</v>
       </c>
-      <c r="L85" s="134"/>
-      <c r="M85" s="134"/>
-      <c r="N85" s="134"/>
-      <c r="O85" s="134"/>
-      <c r="P85" s="134"/>
-      <c r="Q85" s="150" t="s">
+      <c r="L85" s="129"/>
+      <c r="M85" s="129"/>
+      <c r="N85" s="129"/>
+      <c r="O85" s="129"/>
+      <c r="P85" s="129"/>
+      <c r="Q85" s="145" t="s">
         <v>28</v>
       </c>
-      <c r="R85" s="151"/>
-      <c r="S85" s="151"/>
-      <c r="T85" s="151"/>
-      <c r="U85" s="151"/>
-      <c r="V85" s="152"/>
+      <c r="R85" s="146"/>
+      <c r="S85" s="146"/>
+      <c r="T85" s="146"/>
+      <c r="U85" s="146"/>
+      <c r="V85" s="147"/>
       <c r="W85" s="1"/>
       <c r="X85" s="5"/>
       <c r="Y85" s="5"/>
-      <c r="Z85" s="1"/>
-      <c r="AA85" s="1"/>
-      <c r="AB85" s="1"/>
-      <c r="AC85" s="1"/>
+      <c r="Z85" s="6"/>
+      <c r="AA85" s="6"/>
+      <c r="AB85" s="6"/>
+      <c r="AC85" s="6"/>
       <c r="AD85" s="5"/>
       <c r="AE85" s="5"/>
       <c r="AF85" s="5"/>
@@ -6772,33 +6694,33 @@
     <row x14ac:dyDescent="0.25" r="86" customHeight="1" ht="18.75">
       <c r="A86" s="1"/>
       <c r="B86" s="1"/>
-      <c r="C86" s="159"/>
-      <c r="D86" s="160"/>
-      <c r="E86" s="160"/>
-      <c r="F86" s="160"/>
-      <c r="G86" s="173"/>
-      <c r="H86" s="173"/>
-      <c r="I86" s="173"/>
-      <c r="J86" s="173"/>
-      <c r="K86" s="175"/>
-      <c r="L86" s="175"/>
-      <c r="M86" s="175"/>
-      <c r="N86" s="175"/>
-      <c r="O86" s="175"/>
-      <c r="P86" s="175"/>
-      <c r="Q86" s="176"/>
-      <c r="R86" s="176"/>
-      <c r="S86" s="176"/>
-      <c r="T86" s="176"/>
-      <c r="U86" s="176"/>
-      <c r="V86" s="177"/>
+      <c r="C86" s="153"/>
+      <c r="D86" s="154"/>
+      <c r="E86" s="154"/>
+      <c r="F86" s="154"/>
+      <c r="G86" s="165"/>
+      <c r="H86" s="165"/>
+      <c r="I86" s="165"/>
+      <c r="J86" s="165"/>
+      <c r="K86" s="166"/>
+      <c r="L86" s="166"/>
+      <c r="M86" s="166"/>
+      <c r="N86" s="166"/>
+      <c r="O86" s="166"/>
+      <c r="P86" s="166"/>
+      <c r="Q86" s="167"/>
+      <c r="R86" s="167"/>
+      <c r="S86" s="167"/>
+      <c r="T86" s="167"/>
+      <c r="U86" s="167"/>
+      <c r="V86" s="168"/>
       <c r="W86" s="1"/>
       <c r="X86" s="5"/>
       <c r="Y86" s="5"/>
-      <c r="Z86" s="1"/>
-      <c r="AA86" s="1"/>
-      <c r="AB86" s="1"/>
-      <c r="AC86" s="1"/>
+      <c r="Z86" s="6"/>
+      <c r="AA86" s="6"/>
+      <c r="AB86" s="6"/>
+      <c r="AC86" s="6"/>
       <c r="AD86" s="5"/>
       <c r="AE86" s="5"/>
       <c r="AF86" s="5"/>
@@ -6809,39 +6731,39 @@
     <row x14ac:dyDescent="0.25" r="87" customHeight="1" ht="18.75">
       <c r="A87" s="1"/>
       <c r="B87" s="1"/>
-      <c r="C87" s="178" t="s">
+      <c r="C87" s="169" t="s">
         <v>71</v>
       </c>
-      <c r="D87" s="165"/>
-      <c r="E87" s="165"/>
-      <c r="F87" s="165"/>
-      <c r="G87" s="183" t="s">
+      <c r="D87" s="159"/>
+      <c r="E87" s="159"/>
+      <c r="F87" s="159"/>
+      <c r="G87" s="170" t="s">
         <v>72</v>
       </c>
-      <c r="H87" s="167"/>
-      <c r="I87" s="167"/>
-      <c r="J87" s="167"/>
-      <c r="K87" s="180" t="s">
+      <c r="H87" s="160"/>
+      <c r="I87" s="160"/>
+      <c r="J87" s="160"/>
+      <c r="K87" s="171" t="s">
         <v>73</v>
       </c>
-      <c r="L87" s="168"/>
-      <c r="M87" s="168"/>
-      <c r="N87" s="168"/>
-      <c r="O87" s="168"/>
-      <c r="P87" s="168"/>
-      <c r="Q87" s="184"/>
-      <c r="R87" s="165"/>
-      <c r="S87" s="165"/>
-      <c r="T87" s="165"/>
-      <c r="U87" s="165"/>
-      <c r="V87" s="185"/>
+      <c r="L87" s="161"/>
+      <c r="M87" s="161"/>
+      <c r="N87" s="161"/>
+      <c r="O87" s="161"/>
+      <c r="P87" s="161"/>
+      <c r="Q87" s="174"/>
+      <c r="R87" s="159"/>
+      <c r="S87" s="159"/>
+      <c r="T87" s="159"/>
+      <c r="U87" s="159"/>
+      <c r="V87" s="175"/>
       <c r="W87" s="1"/>
       <c r="X87" s="5"/>
       <c r="Y87" s="5"/>
-      <c r="Z87" s="1"/>
-      <c r="AA87" s="1"/>
-      <c r="AB87" s="1"/>
-      <c r="AC87" s="1"/>
+      <c r="Z87" s="6"/>
+      <c r="AA87" s="6"/>
+      <c r="AB87" s="6"/>
+      <c r="AC87" s="6"/>
       <c r="AD87" s="5"/>
       <c r="AE87" s="5"/>
       <c r="AF87" s="5"/>
@@ -6852,33 +6774,33 @@
     <row x14ac:dyDescent="0.25" r="88" customHeight="1" ht="18.75">
       <c r="A88" s="1"/>
       <c r="B88" s="1"/>
-      <c r="C88" s="153"/>
-      <c r="D88" s="146"/>
-      <c r="E88" s="146"/>
-      <c r="F88" s="146"/>
-      <c r="G88" s="172"/>
-      <c r="H88" s="172"/>
-      <c r="I88" s="172"/>
-      <c r="J88" s="172"/>
-      <c r="K88" s="134"/>
-      <c r="L88" s="134"/>
-      <c r="M88" s="134"/>
-      <c r="N88" s="134"/>
-      <c r="O88" s="134"/>
-      <c r="P88" s="134"/>
-      <c r="Q88" s="146"/>
-      <c r="R88" s="146"/>
-      <c r="S88" s="146"/>
-      <c r="T88" s="146"/>
-      <c r="U88" s="146"/>
-      <c r="V88" s="158"/>
+      <c r="C88" s="148"/>
+      <c r="D88" s="141"/>
+      <c r="E88" s="141"/>
+      <c r="F88" s="141"/>
+      <c r="G88" s="164"/>
+      <c r="H88" s="164"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="164"/>
+      <c r="K88" s="129"/>
+      <c r="L88" s="129"/>
+      <c r="M88" s="129"/>
+      <c r="N88" s="129"/>
+      <c r="O88" s="129"/>
+      <c r="P88" s="129"/>
+      <c r="Q88" s="141"/>
+      <c r="R88" s="141"/>
+      <c r="S88" s="141"/>
+      <c r="T88" s="141"/>
+      <c r="U88" s="141"/>
+      <c r="V88" s="152"/>
       <c r="W88" s="1"/>
       <c r="X88" s="5"/>
       <c r="Y88" s="5"/>
-      <c r="Z88" s="1"/>
-      <c r="AA88" s="1"/>
-      <c r="AB88" s="1"/>
-      <c r="AC88" s="1"/>
+      <c r="Z88" s="6"/>
+      <c r="AA88" s="6"/>
+      <c r="AB88" s="6"/>
+      <c r="AC88" s="6"/>
       <c r="AD88" s="5"/>
       <c r="AE88" s="5"/>
       <c r="AF88" s="5"/>
@@ -6889,39 +6811,39 @@
     <row x14ac:dyDescent="0.25" r="89" customHeight="1" ht="18.75">
       <c r="A89" s="1"/>
       <c r="B89" s="1"/>
-      <c r="C89" s="145" t="s">
+      <c r="C89" s="140" t="s">
         <v>74</v>
       </c>
-      <c r="D89" s="146"/>
-      <c r="E89" s="146"/>
-      <c r="F89" s="146"/>
-      <c r="G89" s="186" t="s">
+      <c r="D89" s="141"/>
+      <c r="E89" s="141"/>
+      <c r="F89" s="141"/>
+      <c r="G89" s="173" t="s">
         <v>75</v>
       </c>
-      <c r="H89" s="172"/>
-      <c r="I89" s="172"/>
-      <c r="J89" s="172"/>
-      <c r="K89" s="137" t="s">
+      <c r="H89" s="164"/>
+      <c r="I89" s="164"/>
+      <c r="J89" s="164"/>
+      <c r="K89" s="132" t="s">
         <v>76</v>
       </c>
-      <c r="L89" s="134"/>
-      <c r="M89" s="134"/>
-      <c r="N89" s="134"/>
-      <c r="O89" s="134"/>
-      <c r="P89" s="134"/>
-      <c r="Q89" s="187"/>
-      <c r="R89" s="146"/>
-      <c r="S89" s="146"/>
-      <c r="T89" s="146"/>
-      <c r="U89" s="146"/>
-      <c r="V89" s="158"/>
+      <c r="L89" s="129"/>
+      <c r="M89" s="129"/>
+      <c r="N89" s="129"/>
+      <c r="O89" s="129"/>
+      <c r="P89" s="129"/>
+      <c r="Q89" s="176"/>
+      <c r="R89" s="141"/>
+      <c r="S89" s="141"/>
+      <c r="T89" s="141"/>
+      <c r="U89" s="141"/>
+      <c r="V89" s="152"/>
       <c r="W89" s="1"/>
       <c r="X89" s="5"/>
       <c r="Y89" s="5"/>
-      <c r="Z89" s="1"/>
-      <c r="AA89" s="1"/>
-      <c r="AB89" s="1"/>
-      <c r="AC89" s="1"/>
+      <c r="Z89" s="6"/>
+      <c r="AA89" s="6"/>
+      <c r="AB89" s="6"/>
+      <c r="AC89" s="6"/>
       <c r="AD89" s="5"/>
       <c r="AE89" s="5"/>
       <c r="AF89" s="5"/>
@@ -6932,33 +6854,33 @@
     <row x14ac:dyDescent="0.25" r="90" customHeight="1" ht="18.75">
       <c r="A90" s="1"/>
       <c r="B90" s="1"/>
-      <c r="C90" s="153"/>
-      <c r="D90" s="146"/>
-      <c r="E90" s="146"/>
-      <c r="F90" s="146"/>
-      <c r="G90" s="172"/>
-      <c r="H90" s="172"/>
-      <c r="I90" s="172"/>
-      <c r="J90" s="172"/>
-      <c r="K90" s="134"/>
-      <c r="L90" s="134"/>
-      <c r="M90" s="134"/>
-      <c r="N90" s="134"/>
-      <c r="O90" s="134"/>
-      <c r="P90" s="134"/>
-      <c r="Q90" s="146"/>
-      <c r="R90" s="146"/>
-      <c r="S90" s="146"/>
-      <c r="T90" s="146"/>
-      <c r="U90" s="146"/>
-      <c r="V90" s="158"/>
+      <c r="C90" s="148"/>
+      <c r="D90" s="141"/>
+      <c r="E90" s="141"/>
+      <c r="F90" s="141"/>
+      <c r="G90" s="164"/>
+      <c r="H90" s="164"/>
+      <c r="I90" s="164"/>
+      <c r="J90" s="164"/>
+      <c r="K90" s="129"/>
+      <c r="L90" s="129"/>
+      <c r="M90" s="129"/>
+      <c r="N90" s="129"/>
+      <c r="O90" s="129"/>
+      <c r="P90" s="129"/>
+      <c r="Q90" s="141"/>
+      <c r="R90" s="141"/>
+      <c r="S90" s="141"/>
+      <c r="T90" s="141"/>
+      <c r="U90" s="141"/>
+      <c r="V90" s="152"/>
       <c r="W90" s="1"/>
       <c r="X90" s="5"/>
       <c r="Y90" s="5"/>
-      <c r="Z90" s="1"/>
-      <c r="AA90" s="1"/>
-      <c r="AB90" s="1"/>
-      <c r="AC90" s="1"/>
+      <c r="Z90" s="6"/>
+      <c r="AA90" s="6"/>
+      <c r="AB90" s="6"/>
+      <c r="AC90" s="6"/>
       <c r="AD90" s="5"/>
       <c r="AE90" s="5"/>
       <c r="AF90" s="5"/>
@@ -6969,39 +6891,39 @@
     <row x14ac:dyDescent="0.25" r="91" customHeight="1" ht="18.75">
       <c r="A91" s="1"/>
       <c r="B91" s="1"/>
-      <c r="C91" s="145" t="s">
+      <c r="C91" s="140" t="s">
         <v>77</v>
       </c>
-      <c r="D91" s="146"/>
-      <c r="E91" s="146"/>
-      <c r="F91" s="146"/>
-      <c r="G91" s="186" t="s">
+      <c r="D91" s="141"/>
+      <c r="E91" s="141"/>
+      <c r="F91" s="141"/>
+      <c r="G91" s="173" t="s">
         <v>78</v>
       </c>
-      <c r="H91" s="172"/>
-      <c r="I91" s="172"/>
-      <c r="J91" s="172"/>
-      <c r="K91" s="137" t="s">
+      <c r="H91" s="164"/>
+      <c r="I91" s="164"/>
+      <c r="J91" s="164"/>
+      <c r="K91" s="132" t="s">
         <v>79</v>
       </c>
-      <c r="L91" s="134"/>
-      <c r="M91" s="134"/>
-      <c r="N91" s="134"/>
-      <c r="O91" s="134"/>
-      <c r="P91" s="134"/>
-      <c r="Q91" s="187"/>
-      <c r="R91" s="146"/>
-      <c r="S91" s="146"/>
-      <c r="T91" s="146"/>
-      <c r="U91" s="146"/>
-      <c r="V91" s="158"/>
+      <c r="L91" s="129"/>
+      <c r="M91" s="129"/>
+      <c r="N91" s="129"/>
+      <c r="O91" s="129"/>
+      <c r="P91" s="129"/>
+      <c r="Q91" s="176"/>
+      <c r="R91" s="141"/>
+      <c r="S91" s="141"/>
+      <c r="T91" s="141"/>
+      <c r="U91" s="141"/>
+      <c r="V91" s="152"/>
       <c r="W91" s="1"/>
       <c r="X91" s="5"/>
       <c r="Y91" s="5"/>
-      <c r="Z91" s="1"/>
-      <c r="AA91" s="1"/>
-      <c r="AB91" s="1"/>
-      <c r="AC91" s="1"/>
+      <c r="Z91" s="6"/>
+      <c r="AA91" s="6"/>
+      <c r="AB91" s="6"/>
+      <c r="AC91" s="6"/>
       <c r="AD91" s="5"/>
       <c r="AE91" s="5"/>
       <c r="AF91" s="5"/>
@@ -7012,33 +6934,33 @@
     <row x14ac:dyDescent="0.25" r="92" customHeight="1" ht="18.75">
       <c r="A92" s="1"/>
       <c r="B92" s="1"/>
-      <c r="C92" s="159"/>
-      <c r="D92" s="160"/>
-      <c r="E92" s="160"/>
-      <c r="F92" s="160"/>
-      <c r="G92" s="174"/>
-      <c r="H92" s="174"/>
-      <c r="I92" s="174"/>
-      <c r="J92" s="174"/>
-      <c r="K92" s="175"/>
-      <c r="L92" s="175"/>
-      <c r="M92" s="175"/>
-      <c r="N92" s="175"/>
-      <c r="O92" s="175"/>
-      <c r="P92" s="175"/>
-      <c r="Q92" s="160"/>
-      <c r="R92" s="160"/>
-      <c r="S92" s="160"/>
-      <c r="T92" s="160"/>
-      <c r="U92" s="160"/>
-      <c r="V92" s="163"/>
+      <c r="C92" s="153"/>
+      <c r="D92" s="154"/>
+      <c r="E92" s="154"/>
+      <c r="F92" s="154"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="165"/>
+      <c r="I92" s="165"/>
+      <c r="J92" s="165"/>
+      <c r="K92" s="166"/>
+      <c r="L92" s="166"/>
+      <c r="M92" s="166"/>
+      <c r="N92" s="166"/>
+      <c r="O92" s="166"/>
+      <c r="P92" s="166"/>
+      <c r="Q92" s="154"/>
+      <c r="R92" s="154"/>
+      <c r="S92" s="154"/>
+      <c r="T92" s="154"/>
+      <c r="U92" s="154"/>
+      <c r="V92" s="157"/>
       <c r="W92" s="1"/>
       <c r="X92" s="5"/>
       <c r="Y92" s="5"/>
-      <c r="Z92" s="1"/>
-      <c r="AA92" s="1"/>
-      <c r="AB92" s="1"/>
-      <c r="AC92" s="1"/>
+      <c r="Z92" s="6"/>
+      <c r="AA92" s="6"/>
+      <c r="AB92" s="6"/>
+      <c r="AC92" s="6"/>
       <c r="AD92" s="5"/>
       <c r="AE92" s="5"/>
       <c r="AF92" s="5"/>
@@ -7049,20 +6971,20 @@
     <row x14ac:dyDescent="0.25" r="93" customHeight="1" ht="19.5">
       <c r="A93" s="1"/>
       <c r="B93" s="1"/>
-      <c r="C93" s="188"/>
+      <c r="C93" s="177"/>
       <c r="D93" s="23"/>
       <c r="E93" s="23"/>
       <c r="F93" s="23"/>
-      <c r="G93" s="189"/>
-      <c r="H93" s="189"/>
-      <c r="I93" s="189"/>
-      <c r="J93" s="189"/>
-      <c r="K93" s="189"/>
-      <c r="L93" s="189"/>
-      <c r="M93" s="189"/>
-      <c r="N93" s="189"/>
-      <c r="O93" s="189"/>
-      <c r="P93" s="189"/>
+      <c r="G93" s="178"/>
+      <c r="H93" s="178"/>
+      <c r="I93" s="178"/>
+      <c r="J93" s="178"/>
+      <c r="K93" s="178"/>
+      <c r="L93" s="178"/>
+      <c r="M93" s="178"/>
+      <c r="N93" s="178"/>
+      <c r="O93" s="178"/>
+      <c r="P93" s="178"/>
       <c r="Q93" s="23"/>
       <c r="R93" s="23"/>
       <c r="S93" s="23"/>
@@ -7072,10 +6994,10 @@
       <c r="W93" s="1"/>
       <c r="X93" s="5"/>
       <c r="Y93" s="5"/>
-      <c r="Z93" s="1"/>
-      <c r="AA93" s="1"/>
-      <c r="AB93" s="1"/>
-      <c r="AC93" s="1"/>
+      <c r="Z93" s="6"/>
+      <c r="AA93" s="6"/>
+      <c r="AB93" s="6"/>
+      <c r="AC93" s="6"/>
       <c r="AD93" s="5"/>
       <c r="AE93" s="5"/>
       <c r="AF93" s="5"/>
@@ -7086,7 +7008,7 @@
     <row x14ac:dyDescent="0.25" r="94" customHeight="1" ht="18.75">
       <c r="A94" s="1"/>
       <c r="B94" s="1"/>
-      <c r="C94" s="190" t="s">
+      <c r="C94" s="179" t="s">
         <v>80</v>
       </c>
       <c r="D94" s="26"/>
@@ -7107,14 +7029,14 @@
       <c r="S94" s="26"/>
       <c r="T94" s="26"/>
       <c r="U94" s="26"/>
-      <c r="V94" s="191"/>
+      <c r="V94" s="180"/>
       <c r="W94" s="1"/>
       <c r="X94" s="5"/>
       <c r="Y94" s="5"/>
-      <c r="Z94" s="1"/>
-      <c r="AA94" s="1"/>
-      <c r="AB94" s="1"/>
-      <c r="AC94" s="1"/>
+      <c r="Z94" s="6"/>
+      <c r="AA94" s="6"/>
+      <c r="AB94" s="6"/>
+      <c r="AC94" s="6"/>
       <c r="AD94" s="5"/>
       <c r="AE94" s="5"/>
       <c r="AF94" s="5"/>
@@ -7144,14 +7066,14 @@
       <c r="S95" s="68"/>
       <c r="T95" s="68"/>
       <c r="U95" s="68"/>
-      <c r="V95" s="192"/>
+      <c r="V95" s="181"/>
       <c r="W95" s="1"/>
       <c r="X95" s="5"/>
       <c r="Y95" s="5"/>
-      <c r="Z95" s="1"/>
-      <c r="AA95" s="1"/>
-      <c r="AB95" s="1"/>
-      <c r="AC95" s="1"/>
+      <c r="Z95" s="6"/>
+      <c r="AA95" s="6"/>
+      <c r="AB95" s="6"/>
+      <c r="AC95" s="6"/>
       <c r="AD95" s="5"/>
       <c r="AE95" s="5"/>
       <c r="AF95" s="5"/>
@@ -7162,39 +7084,39 @@
     <row x14ac:dyDescent="0.25" r="96" customHeight="1" ht="22.875">
       <c r="A96" s="1"/>
       <c r="B96" s="1"/>
-      <c r="C96" s="193" t="s">
+      <c r="C96" s="182" t="s">
         <v>81</v>
       </c>
-      <c r="D96" s="194"/>
-      <c r="E96" s="194"/>
-      <c r="F96" s="194"/>
-      <c r="G96" s="195" t="s">
+      <c r="D96" s="183"/>
+      <c r="E96" s="183"/>
+      <c r="F96" s="183"/>
+      <c r="G96" s="184" t="s">
         <v>82</v>
       </c>
-      <c r="H96" s="194"/>
-      <c r="I96" s="194"/>
-      <c r="J96" s="194"/>
-      <c r="K96" s="196" t="s">
+      <c r="H96" s="183"/>
+      <c r="I96" s="183"/>
+      <c r="J96" s="183"/>
+      <c r="K96" s="185" t="s">
         <v>83</v>
       </c>
-      <c r="L96" s="197"/>
-      <c r="M96" s="197"/>
-      <c r="N96" s="197"/>
-      <c r="O96" s="197"/>
-      <c r="P96" s="197"/>
-      <c r="Q96" s="198"/>
-      <c r="R96" s="199"/>
-      <c r="S96" s="199"/>
-      <c r="T96" s="199"/>
-      <c r="U96" s="199"/>
-      <c r="V96" s="200"/>
+      <c r="L96" s="186"/>
+      <c r="M96" s="186"/>
+      <c r="N96" s="186"/>
+      <c r="O96" s="186"/>
+      <c r="P96" s="186"/>
+      <c r="Q96" s="187"/>
+      <c r="R96" s="188"/>
+      <c r="S96" s="188"/>
+      <c r="T96" s="188"/>
+      <c r="U96" s="188"/>
+      <c r="V96" s="189"/>
       <c r="W96" s="1"/>
       <c r="X96" s="5"/>
       <c r="Y96" s="5"/>
-      <c r="Z96" s="1"/>
-      <c r="AA96" s="1"/>
-      <c r="AB96" s="1"/>
-      <c r="AC96" s="1"/>
+      <c r="Z96" s="6"/>
+      <c r="AA96" s="6"/>
+      <c r="AB96" s="6"/>
+      <c r="AC96" s="6"/>
       <c r="AD96" s="5"/>
       <c r="AE96" s="5"/>
       <c r="AF96" s="5"/>
@@ -7205,33 +7127,33 @@
     <row x14ac:dyDescent="0.25" r="97" customHeight="1" ht="53.25">
       <c r="A97" s="1"/>
       <c r="B97" s="1"/>
-      <c r="C97" s="201"/>
-      <c r="D97" s="202"/>
-      <c r="E97" s="202"/>
-      <c r="F97" s="202"/>
-      <c r="G97" s="202"/>
-      <c r="H97" s="202"/>
-      <c r="I97" s="202"/>
-      <c r="J97" s="202"/>
-      <c r="K97" s="203"/>
-      <c r="L97" s="203"/>
-      <c r="M97" s="203"/>
-      <c r="N97" s="203"/>
-      <c r="O97" s="203"/>
-      <c r="P97" s="203"/>
-      <c r="Q97" s="204"/>
-      <c r="R97" s="204"/>
-      <c r="S97" s="204"/>
-      <c r="T97" s="204"/>
-      <c r="U97" s="204"/>
-      <c r="V97" s="205"/>
+      <c r="C97" s="190"/>
+      <c r="D97" s="191"/>
+      <c r="E97" s="191"/>
+      <c r="F97" s="191"/>
+      <c r="G97" s="191"/>
+      <c r="H97" s="191"/>
+      <c r="I97" s="191"/>
+      <c r="J97" s="191"/>
+      <c r="K97" s="192"/>
+      <c r="L97" s="192"/>
+      <c r="M97" s="192"/>
+      <c r="N97" s="192"/>
+      <c r="O97" s="192"/>
+      <c r="P97" s="192"/>
+      <c r="Q97" s="193"/>
+      <c r="R97" s="193"/>
+      <c r="S97" s="193"/>
+      <c r="T97" s="193"/>
+      <c r="U97" s="193"/>
+      <c r="V97" s="194"/>
       <c r="W97" s="1"/>
       <c r="X97" s="5"/>
       <c r="Y97" s="5"/>
-      <c r="Z97" s="1"/>
-      <c r="AA97" s="1"/>
-      <c r="AB97" s="1"/>
-      <c r="AC97" s="1"/>
+      <c r="Z97" s="6"/>
+      <c r="AA97" s="6"/>
+      <c r="AB97" s="6"/>
+      <c r="AC97" s="6"/>
       <c r="AD97" s="5"/>
       <c r="AE97" s="5"/>
       <c r="AF97" s="5"/>
@@ -7242,39 +7164,39 @@
     <row x14ac:dyDescent="0.25" r="98" customHeight="1" ht="49.5">
       <c r="A98" s="1"/>
       <c r="B98" s="1"/>
-      <c r="C98" s="193" t="s">
+      <c r="C98" s="182" t="s">
         <v>84</v>
       </c>
-      <c r="D98" s="194"/>
-      <c r="E98" s="194"/>
-      <c r="F98" s="194"/>
-      <c r="G98" s="206" t="s">
+      <c r="D98" s="183"/>
+      <c r="E98" s="183"/>
+      <c r="F98" s="183"/>
+      <c r="G98" s="195" t="s">
         <v>85</v>
       </c>
-      <c r="H98" s="207"/>
-      <c r="I98" s="207"/>
-      <c r="J98" s="208"/>
-      <c r="K98" s="196" t="s">
+      <c r="H98" s="196"/>
+      <c r="I98" s="196"/>
+      <c r="J98" s="197"/>
+      <c r="K98" s="185" t="s">
         <v>86</v>
       </c>
-      <c r="L98" s="197"/>
-      <c r="M98" s="197"/>
-      <c r="N98" s="197"/>
-      <c r="O98" s="197"/>
-      <c r="P98" s="197"/>
-      <c r="Q98" s="198"/>
-      <c r="R98" s="199"/>
-      <c r="S98" s="199"/>
-      <c r="T98" s="199"/>
-      <c r="U98" s="199"/>
-      <c r="V98" s="200"/>
+      <c r="L98" s="186"/>
+      <c r="M98" s="186"/>
+      <c r="N98" s="186"/>
+      <c r="O98" s="186"/>
+      <c r="P98" s="186"/>
+      <c r="Q98" s="187"/>
+      <c r="R98" s="188"/>
+      <c r="S98" s="188"/>
+      <c r="T98" s="188"/>
+      <c r="U98" s="188"/>
+      <c r="V98" s="189"/>
       <c r="W98" s="1"/>
       <c r="X98" s="5"/>
       <c r="Y98" s="5"/>
-      <c r="Z98" s="1"/>
-      <c r="AA98" s="1"/>
-      <c r="AB98" s="1"/>
-      <c r="AC98" s="1"/>
+      <c r="Z98" s="6"/>
+      <c r="AA98" s="6"/>
+      <c r="AB98" s="6"/>
+      <c r="AC98" s="6"/>
       <c r="AD98" s="5"/>
       <c r="AE98" s="5"/>
       <c r="AF98" s="5"/>
@@ -7285,33 +7207,33 @@
     <row x14ac:dyDescent="0.25" r="99" customHeight="1" ht="49.5">
       <c r="A99" s="1"/>
       <c r="B99" s="1"/>
-      <c r="C99" s="209"/>
-      <c r="D99" s="210"/>
-      <c r="E99" s="210"/>
-      <c r="F99" s="210"/>
-      <c r="G99" s="211"/>
-      <c r="H99" s="212"/>
-      <c r="I99" s="212"/>
-      <c r="J99" s="213"/>
-      <c r="K99" s="214"/>
-      <c r="L99" s="214"/>
-      <c r="M99" s="214"/>
-      <c r="N99" s="214"/>
-      <c r="O99" s="214"/>
-      <c r="P99" s="214"/>
-      <c r="Q99" s="215"/>
-      <c r="R99" s="215"/>
-      <c r="S99" s="215"/>
-      <c r="T99" s="215"/>
-      <c r="U99" s="215"/>
-      <c r="V99" s="216"/>
+      <c r="C99" s="198"/>
+      <c r="D99" s="199"/>
+      <c r="E99" s="199"/>
+      <c r="F99" s="199"/>
+      <c r="G99" s="200"/>
+      <c r="H99" s="201"/>
+      <c r="I99" s="201"/>
+      <c r="J99" s="202"/>
+      <c r="K99" s="203"/>
+      <c r="L99" s="203"/>
+      <c r="M99" s="203"/>
+      <c r="N99" s="203"/>
+      <c r="O99" s="203"/>
+      <c r="P99" s="203"/>
+      <c r="Q99" s="204"/>
+      <c r="R99" s="204"/>
+      <c r="S99" s="204"/>
+      <c r="T99" s="204"/>
+      <c r="U99" s="204"/>
+      <c r="V99" s="205"/>
       <c r="W99" s="1"/>
       <c r="X99" s="5"/>
       <c r="Y99" s="5"/>
-      <c r="Z99" s="1"/>
-      <c r="AA99" s="1"/>
-      <c r="AB99" s="1"/>
-      <c r="AC99" s="1"/>
+      <c r="Z99" s="6"/>
+      <c r="AA99" s="6"/>
+      <c r="AB99" s="6"/>
+      <c r="AC99" s="6"/>
       <c r="AD99" s="5"/>
       <c r="AE99" s="5"/>
       <c r="AF99" s="5"/>
@@ -7322,39 +7244,39 @@
     <row x14ac:dyDescent="0.25" r="100" customHeight="1" ht="43.5">
       <c r="A100" s="1"/>
       <c r="B100" s="1"/>
-      <c r="C100" s="217" t="s">
+      <c r="C100" s="169" t="s">
         <v>87</v>
       </c>
-      <c r="D100" s="218"/>
-      <c r="E100" s="218"/>
-      <c r="F100" s="218"/>
-      <c r="G100" s="179" t="s">
+      <c r="D100" s="159"/>
+      <c r="E100" s="159"/>
+      <c r="F100" s="159"/>
+      <c r="G100" s="170" t="s">
         <v>88</v>
       </c>
-      <c r="H100" s="167"/>
-      <c r="I100" s="167"/>
-      <c r="J100" s="167"/>
-      <c r="K100" s="180" t="s">
+      <c r="H100" s="160"/>
+      <c r="I100" s="160"/>
+      <c r="J100" s="160"/>
+      <c r="K100" s="171" t="s">
         <v>89</v>
       </c>
-      <c r="L100" s="168"/>
-      <c r="M100" s="168"/>
-      <c r="N100" s="168"/>
-      <c r="O100" s="168"/>
-      <c r="P100" s="168"/>
-      <c r="Q100" s="181"/>
-      <c r="R100" s="169"/>
-      <c r="S100" s="169"/>
-      <c r="T100" s="169"/>
-      <c r="U100" s="169"/>
-      <c r="V100" s="170"/>
+      <c r="L100" s="161"/>
+      <c r="M100" s="161"/>
+      <c r="N100" s="161"/>
+      <c r="O100" s="161"/>
+      <c r="P100" s="161"/>
+      <c r="Q100" s="172"/>
+      <c r="R100" s="162"/>
+      <c r="S100" s="162"/>
+      <c r="T100" s="162"/>
+      <c r="U100" s="162"/>
+      <c r="V100" s="163"/>
       <c r="W100" s="1"/>
       <c r="X100" s="5"/>
       <c r="Y100" s="5"/>
-      <c r="Z100" s="1"/>
-      <c r="AA100" s="1"/>
-      <c r="AB100" s="1"/>
-      <c r="AC100" s="1"/>
+      <c r="Z100" s="6"/>
+      <c r="AA100" s="6"/>
+      <c r="AB100" s="6"/>
+      <c r="AC100" s="6"/>
       <c r="AD100" s="5"/>
       <c r="AE100" s="5"/>
       <c r="AF100" s="5"/>
@@ -7365,33 +7287,33 @@
     <row x14ac:dyDescent="0.25" r="101" customHeight="1" ht="43.5">
       <c r="A101" s="1"/>
       <c r="B101" s="1"/>
-      <c r="C101" s="219"/>
-      <c r="D101" s="220"/>
-      <c r="E101" s="220"/>
-      <c r="F101" s="220"/>
-      <c r="G101" s="172"/>
-      <c r="H101" s="172"/>
-      <c r="I101" s="172"/>
-      <c r="J101" s="172"/>
-      <c r="K101" s="134"/>
-      <c r="L101" s="134"/>
-      <c r="M101" s="134"/>
-      <c r="N101" s="134"/>
-      <c r="O101" s="134"/>
-      <c r="P101" s="134"/>
-      <c r="Q101" s="151"/>
-      <c r="R101" s="151"/>
-      <c r="S101" s="151"/>
-      <c r="T101" s="151"/>
-      <c r="U101" s="151"/>
-      <c r="V101" s="152"/>
+      <c r="C101" s="148"/>
+      <c r="D101" s="141"/>
+      <c r="E101" s="141"/>
+      <c r="F101" s="141"/>
+      <c r="G101" s="164"/>
+      <c r="H101" s="164"/>
+      <c r="I101" s="164"/>
+      <c r="J101" s="164"/>
+      <c r="K101" s="129"/>
+      <c r="L101" s="129"/>
+      <c r="M101" s="129"/>
+      <c r="N101" s="129"/>
+      <c r="O101" s="129"/>
+      <c r="P101" s="129"/>
+      <c r="Q101" s="146"/>
+      <c r="R101" s="146"/>
+      <c r="S101" s="146"/>
+      <c r="T101" s="146"/>
+      <c r="U101" s="146"/>
+      <c r="V101" s="147"/>
       <c r="W101" s="1"/>
       <c r="X101" s="5"/>
       <c r="Y101" s="5"/>
-      <c r="Z101" s="1"/>
-      <c r="AA101" s="1"/>
-      <c r="AB101" s="1"/>
-      <c r="AC101" s="1"/>
+      <c r="Z101" s="6"/>
+      <c r="AA101" s="6"/>
+      <c r="AB101" s="6"/>
+      <c r="AC101" s="6"/>
       <c r="AD101" s="5"/>
       <c r="AE101" s="5"/>
       <c r="AF101" s="5"/>
@@ -7402,35 +7324,35 @@
     <row x14ac:dyDescent="0.25" r="102" customHeight="1" ht="44.25">
       <c r="A102" s="1"/>
       <c r="B102" s="1"/>
-      <c r="C102" s="219"/>
-      <c r="D102" s="220"/>
-      <c r="E102" s="220"/>
-      <c r="F102" s="220"/>
-      <c r="G102" s="172"/>
-      <c r="H102" s="172"/>
-      <c r="I102" s="172"/>
-      <c r="J102" s="172"/>
-      <c r="K102" s="137" t="s">
+      <c r="C102" s="148"/>
+      <c r="D102" s="141"/>
+      <c r="E102" s="141"/>
+      <c r="F102" s="141"/>
+      <c r="G102" s="164"/>
+      <c r="H102" s="164"/>
+      <c r="I102" s="164"/>
+      <c r="J102" s="164"/>
+      <c r="K102" s="132" t="s">
         <v>90</v>
       </c>
-      <c r="L102" s="134"/>
-      <c r="M102" s="134"/>
-      <c r="N102" s="134"/>
-      <c r="O102" s="134"/>
-      <c r="P102" s="134"/>
-      <c r="Q102" s="151"/>
-      <c r="R102" s="151"/>
-      <c r="S102" s="151"/>
-      <c r="T102" s="151"/>
-      <c r="U102" s="151"/>
-      <c r="V102" s="152"/>
+      <c r="L102" s="129"/>
+      <c r="M102" s="129"/>
+      <c r="N102" s="129"/>
+      <c r="O102" s="129"/>
+      <c r="P102" s="129"/>
+      <c r="Q102" s="146"/>
+      <c r="R102" s="146"/>
+      <c r="S102" s="146"/>
+      <c r="T102" s="146"/>
+      <c r="U102" s="146"/>
+      <c r="V102" s="147"/>
       <c r="W102" s="1"/>
       <c r="X102" s="5"/>
       <c r="Y102" s="5"/>
-      <c r="Z102" s="1"/>
-      <c r="AA102" s="1"/>
-      <c r="AB102" s="1"/>
-      <c r="AC102" s="1"/>
+      <c r="Z102" s="6"/>
+      <c r="AA102" s="6"/>
+      <c r="AB102" s="6"/>
+      <c r="AC102" s="6"/>
       <c r="AD102" s="5"/>
       <c r="AE102" s="5"/>
       <c r="AF102" s="5"/>
@@ -7441,33 +7363,33 @@
     <row x14ac:dyDescent="0.25" r="103" customHeight="1" ht="44.25">
       <c r="A103" s="1"/>
       <c r="B103" s="1"/>
-      <c r="C103" s="219"/>
-      <c r="D103" s="220"/>
-      <c r="E103" s="220"/>
-      <c r="F103" s="220"/>
-      <c r="G103" s="172"/>
-      <c r="H103" s="172"/>
-      <c r="I103" s="172"/>
-      <c r="J103" s="172"/>
-      <c r="K103" s="134"/>
-      <c r="L103" s="134"/>
-      <c r="M103" s="134"/>
-      <c r="N103" s="134"/>
-      <c r="O103" s="134"/>
-      <c r="P103" s="134"/>
-      <c r="Q103" s="151"/>
-      <c r="R103" s="151"/>
-      <c r="S103" s="151"/>
-      <c r="T103" s="151"/>
-      <c r="U103" s="151"/>
-      <c r="V103" s="152"/>
+      <c r="C103" s="148"/>
+      <c r="D103" s="141"/>
+      <c r="E103" s="141"/>
+      <c r="F103" s="141"/>
+      <c r="G103" s="164"/>
+      <c r="H103" s="164"/>
+      <c r="I103" s="164"/>
+      <c r="J103" s="164"/>
+      <c r="K103" s="129"/>
+      <c r="L103" s="129"/>
+      <c r="M103" s="129"/>
+      <c r="N103" s="129"/>
+      <c r="O103" s="129"/>
+      <c r="P103" s="129"/>
+      <c r="Q103" s="146"/>
+      <c r="R103" s="146"/>
+      <c r="S103" s="146"/>
+      <c r="T103" s="146"/>
+      <c r="U103" s="146"/>
+      <c r="V103" s="147"/>
       <c r="W103" s="1"/>
       <c r="X103" s="5"/>
       <c r="Y103" s="5"/>
-      <c r="Z103" s="1"/>
-      <c r="AA103" s="1"/>
-      <c r="AB103" s="1"/>
-      <c r="AC103" s="1"/>
+      <c r="Z103" s="6"/>
+      <c r="AA103" s="6"/>
+      <c r="AB103" s="6"/>
+      <c r="AC103" s="6"/>
       <c r="AD103" s="5"/>
       <c r="AE103" s="5"/>
       <c r="AF103" s="5"/>
@@ -7478,39 +7400,39 @@
     <row x14ac:dyDescent="0.25" r="104" customHeight="1" ht="63">
       <c r="A104" s="1"/>
       <c r="B104" s="1"/>
-      <c r="C104" s="221" t="s">
+      <c r="C104" s="140" t="s">
         <v>91</v>
       </c>
-      <c r="D104" s="220"/>
-      <c r="E104" s="220"/>
-      <c r="F104" s="220"/>
-      <c r="G104" s="186" t="s">
+      <c r="D104" s="141"/>
+      <c r="E104" s="141"/>
+      <c r="F104" s="141"/>
+      <c r="G104" s="173" t="s">
         <v>92</v>
       </c>
-      <c r="H104" s="172"/>
-      <c r="I104" s="172"/>
-      <c r="J104" s="172"/>
-      <c r="K104" s="134" t="s">
+      <c r="H104" s="164"/>
+      <c r="I104" s="164"/>
+      <c r="J104" s="164"/>
+      <c r="K104" s="129" t="s">
         <v>93</v>
       </c>
-      <c r="L104" s="134"/>
-      <c r="M104" s="134"/>
-      <c r="N104" s="134"/>
-      <c r="O104" s="134"/>
-      <c r="P104" s="134"/>
-      <c r="Q104" s="187"/>
-      <c r="R104" s="146"/>
-      <c r="S104" s="146"/>
-      <c r="T104" s="146"/>
-      <c r="U104" s="146"/>
-      <c r="V104" s="158"/>
+      <c r="L104" s="129"/>
+      <c r="M104" s="129"/>
+      <c r="N104" s="129"/>
+      <c r="O104" s="129"/>
+      <c r="P104" s="129"/>
+      <c r="Q104" s="176"/>
+      <c r="R104" s="141"/>
+      <c r="S104" s="141"/>
+      <c r="T104" s="141"/>
+      <c r="U104" s="141"/>
+      <c r="V104" s="152"/>
       <c r="W104" s="1"/>
       <c r="X104" s="5"/>
       <c r="Y104" s="5"/>
-      <c r="Z104" s="1"/>
-      <c r="AA104" s="1"/>
-      <c r="AB104" s="1"/>
-      <c r="AC104" s="1"/>
+      <c r="Z104" s="6"/>
+      <c r="AA104" s="6"/>
+      <c r="AB104" s="6"/>
+      <c r="AC104" s="6"/>
       <c r="AD104" s="5"/>
       <c r="AE104" s="5"/>
       <c r="AF104" s="5"/>
@@ -7521,35 +7443,35 @@
     <row x14ac:dyDescent="0.25" r="105" customHeight="1" ht="72.75">
       <c r="A105" s="1"/>
       <c r="B105" s="1"/>
-      <c r="C105" s="222"/>
-      <c r="D105" s="223"/>
-      <c r="E105" s="223"/>
-      <c r="F105" s="223"/>
-      <c r="G105" s="174"/>
-      <c r="H105" s="174"/>
-      <c r="I105" s="174"/>
-      <c r="J105" s="174"/>
-      <c r="K105" s="175" t="s">
+      <c r="C105" s="153"/>
+      <c r="D105" s="154"/>
+      <c r="E105" s="154"/>
+      <c r="F105" s="154"/>
+      <c r="G105" s="165"/>
+      <c r="H105" s="165"/>
+      <c r="I105" s="165"/>
+      <c r="J105" s="165"/>
+      <c r="K105" s="166" t="s">
         <v>94</v>
       </c>
-      <c r="L105" s="175"/>
-      <c r="M105" s="175"/>
-      <c r="N105" s="175"/>
-      <c r="O105" s="175"/>
-      <c r="P105" s="175"/>
-      <c r="Q105" s="160"/>
-      <c r="R105" s="160"/>
-      <c r="S105" s="160"/>
-      <c r="T105" s="160"/>
-      <c r="U105" s="160"/>
-      <c r="V105" s="163"/>
+      <c r="L105" s="166"/>
+      <c r="M105" s="166"/>
+      <c r="N105" s="166"/>
+      <c r="O105" s="166"/>
+      <c r="P105" s="166"/>
+      <c r="Q105" s="154"/>
+      <c r="R105" s="154"/>
+      <c r="S105" s="154"/>
+      <c r="T105" s="154"/>
+      <c r="U105" s="154"/>
+      <c r="V105" s="157"/>
       <c r="W105" s="1"/>
       <c r="X105" s="5"/>
       <c r="Y105" s="5"/>
-      <c r="Z105" s="1"/>
-      <c r="AA105" s="1"/>
-      <c r="AB105" s="1"/>
-      <c r="AC105" s="1"/>
+      <c r="Z105" s="6"/>
+      <c r="AA105" s="6"/>
+      <c r="AB105" s="6"/>
+      <c r="AC105" s="6"/>
       <c r="AD105" s="5"/>
       <c r="AE105" s="5"/>
       <c r="AF105" s="5"/>
@@ -7560,39 +7482,39 @@
     <row x14ac:dyDescent="0.25" r="106" customHeight="1" ht="38.25">
       <c r="A106" s="1"/>
       <c r="B106" s="1"/>
-      <c r="C106" s="217" t="s">
+      <c r="C106" s="169" t="s">
         <v>95</v>
       </c>
-      <c r="D106" s="218"/>
-      <c r="E106" s="218"/>
-      <c r="F106" s="218"/>
-      <c r="G106" s="183" t="s">
+      <c r="D106" s="159"/>
+      <c r="E106" s="159"/>
+      <c r="F106" s="159"/>
+      <c r="G106" s="170" t="s">
         <v>96</v>
       </c>
-      <c r="H106" s="167"/>
-      <c r="I106" s="167"/>
-      <c r="J106" s="167"/>
-      <c r="K106" s="180" t="s">
+      <c r="H106" s="160"/>
+      <c r="I106" s="160"/>
+      <c r="J106" s="160"/>
+      <c r="K106" s="171" t="s">
         <v>97</v>
       </c>
-      <c r="L106" s="168"/>
-      <c r="M106" s="168"/>
-      <c r="N106" s="168"/>
-      <c r="O106" s="168"/>
-      <c r="P106" s="168"/>
-      <c r="Q106" s="181"/>
-      <c r="R106" s="169"/>
-      <c r="S106" s="169"/>
-      <c r="T106" s="169"/>
-      <c r="U106" s="169"/>
-      <c r="V106" s="170"/>
+      <c r="L106" s="161"/>
+      <c r="M106" s="161"/>
+      <c r="N106" s="161"/>
+      <c r="O106" s="161"/>
+      <c r="P106" s="161"/>
+      <c r="Q106" s="172"/>
+      <c r="R106" s="162"/>
+      <c r="S106" s="162"/>
+      <c r="T106" s="162"/>
+      <c r="U106" s="162"/>
+      <c r="V106" s="163"/>
       <c r="W106" s="1"/>
       <c r="X106" s="5"/>
       <c r="Y106" s="5"/>
-      <c r="Z106" s="1"/>
-      <c r="AA106" s="1"/>
-      <c r="AB106" s="1"/>
-      <c r="AC106" s="1"/>
+      <c r="Z106" s="6"/>
+      <c r="AA106" s="6"/>
+      <c r="AB106" s="6"/>
+      <c r="AC106" s="6"/>
       <c r="AD106" s="5"/>
       <c r="AE106" s="5"/>
       <c r="AF106" s="5"/>
@@ -7603,33 +7525,33 @@
     <row x14ac:dyDescent="0.25" r="107" customHeight="1" ht="38.25">
       <c r="A107" s="1"/>
       <c r="B107" s="1"/>
-      <c r="C107" s="219"/>
-      <c r="D107" s="220"/>
-      <c r="E107" s="220"/>
-      <c r="F107" s="220"/>
-      <c r="G107" s="172"/>
-      <c r="H107" s="172"/>
-      <c r="I107" s="172"/>
-      <c r="J107" s="172"/>
-      <c r="K107" s="134"/>
-      <c r="L107" s="134"/>
-      <c r="M107" s="134"/>
-      <c r="N107" s="134"/>
-      <c r="O107" s="134"/>
-      <c r="P107" s="134"/>
-      <c r="Q107" s="151"/>
-      <c r="R107" s="151"/>
-      <c r="S107" s="151"/>
-      <c r="T107" s="151"/>
-      <c r="U107" s="151"/>
-      <c r="V107" s="152"/>
+      <c r="C107" s="148"/>
+      <c r="D107" s="141"/>
+      <c r="E107" s="141"/>
+      <c r="F107" s="141"/>
+      <c r="G107" s="164"/>
+      <c r="H107" s="164"/>
+      <c r="I107" s="164"/>
+      <c r="J107" s="164"/>
+      <c r="K107" s="129"/>
+      <c r="L107" s="129"/>
+      <c r="M107" s="129"/>
+      <c r="N107" s="129"/>
+      <c r="O107" s="129"/>
+      <c r="P107" s="129"/>
+      <c r="Q107" s="146"/>
+      <c r="R107" s="146"/>
+      <c r="S107" s="146"/>
+      <c r="T107" s="146"/>
+      <c r="U107" s="146"/>
+      <c r="V107" s="147"/>
       <c r="W107" s="1"/>
       <c r="X107" s="5"/>
       <c r="Y107" s="5"/>
-      <c r="Z107" s="1"/>
-      <c r="AA107" s="1"/>
-      <c r="AB107" s="1"/>
-      <c r="AC107" s="1"/>
+      <c r="Z107" s="6"/>
+      <c r="AA107" s="6"/>
+      <c r="AB107" s="6"/>
+      <c r="AC107" s="6"/>
       <c r="AD107" s="5"/>
       <c r="AE107" s="5"/>
       <c r="AF107" s="5"/>
@@ -7640,39 +7562,39 @@
     <row x14ac:dyDescent="0.25" r="108" customHeight="1" ht="38.25">
       <c r="A108" s="1"/>
       <c r="B108" s="1"/>
-      <c r="C108" s="221" t="s">
+      <c r="C108" s="140" t="s">
         <v>98</v>
       </c>
-      <c r="D108" s="220"/>
-      <c r="E108" s="220"/>
-      <c r="F108" s="220"/>
-      <c r="G108" s="186" t="s">
+      <c r="D108" s="141"/>
+      <c r="E108" s="141"/>
+      <c r="F108" s="141"/>
+      <c r="G108" s="173" t="s">
         <v>99</v>
       </c>
-      <c r="H108" s="172"/>
-      <c r="I108" s="172"/>
-      <c r="J108" s="172"/>
-      <c r="K108" s="137" t="s">
+      <c r="H108" s="164"/>
+      <c r="I108" s="164"/>
+      <c r="J108" s="164"/>
+      <c r="K108" s="132" t="s">
         <v>100</v>
       </c>
-      <c r="L108" s="134"/>
-      <c r="M108" s="134"/>
-      <c r="N108" s="134"/>
-      <c r="O108" s="134"/>
-      <c r="P108" s="134"/>
-      <c r="Q108" s="150"/>
-      <c r="R108" s="151"/>
-      <c r="S108" s="151"/>
-      <c r="T108" s="151"/>
-      <c r="U108" s="151"/>
-      <c r="V108" s="152"/>
+      <c r="L108" s="129"/>
+      <c r="M108" s="129"/>
+      <c r="N108" s="129"/>
+      <c r="O108" s="129"/>
+      <c r="P108" s="129"/>
+      <c r="Q108" s="145"/>
+      <c r="R108" s="146"/>
+      <c r="S108" s="146"/>
+      <c r="T108" s="146"/>
+      <c r="U108" s="146"/>
+      <c r="V108" s="147"/>
       <c r="W108" s="1"/>
       <c r="X108" s="5"/>
       <c r="Y108" s="5"/>
-      <c r="Z108" s="1"/>
-      <c r="AA108" s="1"/>
-      <c r="AB108" s="1"/>
-      <c r="AC108" s="1"/>
+      <c r="Z108" s="6"/>
+      <c r="AA108" s="6"/>
+      <c r="AB108" s="6"/>
+      <c r="AC108" s="6"/>
       <c r="AD108" s="5"/>
       <c r="AE108" s="5"/>
       <c r="AF108" s="5"/>
@@ -7683,33 +7605,33 @@
     <row x14ac:dyDescent="0.25" r="109" customHeight="1" ht="38.25">
       <c r="A109" s="1"/>
       <c r="B109" s="1"/>
-      <c r="C109" s="222"/>
-      <c r="D109" s="223"/>
-      <c r="E109" s="223"/>
-      <c r="F109" s="223"/>
-      <c r="G109" s="174"/>
-      <c r="H109" s="174"/>
-      <c r="I109" s="174"/>
-      <c r="J109" s="174"/>
-      <c r="K109" s="175"/>
-      <c r="L109" s="175"/>
-      <c r="M109" s="175"/>
-      <c r="N109" s="175"/>
-      <c r="O109" s="175"/>
-      <c r="P109" s="175"/>
-      <c r="Q109" s="176"/>
-      <c r="R109" s="176"/>
-      <c r="S109" s="176"/>
-      <c r="T109" s="176"/>
-      <c r="U109" s="176"/>
-      <c r="V109" s="177"/>
+      <c r="C109" s="153"/>
+      <c r="D109" s="154"/>
+      <c r="E109" s="154"/>
+      <c r="F109" s="154"/>
+      <c r="G109" s="165"/>
+      <c r="H109" s="165"/>
+      <c r="I109" s="165"/>
+      <c r="J109" s="165"/>
+      <c r="K109" s="166"/>
+      <c r="L109" s="166"/>
+      <c r="M109" s="166"/>
+      <c r="N109" s="166"/>
+      <c r="O109" s="166"/>
+      <c r="P109" s="166"/>
+      <c r="Q109" s="167"/>
+      <c r="R109" s="167"/>
+      <c r="S109" s="167"/>
+      <c r="T109" s="167"/>
+      <c r="U109" s="167"/>
+      <c r="V109" s="168"/>
       <c r="W109" s="1"/>
       <c r="X109" s="5"/>
       <c r="Y109" s="5"/>
-      <c r="Z109" s="1"/>
-      <c r="AA109" s="1"/>
-      <c r="AB109" s="1"/>
-      <c r="AC109" s="1"/>
+      <c r="Z109" s="6"/>
+      <c r="AA109" s="6"/>
+      <c r="AB109" s="6"/>
+      <c r="AC109" s="6"/>
       <c r="AD109" s="5"/>
       <c r="AE109" s="5"/>
       <c r="AF109" s="5"/>
@@ -7717,42 +7639,42 @@
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="80.25">
+    <row x14ac:dyDescent="0.25" r="110" customHeight="1" ht="46.5">
       <c r="A110" s="1"/>
       <c r="B110" s="1"/>
-      <c r="C110" s="224" t="s">
+      <c r="C110" s="158" t="s">
         <v>101</v>
       </c>
-      <c r="D110" s="218"/>
-      <c r="E110" s="218"/>
-      <c r="F110" s="218"/>
-      <c r="G110" s="167" t="s">
+      <c r="D110" s="159"/>
+      <c r="E110" s="159"/>
+      <c r="F110" s="159"/>
+      <c r="G110" s="160" t="s">
         <v>102</v>
       </c>
-      <c r="H110" s="167"/>
-      <c r="I110" s="167"/>
-      <c r="J110" s="167"/>
-      <c r="K110" s="168" t="s">
+      <c r="H110" s="160"/>
+      <c r="I110" s="160"/>
+      <c r="J110" s="160"/>
+      <c r="K110" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="L110" s="168"/>
-      <c r="M110" s="168"/>
-      <c r="N110" s="168"/>
-      <c r="O110" s="168"/>
-      <c r="P110" s="168"/>
-      <c r="Q110" s="165"/>
-      <c r="R110" s="165"/>
-      <c r="S110" s="165"/>
-      <c r="T110" s="165"/>
-      <c r="U110" s="165"/>
-      <c r="V110" s="185"/>
+      <c r="L110" s="161"/>
+      <c r="M110" s="161"/>
+      <c r="N110" s="161"/>
+      <c r="O110" s="161"/>
+      <c r="P110" s="161"/>
+      <c r="Q110" s="159"/>
+      <c r="R110" s="159"/>
+      <c r="S110" s="159"/>
+      <c r="T110" s="159"/>
+      <c r="U110" s="159"/>
+      <c r="V110" s="175"/>
       <c r="W110" s="1"/>
       <c r="X110" s="5"/>
       <c r="Y110" s="5"/>
-      <c r="Z110" s="1"/>
-      <c r="AA110" s="1"/>
-      <c r="AB110" s="1"/>
-      <c r="AC110" s="1"/>
+      <c r="Z110" s="6"/>
+      <c r="AA110" s="6"/>
+      <c r="AB110" s="6"/>
+      <c r="AC110" s="6"/>
       <c r="AD110" s="5"/>
       <c r="AE110" s="5"/>
       <c r="AF110" s="5"/>
@@ -7760,42 +7682,42 @@
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="87">
+    <row x14ac:dyDescent="0.25" r="111" customHeight="1" ht="47.25">
       <c r="A111" s="1"/>
       <c r="B111" s="1"/>
-      <c r="C111" s="222" t="s">
+      <c r="C111" s="153" t="s">
         <v>104</v>
       </c>
-      <c r="D111" s="223"/>
-      <c r="E111" s="223"/>
-      <c r="F111" s="223"/>
-      <c r="G111" s="174" t="s">
+      <c r="D111" s="154"/>
+      <c r="E111" s="154"/>
+      <c r="F111" s="154"/>
+      <c r="G111" s="165" t="s">
         <v>105</v>
       </c>
-      <c r="H111" s="174"/>
-      <c r="I111" s="174"/>
-      <c r="J111" s="174"/>
-      <c r="K111" s="175" t="s">
+      <c r="H111" s="165"/>
+      <c r="I111" s="165"/>
+      <c r="J111" s="165"/>
+      <c r="K111" s="166" t="s">
         <v>106</v>
       </c>
-      <c r="L111" s="175"/>
-      <c r="M111" s="175"/>
-      <c r="N111" s="175"/>
-      <c r="O111" s="175"/>
-      <c r="P111" s="175"/>
-      <c r="Q111" s="160"/>
-      <c r="R111" s="160"/>
-      <c r="S111" s="160"/>
-      <c r="T111" s="160"/>
-      <c r="U111" s="160"/>
-      <c r="V111" s="163"/>
+      <c r="L111" s="166"/>
+      <c r="M111" s="166"/>
+      <c r="N111" s="166"/>
+      <c r="O111" s="166"/>
+      <c r="P111" s="166"/>
+      <c r="Q111" s="154"/>
+      <c r="R111" s="154"/>
+      <c r="S111" s="154"/>
+      <c r="T111" s="154"/>
+      <c r="U111" s="154"/>
+      <c r="V111" s="157"/>
       <c r="W111" s="1"/>
       <c r="X111" s="5"/>
       <c r="Y111" s="5"/>
-      <c r="Z111" s="1"/>
-      <c r="AA111" s="1"/>
-      <c r="AB111" s="1"/>
-      <c r="AC111" s="1"/>
+      <c r="Z111" s="6"/>
+      <c r="AA111" s="6"/>
+      <c r="AB111" s="6"/>
+      <c r="AC111" s="6"/>
       <c r="AD111" s="5"/>
       <c r="AE111" s="5"/>
       <c r="AF111" s="5"/>
@@ -7803,42 +7725,42 @@
       <c r="AH111" s="1"/>
       <c r="AI111" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="63">
+    <row x14ac:dyDescent="0.25" r="112" customHeight="1" ht="46.5">
       <c r="A112" s="1"/>
       <c r="B112" s="1"/>
-      <c r="C112" s="225" t="s">
+      <c r="C112" s="206" t="s">
         <v>107</v>
       </c>
-      <c r="D112" s="226"/>
-      <c r="E112" s="226"/>
-      <c r="F112" s="227"/>
-      <c r="G112" s="228" t="s">
+      <c r="D112" s="207"/>
+      <c r="E112" s="207"/>
+      <c r="F112" s="208"/>
+      <c r="G112" s="209" t="s">
         <v>108</v>
       </c>
-      <c r="H112" s="229"/>
-      <c r="I112" s="229"/>
-      <c r="J112" s="230"/>
-      <c r="K112" s="124" t="s">
+      <c r="H112" s="210"/>
+      <c r="I112" s="210"/>
+      <c r="J112" s="211"/>
+      <c r="K112" s="119" t="s">
         <v>109</v>
       </c>
-      <c r="L112" s="125"/>
-      <c r="M112" s="125"/>
-      <c r="N112" s="125"/>
-      <c r="O112" s="125"/>
-      <c r="P112" s="126"/>
-      <c r="Q112" s="231"/>
-      <c r="R112" s="232"/>
-      <c r="S112" s="232"/>
-      <c r="T112" s="232"/>
-      <c r="U112" s="232"/>
-      <c r="V112" s="233"/>
+      <c r="L112" s="120"/>
+      <c r="M112" s="120"/>
+      <c r="N112" s="120"/>
+      <c r="O112" s="120"/>
+      <c r="P112" s="121"/>
+      <c r="Q112" s="212"/>
+      <c r="R112" s="207"/>
+      <c r="S112" s="207"/>
+      <c r="T112" s="207"/>
+      <c r="U112" s="207"/>
+      <c r="V112" s="213"/>
       <c r="W112" s="1"/>
       <c r="X112" s="5"/>
       <c r="Y112" s="5"/>
-      <c r="Z112" s="1"/>
-      <c r="AA112" s="1"/>
-      <c r="AB112" s="1"/>
-      <c r="AC112" s="1"/>
+      <c r="Z112" s="6"/>
+      <c r="AA112" s="6"/>
+      <c r="AB112" s="6"/>
+      <c r="AC112" s="6"/>
       <c r="AD112" s="5"/>
       <c r="AE112" s="5"/>
       <c r="AF112" s="5"/>
@@ -7846,42 +7768,42 @@
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="63">
+    <row x14ac:dyDescent="0.25" r="113" customHeight="1" ht="47.25">
       <c r="A113" s="1"/>
       <c r="B113" s="1"/>
-      <c r="C113" s="234" t="s">
+      <c r="C113" s="214" t="s">
         <v>107</v>
       </c>
-      <c r="D113" s="235"/>
-      <c r="E113" s="235"/>
-      <c r="F113" s="236"/>
-      <c r="G113" s="237" t="s">
+      <c r="D113" s="215"/>
+      <c r="E113" s="215"/>
+      <c r="F113" s="216"/>
+      <c r="G113" s="217" t="s">
         <v>110</v>
       </c>
-      <c r="H113" s="238"/>
-      <c r="I113" s="238"/>
-      <c r="J113" s="239"/>
-      <c r="K113" s="240" t="s">
+      <c r="H113" s="218"/>
+      <c r="I113" s="218"/>
+      <c r="J113" s="219"/>
+      <c r="K113" s="220" t="s">
         <v>111</v>
       </c>
-      <c r="L113" s="241"/>
-      <c r="M113" s="241"/>
-      <c r="N113" s="241"/>
-      <c r="O113" s="241"/>
-      <c r="P113" s="242"/>
-      <c r="Q113" s="176"/>
-      <c r="R113" s="176"/>
-      <c r="S113" s="176"/>
-      <c r="T113" s="176"/>
-      <c r="U113" s="176"/>
-      <c r="V113" s="177"/>
+      <c r="L113" s="221"/>
+      <c r="M113" s="221"/>
+      <c r="N113" s="221"/>
+      <c r="O113" s="221"/>
+      <c r="P113" s="222"/>
+      <c r="Q113" s="167"/>
+      <c r="R113" s="167"/>
+      <c r="S113" s="167"/>
+      <c r="T113" s="167"/>
+      <c r="U113" s="167"/>
+      <c r="V113" s="168"/>
       <c r="W113" s="1"/>
       <c r="X113" s="5"/>
       <c r="Y113" s="5"/>
-      <c r="Z113" s="1"/>
-      <c r="AA113" s="1"/>
-      <c r="AB113" s="1"/>
-      <c r="AC113" s="1"/>
+      <c r="Z113" s="6"/>
+      <c r="AA113" s="6"/>
+      <c r="AB113" s="6"/>
+      <c r="AC113" s="6"/>
       <c r="AD113" s="5"/>
       <c r="AE113" s="5"/>
       <c r="AF113" s="5"/>
@@ -7889,7 +7811,7 @@
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="114" customHeight="1" ht="19.5">
       <c r="A114" s="1"/>
       <c r="B114" s="1"/>
       <c r="C114" s="58"/>
@@ -7915,10 +7837,10 @@
       <c r="W114" s="1"/>
       <c r="X114" s="5"/>
       <c r="Y114" s="5"/>
-      <c r="Z114" s="1"/>
-      <c r="AA114" s="1"/>
-      <c r="AB114" s="1"/>
-      <c r="AC114" s="1"/>
+      <c r="Z114" s="6"/>
+      <c r="AA114" s="6"/>
+      <c r="AB114" s="6"/>
+      <c r="AC114" s="6"/>
       <c r="AD114" s="5"/>
       <c r="AE114" s="5"/>
       <c r="AF114" s="5"/>
@@ -7952,10 +7874,10 @@
       <c r="W115" s="1"/>
       <c r="X115" s="5"/>
       <c r="Y115" s="5"/>
-      <c r="Z115" s="1"/>
-      <c r="AA115" s="1"/>
-      <c r="AB115" s="1"/>
-      <c r="AC115" s="1"/>
+      <c r="Z115" s="6"/>
+      <c r="AA115" s="6"/>
+      <c r="AB115" s="6"/>
+      <c r="AC115" s="6"/>
       <c r="AD115" s="5"/>
       <c r="AE115" s="5"/>
       <c r="AF115" s="5"/>
@@ -7989,10 +7911,10 @@
       <c r="W116" s="1"/>
       <c r="X116" s="5"/>
       <c r="Y116" s="5"/>
-      <c r="Z116" s="1"/>
-      <c r="AA116" s="1"/>
-      <c r="AB116" s="1"/>
-      <c r="AC116" s="1"/>
+      <c r="Z116" s="6"/>
+      <c r="AA116" s="6"/>
+      <c r="AB116" s="6"/>
+      <c r="AC116" s="6"/>
       <c r="AD116" s="5"/>
       <c r="AE116" s="5"/>
       <c r="AF116" s="5"/>
@@ -8026,10 +7948,10 @@
       <c r="W117" s="1"/>
       <c r="X117" s="5"/>
       <c r="Y117" s="5"/>
-      <c r="Z117" s="1"/>
-      <c r="AA117" s="1"/>
-      <c r="AB117" s="1"/>
-      <c r="AC117" s="1"/>
+      <c r="Z117" s="6"/>
+      <c r="AA117" s="6"/>
+      <c r="AB117" s="6"/>
+      <c r="AC117" s="6"/>
       <c r="AD117" s="5"/>
       <c r="AE117" s="5"/>
       <c r="AF117" s="5"/>
@@ -8037,31 +7959,31 @@
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="22.5" customFormat="1" s="12">
+    <row x14ac:dyDescent="0.25" r="118" customHeight="1" ht="18.75" customFormat="1" s="13">
       <c r="A118" s="5"/>
       <c r="B118" s="5"/>
-      <c r="C118" s="190" t="s">
+      <c r="C118" s="179" t="s">
         <v>112</v>
       </c>
-      <c r="D118" s="243"/>
-      <c r="E118" s="243"/>
-      <c r="F118" s="243"/>
-      <c r="G118" s="243"/>
-      <c r="H118" s="243"/>
-      <c r="I118" s="243"/>
-      <c r="J118" s="243"/>
-      <c r="K118" s="243"/>
-      <c r="L118" s="243"/>
-      <c r="M118" s="243"/>
-      <c r="N118" s="243"/>
-      <c r="O118" s="243"/>
-      <c r="P118" s="243"/>
-      <c r="Q118" s="243"/>
-      <c r="R118" s="243"/>
-      <c r="S118" s="243"/>
-      <c r="T118" s="243"/>
-      <c r="U118" s="243"/>
-      <c r="V118" s="244"/>
+      <c r="D118" s="223"/>
+      <c r="E118" s="223"/>
+      <c r="F118" s="223"/>
+      <c r="G118" s="223"/>
+      <c r="H118" s="223"/>
+      <c r="I118" s="223"/>
+      <c r="J118" s="223"/>
+      <c r="K118" s="223"/>
+      <c r="L118" s="223"/>
+      <c r="M118" s="223"/>
+      <c r="N118" s="223"/>
+      <c r="O118" s="223"/>
+      <c r="P118" s="223"/>
+      <c r="Q118" s="223"/>
+      <c r="R118" s="223"/>
+      <c r="S118" s="223"/>
+      <c r="T118" s="223"/>
+      <c r="U118" s="223"/>
+      <c r="V118" s="224"/>
       <c r="W118" s="5"/>
       <c r="X118" s="5"/>
       <c r="Y118" s="5"/>
@@ -8076,37 +7998,37 @@
       <c r="AH118" s="5"/>
       <c r="AI118" s="5"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="12">
+    <row x14ac:dyDescent="0.25" r="119" customHeight="1" ht="18.75" customFormat="1" s="13">
       <c r="A119" s="5"/>
       <c r="B119" s="5"/>
-      <c r="C119" s="245"/>
-      <c r="D119" s="246"/>
-      <c r="E119" s="246"/>
-      <c r="F119" s="246"/>
-      <c r="G119" s="246"/>
-      <c r="H119" s="246"/>
-      <c r="I119" s="246"/>
-      <c r="J119" s="246"/>
-      <c r="K119" s="246"/>
-      <c r="L119" s="246"/>
-      <c r="M119" s="246"/>
-      <c r="N119" s="246"/>
-      <c r="O119" s="246"/>
-      <c r="P119" s="246"/>
-      <c r="Q119" s="246"/>
-      <c r="R119" s="246"/>
-      <c r="S119" s="246"/>
-      <c r="T119" s="246"/>
-      <c r="U119" s="246"/>
-      <c r="V119" s="247"/>
+      <c r="C119" s="225"/>
+      <c r="D119" s="226"/>
+      <c r="E119" s="226"/>
+      <c r="F119" s="226"/>
+      <c r="G119" s="226"/>
+      <c r="H119" s="226"/>
+      <c r="I119" s="226"/>
+      <c r="J119" s="226"/>
+      <c r="K119" s="226"/>
+      <c r="L119" s="226"/>
+      <c r="M119" s="226"/>
+      <c r="N119" s="226"/>
+      <c r="O119" s="226"/>
+      <c r="P119" s="226"/>
+      <c r="Q119" s="226"/>
+      <c r="R119" s="226"/>
+      <c r="S119" s="226"/>
+      <c r="T119" s="226"/>
+      <c r="U119" s="226"/>
+      <c r="V119" s="227"/>
       <c r="W119" s="5"/>
-      <c r="X119" s="248" t="s">
+      <c r="X119" s="228" t="s">
         <v>113</v>
       </c>
-      <c r="Y119" s="249"/>
-      <c r="Z119" s="249"/>
-      <c r="AA119" s="249"/>
-      <c r="AB119" s="250"/>
+      <c r="Y119" s="229"/>
+      <c r="Z119" s="229"/>
+      <c r="AA119" s="229"/>
+      <c r="AB119" s="230"/>
       <c r="AC119" s="5"/>
       <c r="AD119" s="5"/>
       <c r="AE119" s="5"/>
@@ -8143,12 +8065,12 @@
       <c r="U120" s="99"/>
       <c r="V120" s="100"/>
       <c r="W120" s="1"/>
-      <c r="X120" s="251"/>
-      <c r="Y120" s="252"/>
-      <c r="Z120" s="252"/>
-      <c r="AA120" s="252"/>
-      <c r="AB120" s="253"/>
-      <c r="AC120" s="1"/>
+      <c r="X120" s="231"/>
+      <c r="Y120" s="232"/>
+      <c r="Z120" s="232"/>
+      <c r="AA120" s="232"/>
+      <c r="AB120" s="233"/>
+      <c r="AC120" s="6"/>
       <c r="AD120" s="5"/>
       <c r="AE120" s="5"/>
       <c r="AF120" s="5"/>
@@ -8180,12 +8102,12 @@
       <c r="U121" s="53"/>
       <c r="V121" s="102"/>
       <c r="W121" s="1"/>
-      <c r="X121" s="251"/>
-      <c r="Y121" s="252"/>
-      <c r="Z121" s="252"/>
-      <c r="AA121" s="252"/>
-      <c r="AB121" s="253"/>
-      <c r="AC121" s="1"/>
+      <c r="X121" s="231"/>
+      <c r="Y121" s="232"/>
+      <c r="Z121" s="232"/>
+      <c r="AA121" s="232"/>
+      <c r="AB121" s="233"/>
+      <c r="AC121" s="6"/>
       <c r="AD121" s="5"/>
       <c r="AE121" s="5"/>
       <c r="AF121" s="5"/>
@@ -8208,29 +8130,29 @@
       <c r="H122" s="99"/>
       <c r="I122" s="99"/>
       <c r="J122" s="100"/>
-      <c r="K122" s="107" t="s">
+      <c r="K122" s="104" t="s">
         <v>23</v>
       </c>
-      <c r="L122" s="108"/>
-      <c r="M122" s="108"/>
-      <c r="N122" s="108"/>
-      <c r="O122" s="108"/>
-      <c r="P122" s="109"/>
-      <c r="Q122" s="107" t="s">
+      <c r="L122" s="105"/>
+      <c r="M122" s="105"/>
+      <c r="N122" s="105"/>
+      <c r="O122" s="105"/>
+      <c r="P122" s="106"/>
+      <c r="Q122" s="104" t="s">
         <v>24</v>
       </c>
-      <c r="R122" s="108"/>
-      <c r="S122" s="108"/>
-      <c r="T122" s="108"/>
-      <c r="U122" s="108"/>
-      <c r="V122" s="109"/>
+      <c r="R122" s="105"/>
+      <c r="S122" s="105"/>
+      <c r="T122" s="105"/>
+      <c r="U122" s="105"/>
+      <c r="V122" s="106"/>
       <c r="W122" s="1"/>
-      <c r="X122" s="251"/>
-      <c r="Y122" s="252"/>
-      <c r="Z122" s="252"/>
-      <c r="AA122" s="252"/>
-      <c r="AB122" s="253"/>
-      <c r="AC122" s="1"/>
+      <c r="X122" s="231"/>
+      <c r="Y122" s="232"/>
+      <c r="Z122" s="232"/>
+      <c r="AA122" s="232"/>
+      <c r="AB122" s="233"/>
+      <c r="AC122" s="6"/>
       <c r="AD122" s="5"/>
       <c r="AE122" s="5"/>
       <c r="AF122" s="5"/>
@@ -8249,25 +8171,25 @@
       <c r="H123" s="53"/>
       <c r="I123" s="53"/>
       <c r="J123" s="102"/>
-      <c r="K123" s="254"/>
-      <c r="L123" s="255"/>
-      <c r="M123" s="255"/>
-      <c r="N123" s="255"/>
-      <c r="O123" s="255"/>
-      <c r="P123" s="256"/>
-      <c r="Q123" s="254"/>
-      <c r="R123" s="255"/>
-      <c r="S123" s="255"/>
-      <c r="T123" s="255"/>
-      <c r="U123" s="255"/>
-      <c r="V123" s="256"/>
+      <c r="K123" s="234"/>
+      <c r="L123" s="235"/>
+      <c r="M123" s="235"/>
+      <c r="N123" s="235"/>
+      <c r="O123" s="235"/>
+      <c r="P123" s="236"/>
+      <c r="Q123" s="234"/>
+      <c r="R123" s="235"/>
+      <c r="S123" s="235"/>
+      <c r="T123" s="235"/>
+      <c r="U123" s="235"/>
+      <c r="V123" s="236"/>
       <c r="W123" s="1"/>
-      <c r="X123" s="251"/>
-      <c r="Y123" s="252"/>
-      <c r="Z123" s="252"/>
-      <c r="AA123" s="252"/>
-      <c r="AB123" s="253"/>
-      <c r="AC123" s="1"/>
+      <c r="X123" s="231"/>
+      <c r="Y123" s="232"/>
+      <c r="Z123" s="232"/>
+      <c r="AA123" s="232"/>
+      <c r="AB123" s="233"/>
+      <c r="AC123" s="6"/>
       <c r="AD123" s="5"/>
       <c r="AE123" s="5"/>
       <c r="AF123" s="5"/>
@@ -8283,13 +8205,13 @@
       </c>
       <c r="D124" s="90"/>
       <c r="E124" s="90"/>
-      <c r="F124" s="257"/>
-      <c r="G124" s="258" t="s">
+      <c r="F124" s="237"/>
+      <c r="G124" s="238" t="s">
         <v>119</v>
       </c>
       <c r="H124" s="90"/>
       <c r="I124" s="90"/>
-      <c r="J124" s="257"/>
+      <c r="J124" s="237"/>
       <c r="K124" s="28" t="s">
         <v>120</v>
       </c>
@@ -8297,8 +8219,8 @@
       <c r="M124" s="29"/>
       <c r="N124" s="29"/>
       <c r="O124" s="29"/>
-      <c r="P124" s="259"/>
-      <c r="Q124" s="260" t="s">
+      <c r="P124" s="239"/>
+      <c r="Q124" s="240" t="s">
         <v>28</v>
       </c>
       <c r="R124" s="80"/>
@@ -8307,12 +8229,12 @@
       <c r="U124" s="80"/>
       <c r="V124" s="81"/>
       <c r="W124" s="1"/>
-      <c r="X124" s="251"/>
-      <c r="Y124" s="252"/>
-      <c r="Z124" s="252"/>
-      <c r="AA124" s="252"/>
-      <c r="AB124" s="253"/>
-      <c r="AC124" s="1"/>
+      <c r="X124" s="231"/>
+      <c r="Y124" s="232"/>
+      <c r="Z124" s="232"/>
+      <c r="AA124" s="232"/>
+      <c r="AB124" s="233"/>
+      <c r="AC124" s="6"/>
       <c r="AD124" s="5"/>
       <c r="AE124" s="5"/>
       <c r="AF124" s="5"/>
@@ -8326,30 +8248,30 @@
       <c r="C125" s="76"/>
       <c r="D125" s="56"/>
       <c r="E125" s="56"/>
-      <c r="F125" s="261"/>
+      <c r="F125" s="241"/>
       <c r="G125" s="55"/>
       <c r="H125" s="56"/>
       <c r="I125" s="56"/>
-      <c r="J125" s="261"/>
-      <c r="K125" s="262"/>
+      <c r="J125" s="241"/>
+      <c r="K125" s="242"/>
       <c r="L125" s="78"/>
       <c r="M125" s="78"/>
       <c r="N125" s="78"/>
       <c r="O125" s="78"/>
-      <c r="P125" s="263"/>
-      <c r="Q125" s="264"/>
+      <c r="P125" s="243"/>
+      <c r="Q125" s="244"/>
       <c r="R125" s="83"/>
       <c r="S125" s="83"/>
       <c r="T125" s="83"/>
       <c r="U125" s="83"/>
       <c r="V125" s="84"/>
       <c r="W125" s="1"/>
-      <c r="X125" s="251"/>
-      <c r="Y125" s="252"/>
-      <c r="Z125" s="252"/>
-      <c r="AA125" s="252"/>
-      <c r="AB125" s="253"/>
-      <c r="AC125" s="1"/>
+      <c r="X125" s="231"/>
+      <c r="Y125" s="232"/>
+      <c r="Z125" s="232"/>
+      <c r="AA125" s="232"/>
+      <c r="AB125" s="233"/>
+      <c r="AC125" s="6"/>
       <c r="AD125" s="5"/>
       <c r="AE125" s="5"/>
       <c r="AF125" s="5"/>
@@ -8357,7 +8279,7 @@
       <c r="AH125" s="1"/>
       <c r="AI125" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="126" customHeight="1" ht="18.75">
       <c r="A126" s="1"/>
       <c r="B126" s="1"/>
       <c r="C126" s="73" t="s">
@@ -8365,20 +8287,20 @@
       </c>
       <c r="D126" s="90"/>
       <c r="E126" s="90"/>
-      <c r="F126" s="257"/>
-      <c r="G126" s="258" t="s">
+      <c r="F126" s="237"/>
+      <c r="G126" s="238" t="s">
         <v>122</v>
       </c>
       <c r="H126" s="90"/>
       <c r="I126" s="90"/>
-      <c r="J126" s="257"/>
+      <c r="J126" s="237"/>
       <c r="K126" s="28"/>
       <c r="L126" s="29"/>
       <c r="M126" s="29"/>
       <c r="N126" s="29"/>
       <c r="O126" s="29"/>
-      <c r="P126" s="259"/>
-      <c r="Q126" s="260" t="s">
+      <c r="P126" s="239"/>
+      <c r="Q126" s="240" t="s">
         <v>28</v>
       </c>
       <c r="R126" s="80"/>
@@ -8389,10 +8311,10 @@
       <c r="W126" s="1"/>
       <c r="X126" s="5"/>
       <c r="Y126" s="5"/>
-      <c r="Z126" s="1"/>
-      <c r="AA126" s="1"/>
-      <c r="AB126" s="1"/>
-      <c r="AC126" s="1"/>
+      <c r="Z126" s="6"/>
+      <c r="AA126" s="6"/>
+      <c r="AB126" s="6"/>
+      <c r="AC126" s="6"/>
       <c r="AD126" s="5"/>
       <c r="AE126" s="5"/>
       <c r="AF126" s="5"/>
@@ -8400,24 +8322,24 @@
       <c r="AH126" s="1"/>
       <c r="AI126" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="23.25">
+    <row x14ac:dyDescent="0.25" r="127" customHeight="1" ht="18.75">
       <c r="A127" s="1"/>
       <c r="B127" s="1"/>
       <c r="C127" s="76"/>
       <c r="D127" s="56"/>
       <c r="E127" s="56"/>
-      <c r="F127" s="261"/>
+      <c r="F127" s="241"/>
       <c r="G127" s="55"/>
       <c r="H127" s="56"/>
       <c r="I127" s="56"/>
-      <c r="J127" s="261"/>
-      <c r="K127" s="262"/>
+      <c r="J127" s="241"/>
+      <c r="K127" s="242"/>
       <c r="L127" s="78"/>
       <c r="M127" s="78"/>
       <c r="N127" s="78"/>
       <c r="O127" s="78"/>
-      <c r="P127" s="263"/>
-      <c r="Q127" s="264"/>
+      <c r="P127" s="243"/>
+      <c r="Q127" s="244"/>
       <c r="R127" s="83"/>
       <c r="S127" s="83"/>
       <c r="T127" s="83"/>
@@ -8426,10 +8348,10 @@
       <c r="W127" s="1"/>
       <c r="X127" s="5"/>
       <c r="Y127" s="5"/>
-      <c r="Z127" s="1"/>
-      <c r="AA127" s="1"/>
-      <c r="AB127" s="1"/>
-      <c r="AC127" s="1"/>
+      <c r="Z127" s="6"/>
+      <c r="AA127" s="6"/>
+      <c r="AB127" s="6"/>
+      <c r="AC127" s="6"/>
       <c r="AD127" s="5"/>
       <c r="AE127" s="5"/>
       <c r="AF127" s="5"/>
@@ -8437,7 +8359,7 @@
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
     </row>
-    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="33.75">
+    <row x14ac:dyDescent="0.25" r="128" customHeight="1" ht="18.75">
       <c r="A128" s="1"/>
       <c r="B128" s="1"/>
       <c r="C128" s="73">
@@ -8445,13 +8367,13 @@
       </c>
       <c r="D128" s="90"/>
       <c r="E128" s="90"/>
-      <c r="F128" s="257"/>
-      <c r="G128" s="265" t="s">
+      <c r="F128" s="237"/>
+      <c r="G128" s="195" t="s">
         <v>123</v>
       </c>
-      <c r="H128" s="266"/>
-      <c r="I128" s="266"/>
-      <c r="J128" s="266"/>
+      <c r="H128" s="196"/>
+      <c r="I128" s="196"/>
+      <c r="J128" s="196"/>
       <c r="K128" s="28" t="s">
         <v>124</v>
       </c>
@@ -8459,8 +8381,8 @@
       <c r="M128" s="29"/>
       <c r="N128" s="29"/>
       <c r="O128" s="29"/>
-      <c r="P128" s="259"/>
-      <c r="Q128" s="260" t="s">
+      <c r="P128" s="239"/>
+      <c r="Q128" s="240" t="s">
         <v>28</v>
       </c>
       <c r="R128" s="80"/>
@@ -8471,10 +8393,10 @@
       <c r="W128" s="1"/>
       <c r="X128" s="5"/>
       <c r="Y128" s="5"/>
-      <c r="Z128" s="1"/>
-      <c r="AA128" s="1"/>
-      <c r="AB128" s="1"/>
-      <c r="AC128" s="1"/>
+      <c r="Z128" s="6"/>
+      <c r="AA128" s="6"/>
+      <c r="AB128" s="6"/>
+      <c r="AC128" s="6"/>
       <c r="AD128" s="5"/>
       <c r="AE128" s="5"/>
       <c r="AF128" s="5"/>
@@ -8485,33 +8407,33 @@
     <row x14ac:dyDescent="0.25" r="129" customHeight="1" ht="33.75">
       <c r="A129" s="1"/>
       <c r="B129" s="1"/>
-      <c r="C129" s="267"/>
+      <c r="C129" s="245"/>
       <c r="D129" s="96"/>
       <c r="E129" s="96"/>
-      <c r="F129" s="268"/>
-      <c r="G129" s="269"/>
-      <c r="H129" s="270"/>
-      <c r="I129" s="270"/>
-      <c r="J129" s="270"/>
+      <c r="F129" s="246"/>
+      <c r="G129" s="200"/>
+      <c r="H129" s="201"/>
+      <c r="I129" s="201"/>
+      <c r="J129" s="201"/>
       <c r="K129" s="40"/>
       <c r="L129" s="41"/>
       <c r="M129" s="41"/>
       <c r="N129" s="41"/>
       <c r="O129" s="41"/>
-      <c r="P129" s="271"/>
-      <c r="Q129" s="272"/>
-      <c r="R129" s="273"/>
-      <c r="S129" s="273"/>
-      <c r="T129" s="273"/>
-      <c r="U129" s="273"/>
-      <c r="V129" s="274"/>
+      <c r="P129" s="247"/>
+      <c r="Q129" s="248"/>
+      <c r="R129" s="249"/>
+      <c r="S129" s="249"/>
+      <c r="T129" s="249"/>
+      <c r="U129" s="249"/>
+      <c r="V129" s="250"/>
       <c r="W129" s="1"/>
       <c r="X129" s="5"/>
       <c r="Y129" s="5"/>
-      <c r="Z129" s="1"/>
-      <c r="AA129" s="1"/>
-      <c r="AB129" s="1"/>
-      <c r="AC129" s="1"/>
+      <c r="Z129" s="6"/>
+      <c r="AA129" s="6"/>
+      <c r="AB129" s="6"/>
+      <c r="AC129" s="6"/>
       <c r="AD129" s="5"/>
       <c r="AE129" s="5"/>
       <c r="AF129" s="5"/>
@@ -8522,37 +8444,37 @@
     <row x14ac:dyDescent="0.25" r="130" customHeight="1" ht="26.25">
       <c r="A130" s="1"/>
       <c r="B130" s="1"/>
-      <c r="C130" s="267"/>
+      <c r="C130" s="245"/>
       <c r="D130" s="96"/>
       <c r="E130" s="96"/>
-      <c r="F130" s="268"/>
-      <c r="G130" s="269"/>
-      <c r="H130" s="270"/>
-      <c r="I130" s="270"/>
-      <c r="J130" s="270"/>
-      <c r="K130" s="275" t="s">
+      <c r="F130" s="246"/>
+      <c r="G130" s="200"/>
+      <c r="H130" s="201"/>
+      <c r="I130" s="201"/>
+      <c r="J130" s="201"/>
+      <c r="K130" s="251" t="s">
         <v>125</v>
       </c>
-      <c r="L130" s="276"/>
-      <c r="M130" s="276"/>
-      <c r="N130" s="276"/>
-      <c r="O130" s="276"/>
-      <c r="P130" s="277"/>
-      <c r="Q130" s="278" t="s">
+      <c r="L130" s="252"/>
+      <c r="M130" s="252"/>
+      <c r="N130" s="252"/>
+      <c r="O130" s="252"/>
+      <c r="P130" s="253"/>
+      <c r="Q130" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="R130" s="128"/>
-      <c r="S130" s="128"/>
-      <c r="T130" s="128"/>
-      <c r="U130" s="128"/>
-      <c r="V130" s="136"/>
+      <c r="R130" s="123"/>
+      <c r="S130" s="123"/>
+      <c r="T130" s="123"/>
+      <c r="U130" s="123"/>
+      <c r="V130" s="131"/>
       <c r="W130" s="1"/>
       <c r="X130" s="5"/>
       <c r="Y130" s="5"/>
-      <c r="Z130" s="1"/>
-      <c r="AA130" s="1"/>
-      <c r="AB130" s="1"/>
-      <c r="AC130" s="1"/>
+      <c r="Z130" s="6"/>
+      <c r="AA130" s="6"/>
+      <c r="AB130" s="6"/>
+      <c r="AC130" s="6"/>
       <c r="AD130" s="5"/>
       <c r="AE130" s="5"/>
       <c r="AF130" s="5"/>
@@ -8563,21 +8485,21 @@
     <row x14ac:dyDescent="0.25" r="131" customHeight="1" ht="24">
       <c r="A131" s="1"/>
       <c r="B131" s="1"/>
-      <c r="C131" s="267"/>
+      <c r="C131" s="245"/>
       <c r="D131" s="96"/>
       <c r="E131" s="96"/>
-      <c r="F131" s="268"/>
-      <c r="G131" s="269"/>
-      <c r="H131" s="270"/>
-      <c r="I131" s="270"/>
-      <c r="J131" s="270"/>
+      <c r="F131" s="246"/>
+      <c r="G131" s="200"/>
+      <c r="H131" s="201"/>
+      <c r="I131" s="201"/>
+      <c r="J131" s="201"/>
       <c r="K131" s="34"/>
       <c r="L131" s="35"/>
       <c r="M131" s="35"/>
       <c r="N131" s="35"/>
       <c r="O131" s="35"/>
-      <c r="P131" s="279"/>
-      <c r="Q131" s="264"/>
+      <c r="P131" s="255"/>
+      <c r="Q131" s="244"/>
       <c r="R131" s="83"/>
       <c r="S131" s="83"/>
       <c r="T131" s="83"/>
@@ -8586,10 +8508,10 @@
       <c r="W131" s="1"/>
       <c r="X131" s="5"/>
       <c r="Y131" s="5"/>
-      <c r="Z131" s="1"/>
-      <c r="AA131" s="1"/>
-      <c r="AB131" s="1"/>
-      <c r="AC131" s="1"/>
+      <c r="Z131" s="6"/>
+      <c r="AA131" s="6"/>
+      <c r="AB131" s="6"/>
+      <c r="AC131" s="6"/>
       <c r="AD131" s="5"/>
       <c r="AE131" s="5"/>
       <c r="AF131" s="5"/>
@@ -8605,13 +8527,13 @@
       </c>
       <c r="D132" s="90"/>
       <c r="E132" s="90"/>
-      <c r="F132" s="257"/>
-      <c r="G132" s="265" t="s">
+      <c r="F132" s="237"/>
+      <c r="G132" s="195" t="s">
         <v>126</v>
       </c>
-      <c r="H132" s="266"/>
-      <c r="I132" s="266"/>
-      <c r="J132" s="280"/>
+      <c r="H132" s="196"/>
+      <c r="I132" s="196"/>
+      <c r="J132" s="197"/>
       <c r="K132" s="28" t="s">
         <v>127</v>
       </c>
@@ -8619,8 +8541,8 @@
       <c r="M132" s="29"/>
       <c r="N132" s="29"/>
       <c r="O132" s="29"/>
-      <c r="P132" s="259"/>
-      <c r="Q132" s="260" t="s">
+      <c r="P132" s="239"/>
+      <c r="Q132" s="240" t="s">
         <v>28</v>
       </c>
       <c r="R132" s="80"/>
@@ -8631,10 +8553,10 @@
       <c r="W132" s="1"/>
       <c r="X132" s="5"/>
       <c r="Y132" s="5"/>
-      <c r="Z132" s="1"/>
-      <c r="AA132" s="1"/>
-      <c r="AB132" s="1"/>
-      <c r="AC132" s="1"/>
+      <c r="Z132" s="6"/>
+      <c r="AA132" s="6"/>
+      <c r="AB132" s="6"/>
+      <c r="AC132" s="6"/>
       <c r="AD132" s="5"/>
       <c r="AE132" s="5"/>
       <c r="AF132" s="5"/>
@@ -8645,33 +8567,33 @@
     <row x14ac:dyDescent="0.25" r="133" customHeight="1" ht="28.5">
       <c r="A133" s="1"/>
       <c r="B133" s="1"/>
-      <c r="C133" s="267"/>
+      <c r="C133" s="245"/>
       <c r="D133" s="96"/>
       <c r="E133" s="96"/>
-      <c r="F133" s="268"/>
-      <c r="G133" s="269"/>
-      <c r="H133" s="270"/>
-      <c r="I133" s="270"/>
-      <c r="J133" s="281"/>
+      <c r="F133" s="246"/>
+      <c r="G133" s="200"/>
+      <c r="H133" s="201"/>
+      <c r="I133" s="201"/>
+      <c r="J133" s="202"/>
       <c r="K133" s="40"/>
       <c r="L133" s="41"/>
       <c r="M133" s="41"/>
       <c r="N133" s="41"/>
       <c r="O133" s="41"/>
-      <c r="P133" s="271"/>
-      <c r="Q133" s="272"/>
-      <c r="R133" s="273"/>
-      <c r="S133" s="273"/>
-      <c r="T133" s="273"/>
-      <c r="U133" s="273"/>
-      <c r="V133" s="274"/>
+      <c r="P133" s="247"/>
+      <c r="Q133" s="248"/>
+      <c r="R133" s="249"/>
+      <c r="S133" s="249"/>
+      <c r="T133" s="249"/>
+      <c r="U133" s="249"/>
+      <c r="V133" s="250"/>
       <c r="W133" s="1"/>
       <c r="X133" s="5"/>
       <c r="Y133" s="5"/>
-      <c r="Z133" s="1"/>
-      <c r="AA133" s="1"/>
-      <c r="AB133" s="1"/>
-      <c r="AC133" s="1"/>
+      <c r="Z133" s="6"/>
+      <c r="AA133" s="6"/>
+      <c r="AB133" s="6"/>
+      <c r="AC133" s="6"/>
       <c r="AD133" s="5"/>
       <c r="AE133" s="5"/>
       <c r="AF133" s="5"/>
@@ -8682,37 +8604,37 @@
     <row x14ac:dyDescent="0.25" r="134" customHeight="1" ht="33.75">
       <c r="A134" s="1"/>
       <c r="B134" s="1"/>
-      <c r="C134" s="267"/>
+      <c r="C134" s="245"/>
       <c r="D134" s="96"/>
       <c r="E134" s="96"/>
-      <c r="F134" s="268"/>
-      <c r="G134" s="269"/>
-      <c r="H134" s="270"/>
-      <c r="I134" s="270"/>
-      <c r="J134" s="281"/>
-      <c r="K134" s="275" t="s">
+      <c r="F134" s="246"/>
+      <c r="G134" s="200"/>
+      <c r="H134" s="201"/>
+      <c r="I134" s="201"/>
+      <c r="J134" s="202"/>
+      <c r="K134" s="251" t="s">
         <v>128</v>
       </c>
-      <c r="L134" s="276"/>
-      <c r="M134" s="276"/>
-      <c r="N134" s="276"/>
-      <c r="O134" s="276"/>
-      <c r="P134" s="277"/>
-      <c r="Q134" s="278" t="s">
+      <c r="L134" s="252"/>
+      <c r="M134" s="252"/>
+      <c r="N134" s="252"/>
+      <c r="O134" s="252"/>
+      <c r="P134" s="253"/>
+      <c r="Q134" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="R134" s="128"/>
-      <c r="S134" s="128"/>
-      <c r="T134" s="128"/>
-      <c r="U134" s="128"/>
-      <c r="V134" s="136"/>
+      <c r="R134" s="123"/>
+      <c r="S134" s="123"/>
+      <c r="T134" s="123"/>
+      <c r="U134" s="123"/>
+      <c r="V134" s="131"/>
       <c r="W134" s="1"/>
       <c r="X134" s="5"/>
       <c r="Y134" s="5"/>
-      <c r="Z134" s="1"/>
-      <c r="AA134" s="1"/>
-      <c r="AB134" s="1"/>
-      <c r="AC134" s="1"/>
+      <c r="Z134" s="6"/>
+      <c r="AA134" s="6"/>
+      <c r="AB134" s="6"/>
+      <c r="AC134" s="6"/>
       <c r="AD134" s="5"/>
       <c r="AE134" s="5"/>
       <c r="AF134" s="5"/>
@@ -8726,18 +8648,18 @@
       <c r="C135" s="76"/>
       <c r="D135" s="56"/>
       <c r="E135" s="56"/>
-      <c r="F135" s="261"/>
-      <c r="G135" s="282"/>
-      <c r="H135" s="283"/>
-      <c r="I135" s="283"/>
-      <c r="J135" s="284"/>
-      <c r="K135" s="262"/>
+      <c r="F135" s="241"/>
+      <c r="G135" s="256"/>
+      <c r="H135" s="257"/>
+      <c r="I135" s="257"/>
+      <c r="J135" s="258"/>
+      <c r="K135" s="242"/>
       <c r="L135" s="78"/>
       <c r="M135" s="78"/>
       <c r="N135" s="78"/>
       <c r="O135" s="78"/>
-      <c r="P135" s="263"/>
-      <c r="Q135" s="264"/>
+      <c r="P135" s="243"/>
+      <c r="Q135" s="244"/>
       <c r="R135" s="83"/>
       <c r="S135" s="83"/>
       <c r="T135" s="83"/>
@@ -8746,10 +8668,10 @@
       <c r="W135" s="1"/>
       <c r="X135" s="5"/>
       <c r="Y135" s="5"/>
-      <c r="Z135" s="1"/>
-      <c r="AA135" s="1"/>
-      <c r="AB135" s="1"/>
-      <c r="AC135" s="1"/>
+      <c r="Z135" s="6"/>
+      <c r="AA135" s="6"/>
+      <c r="AB135" s="6"/>
+      <c r="AC135" s="6"/>
       <c r="AD135" s="5"/>
       <c r="AE135" s="5"/>
       <c r="AF135" s="5"/>
@@ -8765,13 +8687,13 @@
       </c>
       <c r="D136" s="90"/>
       <c r="E136" s="90"/>
-      <c r="F136" s="257"/>
-      <c r="G136" s="265" t="s">
+      <c r="F136" s="237"/>
+      <c r="G136" s="195" t="s">
         <v>129</v>
       </c>
-      <c r="H136" s="266"/>
-      <c r="I136" s="266"/>
-      <c r="J136" s="280"/>
+      <c r="H136" s="196"/>
+      <c r="I136" s="196"/>
+      <c r="J136" s="197"/>
       <c r="K136" s="28" t="s">
         <v>130</v>
       </c>
@@ -8779,8 +8701,8 @@
       <c r="M136" s="29"/>
       <c r="N136" s="29"/>
       <c r="O136" s="29"/>
-      <c r="P136" s="259"/>
-      <c r="Q136" s="260" t="s">
+      <c r="P136" s="239"/>
+      <c r="Q136" s="240" t="s">
         <v>28</v>
       </c>
       <c r="R136" s="80"/>
@@ -8791,10 +8713,10 @@
       <c r="W136" s="1"/>
       <c r="X136" s="5"/>
       <c r="Y136" s="5"/>
-      <c r="Z136" s="1"/>
-      <c r="AA136" s="1"/>
-      <c r="AB136" s="1"/>
-      <c r="AC136" s="1"/>
+      <c r="Z136" s="6"/>
+      <c r="AA136" s="6"/>
+      <c r="AB136" s="6"/>
+      <c r="AC136" s="6"/>
       <c r="AD136" s="5"/>
       <c r="AE136" s="5"/>
       <c r="AF136" s="5"/>
@@ -8805,33 +8727,33 @@
     <row x14ac:dyDescent="0.25" r="137" customHeight="1" ht="36">
       <c r="A137" s="1"/>
       <c r="B137" s="1"/>
-      <c r="C137" s="267"/>
+      <c r="C137" s="245"/>
       <c r="D137" s="96"/>
       <c r="E137" s="96"/>
-      <c r="F137" s="268"/>
-      <c r="G137" s="269"/>
-      <c r="H137" s="270"/>
-      <c r="I137" s="270"/>
-      <c r="J137" s="281"/>
+      <c r="F137" s="246"/>
+      <c r="G137" s="200"/>
+      <c r="H137" s="201"/>
+      <c r="I137" s="201"/>
+      <c r="J137" s="202"/>
       <c r="K137" s="40"/>
       <c r="L137" s="41"/>
       <c r="M137" s="41"/>
       <c r="N137" s="41"/>
       <c r="O137" s="41"/>
-      <c r="P137" s="271"/>
-      <c r="Q137" s="272"/>
-      <c r="R137" s="273"/>
-      <c r="S137" s="273"/>
-      <c r="T137" s="273"/>
-      <c r="U137" s="273"/>
-      <c r="V137" s="274"/>
+      <c r="P137" s="247"/>
+      <c r="Q137" s="248"/>
+      <c r="R137" s="249"/>
+      <c r="S137" s="249"/>
+      <c r="T137" s="249"/>
+      <c r="U137" s="249"/>
+      <c r="V137" s="250"/>
       <c r="W137" s="1"/>
       <c r="X137" s="5"/>
       <c r="Y137" s="5"/>
-      <c r="Z137" s="1"/>
-      <c r="AA137" s="1"/>
-      <c r="AB137" s="1"/>
-      <c r="AC137" s="1"/>
+      <c r="Z137" s="6"/>
+      <c r="AA137" s="6"/>
+      <c r="AB137" s="6"/>
+      <c r="AC137" s="6"/>
       <c r="AD137" s="5"/>
       <c r="AE137" s="5"/>
       <c r="AF137" s="5"/>
@@ -8842,37 +8764,37 @@
     <row x14ac:dyDescent="0.25" r="138" customHeight="1" ht="30.75">
       <c r="A138" s="1"/>
       <c r="B138" s="1"/>
-      <c r="C138" s="267"/>
+      <c r="C138" s="245"/>
       <c r="D138" s="96"/>
       <c r="E138" s="96"/>
-      <c r="F138" s="268"/>
-      <c r="G138" s="269"/>
-      <c r="H138" s="270"/>
-      <c r="I138" s="270"/>
-      <c r="J138" s="281"/>
-      <c r="K138" s="275" t="s">
+      <c r="F138" s="246"/>
+      <c r="G138" s="200"/>
+      <c r="H138" s="201"/>
+      <c r="I138" s="201"/>
+      <c r="J138" s="202"/>
+      <c r="K138" s="251" t="s">
         <v>131</v>
       </c>
-      <c r="L138" s="276"/>
-      <c r="M138" s="276"/>
-      <c r="N138" s="276"/>
-      <c r="O138" s="276"/>
-      <c r="P138" s="277"/>
-      <c r="Q138" s="278" t="s">
+      <c r="L138" s="252"/>
+      <c r="M138" s="252"/>
+      <c r="N138" s="252"/>
+      <c r="O138" s="252"/>
+      <c r="P138" s="253"/>
+      <c r="Q138" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="R138" s="128"/>
-      <c r="S138" s="128"/>
-      <c r="T138" s="128"/>
-      <c r="U138" s="128"/>
-      <c r="V138" s="136"/>
+      <c r="R138" s="123"/>
+      <c r="S138" s="123"/>
+      <c r="T138" s="123"/>
+      <c r="U138" s="123"/>
+      <c r="V138" s="131"/>
       <c r="W138" s="1"/>
       <c r="X138" s="5"/>
       <c r="Y138" s="5"/>
-      <c r="Z138" s="1"/>
-      <c r="AA138" s="1"/>
-      <c r="AB138" s="1"/>
-      <c r="AC138" s="1"/>
+      <c r="Z138" s="6"/>
+      <c r="AA138" s="6"/>
+      <c r="AB138" s="6"/>
+      <c r="AC138" s="6"/>
       <c r="AD138" s="5"/>
       <c r="AE138" s="5"/>
       <c r="AF138" s="5"/>
@@ -8883,21 +8805,21 @@
     <row x14ac:dyDescent="0.25" r="139" customHeight="1" ht="30.75">
       <c r="A139" s="1"/>
       <c r="B139" s="1"/>
-      <c r="C139" s="267"/>
+      <c r="C139" s="245"/>
       <c r="D139" s="96"/>
       <c r="E139" s="96"/>
-      <c r="F139" s="268"/>
-      <c r="G139" s="269"/>
-      <c r="H139" s="270"/>
-      <c r="I139" s="270"/>
-      <c r="J139" s="281"/>
+      <c r="F139" s="246"/>
+      <c r="G139" s="200"/>
+      <c r="H139" s="201"/>
+      <c r="I139" s="201"/>
+      <c r="J139" s="202"/>
       <c r="K139" s="40"/>
       <c r="L139" s="41"/>
       <c r="M139" s="41"/>
       <c r="N139" s="41"/>
       <c r="O139" s="41"/>
-      <c r="P139" s="271"/>
-      <c r="Q139" s="264"/>
+      <c r="P139" s="247"/>
+      <c r="Q139" s="244"/>
       <c r="R139" s="83"/>
       <c r="S139" s="83"/>
       <c r="T139" s="83"/>
@@ -8906,10 +8828,10 @@
       <c r="W139" s="1"/>
       <c r="X139" s="5"/>
       <c r="Y139" s="5"/>
-      <c r="Z139" s="1"/>
-      <c r="AA139" s="1"/>
-      <c r="AB139" s="1"/>
-      <c r="AC139" s="1"/>
+      <c r="Z139" s="6"/>
+      <c r="AA139" s="6"/>
+      <c r="AB139" s="6"/>
+      <c r="AC139" s="6"/>
       <c r="AD139" s="5"/>
       <c r="AE139" s="5"/>
       <c r="AF139" s="5"/>
@@ -8925,13 +8847,13 @@
       </c>
       <c r="D140" s="90"/>
       <c r="E140" s="90"/>
-      <c r="F140" s="257"/>
-      <c r="G140" s="265" t="s">
+      <c r="F140" s="237"/>
+      <c r="G140" s="195" t="s">
         <v>132</v>
       </c>
-      <c r="H140" s="266"/>
-      <c r="I140" s="266"/>
-      <c r="J140" s="280"/>
+      <c r="H140" s="196"/>
+      <c r="I140" s="196"/>
+      <c r="J140" s="197"/>
       <c r="K140" s="28" t="s">
         <v>133</v>
       </c>
@@ -8939,8 +8861,8 @@
       <c r="M140" s="29"/>
       <c r="N140" s="29"/>
       <c r="O140" s="29"/>
-      <c r="P140" s="259"/>
-      <c r="Q140" s="260" t="s">
+      <c r="P140" s="239"/>
+      <c r="Q140" s="240" t="s">
         <v>28</v>
       </c>
       <c r="R140" s="80"/>
@@ -8951,10 +8873,10 @@
       <c r="W140" s="1"/>
       <c r="X140" s="5"/>
       <c r="Y140" s="5"/>
-      <c r="Z140" s="1"/>
-      <c r="AA140" s="1"/>
-      <c r="AB140" s="1"/>
-      <c r="AC140" s="1"/>
+      <c r="Z140" s="6"/>
+      <c r="AA140" s="6"/>
+      <c r="AB140" s="6"/>
+      <c r="AC140" s="6"/>
       <c r="AD140" s="5"/>
       <c r="AE140" s="5"/>
       <c r="AF140" s="5"/>
@@ -8965,33 +8887,33 @@
     <row x14ac:dyDescent="0.25" r="141" customHeight="1" ht="29.25">
       <c r="A141" s="1"/>
       <c r="B141" s="1"/>
-      <c r="C141" s="267"/>
+      <c r="C141" s="245"/>
       <c r="D141" s="96"/>
       <c r="E141" s="96"/>
-      <c r="F141" s="268"/>
-      <c r="G141" s="269"/>
-      <c r="H141" s="270"/>
-      <c r="I141" s="270"/>
-      <c r="J141" s="281"/>
+      <c r="F141" s="246"/>
+      <c r="G141" s="200"/>
+      <c r="H141" s="201"/>
+      <c r="I141" s="201"/>
+      <c r="J141" s="202"/>
       <c r="K141" s="40"/>
       <c r="L141" s="41"/>
       <c r="M141" s="41"/>
       <c r="N141" s="41"/>
       <c r="O141" s="41"/>
-      <c r="P141" s="271"/>
-      <c r="Q141" s="285"/>
-      <c r="R141" s="128"/>
-      <c r="S141" s="128"/>
-      <c r="T141" s="128"/>
-      <c r="U141" s="128"/>
-      <c r="V141" s="136"/>
+      <c r="P141" s="247"/>
+      <c r="Q141" s="259"/>
+      <c r="R141" s="123"/>
+      <c r="S141" s="123"/>
+      <c r="T141" s="123"/>
+      <c r="U141" s="123"/>
+      <c r="V141" s="131"/>
       <c r="W141" s="1"/>
       <c r="X141" s="5"/>
       <c r="Y141" s="5"/>
-      <c r="Z141" s="1"/>
-      <c r="AA141" s="1"/>
-      <c r="AB141" s="1"/>
-      <c r="AC141" s="1"/>
+      <c r="Z141" s="6"/>
+      <c r="AA141" s="6"/>
+      <c r="AB141" s="6"/>
+      <c r="AC141" s="6"/>
       <c r="AD141" s="5"/>
       <c r="AE141" s="5"/>
       <c r="AF141" s="5"/>
@@ -9002,37 +8924,37 @@
     <row x14ac:dyDescent="0.25" r="142" customHeight="1" ht="29.25">
       <c r="A142" s="1"/>
       <c r="B142" s="1"/>
-      <c r="C142" s="267"/>
+      <c r="C142" s="245"/>
       <c r="D142" s="96"/>
       <c r="E142" s="96"/>
-      <c r="F142" s="268"/>
-      <c r="G142" s="269"/>
-      <c r="H142" s="270"/>
-      <c r="I142" s="270"/>
-      <c r="J142" s="281"/>
-      <c r="K142" s="275" t="s">
+      <c r="F142" s="246"/>
+      <c r="G142" s="200"/>
+      <c r="H142" s="201"/>
+      <c r="I142" s="201"/>
+      <c r="J142" s="202"/>
+      <c r="K142" s="251" t="s">
         <v>134</v>
       </c>
-      <c r="L142" s="276"/>
-      <c r="M142" s="276"/>
-      <c r="N142" s="276"/>
-      <c r="O142" s="276"/>
-      <c r="P142" s="277"/>
-      <c r="Q142" s="278" t="s">
+      <c r="L142" s="252"/>
+      <c r="M142" s="252"/>
+      <c r="N142" s="252"/>
+      <c r="O142" s="252"/>
+      <c r="P142" s="253"/>
+      <c r="Q142" s="254" t="s">
         <v>31</v>
       </c>
-      <c r="R142" s="128"/>
-      <c r="S142" s="128"/>
-      <c r="T142" s="128"/>
-      <c r="U142" s="128"/>
-      <c r="V142" s="136"/>
+      <c r="R142" s="123"/>
+      <c r="S142" s="123"/>
+      <c r="T142" s="123"/>
+      <c r="U142" s="123"/>
+      <c r="V142" s="131"/>
       <c r="W142" s="1"/>
       <c r="X142" s="5"/>
       <c r="Y142" s="5"/>
-      <c r="Z142" s="1"/>
-      <c r="AA142" s="1"/>
-      <c r="AB142" s="1"/>
-      <c r="AC142" s="1"/>
+      <c r="Z142" s="6"/>
+      <c r="AA142" s="6"/>
+      <c r="AB142" s="6"/>
+      <c r="AC142" s="6"/>
       <c r="AD142" s="5"/>
       <c r="AE142" s="5"/>
       <c r="AF142" s="5"/>
@@ -9046,18 +8968,18 @@
       <c r="C143" s="76"/>
       <c r="D143" s="56"/>
       <c r="E143" s="56"/>
-      <c r="F143" s="261"/>
-      <c r="G143" s="282"/>
-      <c r="H143" s="283"/>
-      <c r="I143" s="283"/>
-      <c r="J143" s="284"/>
-      <c r="K143" s="262"/>
+      <c r="F143" s="241"/>
+      <c r="G143" s="256"/>
+      <c r="H143" s="257"/>
+      <c r="I143" s="257"/>
+      <c r="J143" s="258"/>
+      <c r="K143" s="242"/>
       <c r="L143" s="78"/>
       <c r="M143" s="78"/>
       <c r="N143" s="78"/>
       <c r="O143" s="78"/>
-      <c r="P143" s="263"/>
-      <c r="Q143" s="264"/>
+      <c r="P143" s="243"/>
+      <c r="Q143" s="244"/>
       <c r="R143" s="83"/>
       <c r="S143" s="83"/>
       <c r="T143" s="83"/>
@@ -9066,10 +8988,10 @@
       <c r="W143" s="1"/>
       <c r="X143" s="5"/>
       <c r="Y143" s="5"/>
-      <c r="Z143" s="1"/>
-      <c r="AA143" s="1"/>
-      <c r="AB143" s="1"/>
-      <c r="AC143" s="1"/>
+      <c r="Z143" s="6"/>
+      <c r="AA143" s="6"/>
+      <c r="AB143" s="6"/>
+      <c r="AC143" s="6"/>
       <c r="AD143" s="5"/>
       <c r="AE143" s="5"/>
       <c r="AF143" s="5"/>
